--- a/results/summary_all.xlsx
+++ b/results/summary_all.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kauane Bordin\Meu Drive (kauanembordin@gmail.com)\Capítulo Functional Traits\plant_functional_traits_chapter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B507714-6162-4D63-995C-7B91C36B224F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5D053B-EFE9-4E84-8538-3DBC22E8E290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7345C443-23AC-41F1-AD75-3C55830770F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7345C443-23AC-41F1-AD75-3C55830770F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
+    <sheet name="rounded" sheetId="2" r:id="rId2"/>
+    <sheet name="to gt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="83">
   <si>
     <t>Trait</t>
   </si>
@@ -126,6 +128,165 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>2 (2%)</t>
+  </si>
+  <si>
+    <t>0 (0%)</t>
+  </si>
+  <si>
+    <t>2 (3%)</t>
+  </si>
+  <si>
+    <t>1 (1%)</t>
+  </si>
+  <si>
+    <t>1 (2%)</t>
+  </si>
+  <si>
+    <t>3 (3%)</t>
+  </si>
+  <si>
+    <t>4 (4%)</t>
+  </si>
+  <si>
+    <t>3 (4%)</t>
+  </si>
+  <si>
+    <t>7 (10%)</t>
+  </si>
+  <si>
+    <t>13 (19%)</t>
+  </si>
+  <si>
+    <t>7 (11%)</t>
+  </si>
+  <si>
+    <t>13 (16%)</t>
+  </si>
+  <si>
+    <t>9 (13%)</t>
+  </si>
+  <si>
+    <t>11 (15%)</t>
+  </si>
+  <si>
+    <t>10 (10%)</t>
+  </si>
+  <si>
+    <t>6 (8%)</t>
+  </si>
+  <si>
+    <t>8 (9%)</t>
+  </si>
+  <si>
+    <t>6 (10%)</t>
+  </si>
+  <si>
+    <t>5 (7%)</t>
+  </si>
+  <si>
+    <t>4 (6%)</t>
+  </si>
+  <si>
+    <t>3 (5%)</t>
+  </si>
+  <si>
+    <t>8 (8%)</t>
+  </si>
+  <si>
+    <t>5 (5%)</t>
+  </si>
+  <si>
+    <t>9 (9%)</t>
+  </si>
+  <si>
+    <t>10 (14%)</t>
+  </si>
+  <si>
+    <t>11 (11%)</t>
+  </si>
+  <si>
+    <t>8 (11%)</t>
+  </si>
+  <si>
+    <t>9 (10%)</t>
+  </si>
+  <si>
+    <t>8 (13%)</t>
+  </si>
+  <si>
+    <t>9 (11%)</t>
+  </si>
+  <si>
+    <t>6 (9%)</t>
+  </si>
+  <si>
+    <t>13 (13%)</t>
+  </si>
+  <si>
+    <t>7 (9%)</t>
+  </si>
+  <si>
+    <t>12 (15%)</t>
+  </si>
+  <si>
+    <t>6 (6%)</t>
+  </si>
+  <si>
+    <t>5 (8%)</t>
+  </si>
+  <si>
+    <t>5 (6%)</t>
+  </si>
+  <si>
+    <t>18 (18%)</t>
+  </si>
+  <si>
+    <t>15 (21%)</t>
+  </si>
+  <si>
+    <t>20 (21%)</t>
+  </si>
+  <si>
+    <t>13 (17%)</t>
+  </si>
+  <si>
+    <t>18 (19%)</t>
+  </si>
+  <si>
+    <t>11 (18%)</t>
+  </si>
+  <si>
+    <t>13 (18%)</t>
+  </si>
+  <si>
+    <t>15 (22%)</t>
+  </si>
+  <si>
+    <t>17 (22%)</t>
+  </si>
+  <si>
+    <t>4 (5%)</t>
+  </si>
+  <si>
+    <t>12 (12%)</t>
+  </si>
+  <si>
+    <t>11 (14%)</t>
+  </si>
+  <si>
+    <t>7 (12%)</t>
+  </si>
+  <si>
+    <t>7 (7%)</t>
+  </si>
+  <si>
+    <t>8 (12%)</t>
+  </si>
+  <si>
+    <t>4 (7%)</t>
   </si>
 </sst>
 </file>
@@ -166,12 +327,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE06031-2EB8-4A0E-9EC7-102B8E640FE8}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:Z22"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,26 +673,42 @@
     <col min="17" max="17" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
       <c r="N1" s="1"/>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -608,7 +785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -652,52 +829,100 @@
         <f>(B3/$B$24)*100</f>
         <v>2</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <f>(C3/$C$24)*100</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <f>(D3/$D$24)*100</f>
         <v>0</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <f>(E3/$E$24)*100</f>
         <v>2.6315789473684208</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <f>(F3/$F$24)*100</f>
         <v>0</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <f>(G3/$G$24)*100</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <f>(H3/$H$24)*100</f>
         <v>1.4084507042253522</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="2">
         <f>(I3/$I$24)*100</f>
         <v>0</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="2">
         <f>(J3/$J$24)*100</f>
         <v>1.639344262295082</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="2">
         <f>(K3/$K$24)*100</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="2">
         <f>(L3/$L$24)*100</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="2">
         <f>(M3/$M$24)*100</f>
         <v>1.4084507042253522</v>
       </c>
+      <c r="AB3" t="str">
+        <f>_xlfn.CONCAT(B3, " ", "(",O3,"%",")")</f>
+        <v>2 (2%)</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" ref="AC3:AP18" si="0">_xlfn.CONCAT(C3, " ", "(",P3,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AE3" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.63157894736842%)</v>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AG3" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3.33333333333333%)</v>
+      </c>
+      <c r="AH3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.40845070422535%)</v>
+      </c>
+      <c r="AI3" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.63934426229508%)</v>
+      </c>
+      <c r="AK3" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AM3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.40845070422535%)</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -738,55 +963,103 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O22" si="0">(B4/$B$24)*100</f>
-        <v>3</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" ref="P4:P22" si="1">(C4/$C$24)*100</f>
+        <f t="shared" ref="O4:O22" si="1">(B4/$B$24)*100</f>
+        <v>3</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P22" si="2">(C4/$C$24)*100</f>
         <v>1.3698630136986301</v>
       </c>
-      <c r="Q4" s="4">
-        <f t="shared" ref="Q4:Q22" si="2">(D4/$D$24)*100</f>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:Q22" si="3">(D4/$D$24)*100</f>
         <v>2.0618556701030926</v>
       </c>
-      <c r="R4" s="3">
-        <f t="shared" ref="R4:R22" si="3">(E4/$E$24)*100</f>
+      <c r="R4" s="2">
+        <f t="shared" ref="R4:R22" si="4">(E4/$E$24)*100</f>
         <v>2.6315789473684208</v>
       </c>
-      <c r="S4" s="3">
-        <f t="shared" ref="S4:S22" si="4">(F4/$F$24)*100</f>
+      <c r="S4" s="2">
+        <f t="shared" ref="S4:S22" si="5">(F4/$F$24)*100</f>
         <v>4.2553191489361701</v>
       </c>
-      <c r="T4" s="3">
-        <f t="shared" ref="T4:T22" si="5">(G4/$G$24)*100</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" ref="U4:U22" si="6">(H4/$H$24)*100</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" ref="V4:V22" si="7">(I4/$I$24)*100</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" ref="W4:W22" si="8">(J4/$J$24)*100</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <f t="shared" ref="X4:X22" si="9">(K4/$K$24)*100</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <f t="shared" ref="Y4:Y22" si="10">(L4/$L$24)*100</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" ref="Z4:Z22" si="11">(M4/$M$24)*100</f>
-        <v>0</v>
+      <c r="T4" s="2">
+        <f t="shared" ref="T4:T22" si="6">(G4/$G$24)*100</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" ref="U4:U22" si="7">(H4/$H$24)*100</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" ref="V4:V22" si="8">(I4/$I$24)*100</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" ref="W4:W22" si="9">(J4/$J$24)*100</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" ref="X4:X22" si="10">(K4/$K$24)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" ref="Y4:Y22" si="11">(L4/$L$24)*100</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" ref="Z4:Z22" si="12">(M4/$M$24)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" ref="AB4:AB22" si="13">_xlfn.CONCAT(B4, " ", "(",O4,"%",")")</f>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.36986301369863%)</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.06185567010309%)</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.63157894736842%)</v>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (4.25531914893617%)</v>
+      </c>
+      <c r="AG4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AI4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AM4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -827,55 +1100,103 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="2"/>
         <v>4.10958904109589</v>
       </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q5" s="3">
+        <f t="shared" si="3"/>
         <v>3.0927835051546393</v>
       </c>
-      <c r="R5" s="3">
-        <f t="shared" si="3"/>
+      <c r="R5" s="2">
+        <f t="shared" si="4"/>
         <v>1.3157894736842104</v>
       </c>
-      <c r="S5" s="3">
-        <f t="shared" si="4"/>
+      <c r="S5" s="2">
+        <f t="shared" si="5"/>
         <v>3.1914893617021276</v>
       </c>
-      <c r="T5" s="3">
-        <f t="shared" si="5"/>
+      <c r="T5" s="2">
+        <f t="shared" si="6"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U5" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
+      <c r="U5" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W5" s="3">
+      <c r="V5" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X5" s="3">
+      <c r="W5" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="X5" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Y5" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="13"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4.10958904109589%)</v>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3.09278350515464%)</v>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.31578947368421%)</v>
+      </c>
+      <c r="AF5" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3.19148936170213%)</v>
+      </c>
+      <c r="AG5" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.66666666666667%)</v>
+      </c>
+      <c r="AH5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AI5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AM5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -916,55 +1237,103 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P6" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
         <v>1.0309278350515463</v>
       </c>
-      <c r="R6" s="3">
-        <f t="shared" si="3"/>
+      <c r="R6" s="2">
+        <f t="shared" si="4"/>
         <v>1.3157894736842104</v>
       </c>
-      <c r="S6" s="3">
-        <f t="shared" si="4"/>
+      <c r="S6" s="2">
+        <f t="shared" si="5"/>
         <v>1.0638297872340425</v>
       </c>
-      <c r="T6" s="3">
-        <f t="shared" si="5"/>
+      <c r="T6" s="2">
+        <f t="shared" si="6"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U6" s="3">
-        <f t="shared" si="6"/>
+      <c r="U6" s="2">
+        <f t="shared" si="7"/>
         <v>1.4084507042253522</v>
       </c>
-      <c r="V6" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
+      <c r="V6" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X6" s="3">
+      <c r="W6" s="2">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="10"/>
         <v>1.2658227848101267</v>
       </c>
-      <c r="Y6" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y6" s="2">
+        <f t="shared" si="11"/>
         <v>1.4492753623188406</v>
       </c>
-      <c r="Z6" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Z6" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="13"/>
+        <v>2 (2%)</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AD6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.03092783505155%)</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.31578947368421%)</v>
+      </c>
+      <c r="AF6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.06382978723404%)</v>
+      </c>
+      <c r="AG6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.66666666666667%)</v>
+      </c>
+      <c r="AH6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.40845070422535%)</v>
+      </c>
+      <c r="AI6" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ6" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.26582278481013%)</v>
+      </c>
+      <c r="AL6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.44927536231884%)</v>
+      </c>
+      <c r="AM6" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1005,55 +1374,103 @@
         <v>11</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="2"/>
         <v>1.3698630136986301</v>
       </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q7" s="3">
+        <f t="shared" si="3"/>
         <v>1.0309278350515463</v>
       </c>
-      <c r="R7" s="3">
-        <f t="shared" si="3"/>
+      <c r="R7" s="2">
+        <f t="shared" si="4"/>
         <v>2.6315789473684208</v>
       </c>
-      <c r="S7" s="3">
-        <f t="shared" si="4"/>
+      <c r="S7" s="2">
+        <f t="shared" si="5"/>
         <v>1.0638297872340425</v>
       </c>
-      <c r="T7" s="3">
-        <f t="shared" si="5"/>
+      <c r="T7" s="2">
+        <f t="shared" si="6"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U7" s="3">
-        <f t="shared" si="6"/>
+      <c r="U7" s="2">
+        <f t="shared" si="7"/>
         <v>9.8591549295774641</v>
       </c>
-      <c r="V7" s="3">
-        <f t="shared" si="7"/>
+      <c r="V7" s="2">
+        <f t="shared" si="8"/>
         <v>18.840579710144929</v>
       </c>
-      <c r="W7" s="3">
-        <f t="shared" si="8"/>
+      <c r="W7" s="2">
+        <f t="shared" si="9"/>
         <v>11.475409836065573</v>
       </c>
-      <c r="X7" s="3">
-        <f t="shared" si="9"/>
+      <c r="X7" s="2">
+        <f t="shared" si="10"/>
         <v>16.455696202531644</v>
       </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y7" s="2">
+        <f t="shared" si="11"/>
         <v>13.043478260869565</v>
       </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z7" s="2">
+        <f t="shared" si="12"/>
         <v>15.492957746478872</v>
       </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="13"/>
+        <v>2 (2%)</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.36986301369863%)</v>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.03092783505155%)</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.63157894736842%)</v>
+      </c>
+      <c r="AF7" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.06382978723404%)</v>
+      </c>
+      <c r="AG7" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.66666666666667%)</v>
+      </c>
+      <c r="AH7" t="str">
+        <f t="shared" si="0"/>
+        <v>7 (9.85915492957746%)</v>
+      </c>
+      <c r="AI7" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (18.8405797101449%)</v>
+      </c>
+      <c r="AJ7" t="str">
+        <f t="shared" si="0"/>
+        <v>7 (11.4754098360656%)</v>
+      </c>
+      <c r="AK7" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (16.4556962025316%)</v>
+      </c>
+      <c r="AL7" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (13.0434782608696%)</v>
+      </c>
+      <c r="AM7" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (15.4929577464789%)</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1094,55 +1511,103 @@
         <v>5</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P8" s="3">
-        <f t="shared" si="1"/>
+      <c r="P8" s="2">
+        <f t="shared" si="2"/>
         <v>8.2191780821917799</v>
       </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q8" s="3">
+        <f t="shared" si="3"/>
         <v>10.309278350515463</v>
       </c>
-      <c r="R8" s="3">
-        <f t="shared" si="3"/>
+      <c r="R8" s="2">
+        <f t="shared" si="4"/>
         <v>7.8947368421052628</v>
       </c>
-      <c r="S8" s="3">
-        <f t="shared" si="4"/>
+      <c r="S8" s="2">
+        <f t="shared" si="5"/>
         <v>8.5106382978723403</v>
       </c>
-      <c r="T8" s="3">
-        <f t="shared" si="5"/>
+      <c r="T8" s="2">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="U8" s="3">
-        <f t="shared" si="6"/>
+      <c r="U8" s="2">
+        <f t="shared" si="7"/>
         <v>7.042253521126761</v>
       </c>
-      <c r="V8" s="3">
-        <f t="shared" si="7"/>
+      <c r="V8" s="2">
+        <f t="shared" si="8"/>
         <v>5.7971014492753623</v>
       </c>
-      <c r="W8" s="3">
-        <f t="shared" si="8"/>
+      <c r="W8" s="2">
+        <f t="shared" si="9"/>
         <v>4.918032786885246</v>
       </c>
-      <c r="X8" s="3">
-        <f t="shared" si="9"/>
+      <c r="X8" s="2">
+        <f t="shared" si="10"/>
         <v>7.59493670886076</v>
       </c>
-      <c r="Y8" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y8" s="2">
+        <f t="shared" si="11"/>
         <v>5.7971014492753623</v>
       </c>
-      <c r="Z8" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z8" s="2">
+        <f t="shared" si="12"/>
         <v>7.042253521126761</v>
       </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="13"/>
+        <v>10 (10%)</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (8.21917808219178%)</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="0"/>
+        <v>10 (10.3092783505155%)</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (7.89473684210526%)</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (8.51063829787234%)</v>
+      </c>
+      <c r="AG8" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (10%)</v>
+      </c>
+      <c r="AH8" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (7.04225352112676%)</v>
+      </c>
+      <c r="AI8" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (5.79710144927536%)</v>
+      </c>
+      <c r="AJ8" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4.91803278688525%)</v>
+      </c>
+      <c r="AK8" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (7.59493670886076%)</v>
+      </c>
+      <c r="AL8" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (5.79710144927536%)</v>
+      </c>
+      <c r="AM8" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (7.04225352112676%)</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1183,55 +1648,103 @@
         <v>3</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
         <v>8.2191780821917799</v>
       </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="3">
+        <f t="shared" si="3"/>
         <v>8.2474226804123703</v>
       </c>
-      <c r="R9" s="3">
-        <f t="shared" si="3"/>
+      <c r="R9" s="2">
+        <f t="shared" si="4"/>
         <v>1.3157894736842104</v>
       </c>
-      <c r="S9" s="3">
-        <f t="shared" si="4"/>
+      <c r="S9" s="2">
+        <f t="shared" si="5"/>
         <v>4.2553191489361701</v>
       </c>
-      <c r="T9" s="3">
-        <f t="shared" si="5"/>
+      <c r="T9" s="2">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="U9" s="3">
-        <f t="shared" si="6"/>
+      <c r="U9" s="2">
+        <f t="shared" si="7"/>
         <v>2.8169014084507045</v>
       </c>
-      <c r="V9" s="3">
-        <f t="shared" si="7"/>
+      <c r="V9" s="2">
+        <f t="shared" si="8"/>
         <v>2.8985507246376812</v>
       </c>
-      <c r="W9" s="3">
-        <f t="shared" si="8"/>
+      <c r="W9" s="2">
+        <f t="shared" si="9"/>
         <v>3.278688524590164</v>
       </c>
-      <c r="X9" s="3">
-        <f t="shared" si="9"/>
+      <c r="X9" s="2">
+        <f t="shared" si="10"/>
         <v>2.5316455696202533</v>
       </c>
-      <c r="Y9" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y9" s="2">
+        <f t="shared" si="11"/>
         <v>1.4492753623188406</v>
       </c>
-      <c r="Z9" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z9" s="2">
+        <f t="shared" si="12"/>
         <v>4.225352112676056</v>
       </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="13"/>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (8.21917808219178%)</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (8.24742268041237%)</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.31578947368421%)</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (4.25531914893617%)</v>
+      </c>
+      <c r="AG9" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (5%)</v>
+      </c>
+      <c r="AH9" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.8169014084507%)</v>
+      </c>
+      <c r="AI9" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.89855072463768%)</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3.27868852459016%)</v>
+      </c>
+      <c r="AK9" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.53164556962025%)</v>
+      </c>
+      <c r="AL9" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.44927536231884%)</v>
+      </c>
+      <c r="AM9" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4.22535211267606%)</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1272,55 +1785,103 @@
         <v>3</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="3">
+      <c r="Q10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S10" s="3">
+      <c r="R10" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T10" s="3">
+      <c r="S10" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U10" s="3">
+      <c r="T10" s="2">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="7"/>
         <v>4.225352112676056</v>
       </c>
-      <c r="V10" s="3">
-        <f t="shared" si="7"/>
+      <c r="V10" s="2">
+        <f t="shared" si="8"/>
         <v>2.8985507246376812</v>
       </c>
-      <c r="W10" s="3">
-        <f t="shared" si="8"/>
+      <c r="W10" s="2">
+        <f t="shared" si="9"/>
         <v>4.918032786885246</v>
       </c>
-      <c r="X10" s="3">
-        <f t="shared" si="9"/>
+      <c r="X10" s="2">
+        <f t="shared" si="10"/>
         <v>2.5316455696202533</v>
       </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y10" s="2">
+        <f t="shared" si="11"/>
         <v>2.8985507246376812</v>
       </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z10" s="2">
+        <f t="shared" si="12"/>
         <v>4.225352112676056</v>
       </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="13"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AG10" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4.22535211267606%)</v>
+      </c>
+      <c r="AI10" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.89855072463768%)</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4.91803278688525%)</v>
+      </c>
+      <c r="AK10" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.53164556962025%)</v>
+      </c>
+      <c r="AL10" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.89855072463768%)</v>
+      </c>
+      <c r="AM10" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4.22535211267606%)</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1361,55 +1922,103 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
         <v>6.8493150684931505</v>
       </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="3"/>
         <v>5.1546391752577314</v>
       </c>
-      <c r="R11" s="3">
-        <f t="shared" si="3"/>
+      <c r="R11" s="2">
+        <f t="shared" si="4"/>
         <v>2.6315789473684208</v>
       </c>
-      <c r="S11" s="3">
-        <f t="shared" si="4"/>
+      <c r="S11" s="2">
+        <f t="shared" si="5"/>
         <v>4.2553191489361701</v>
       </c>
-      <c r="T11" s="3">
-        <f t="shared" si="5"/>
+      <c r="T11" s="2">
+        <f t="shared" si="6"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U11" s="3">
-        <f t="shared" si="6"/>
+      <c r="U11" s="2">
+        <f t="shared" si="7"/>
         <v>1.4084507042253522</v>
       </c>
-      <c r="V11" s="3">
-        <f t="shared" si="7"/>
+      <c r="V11" s="2">
+        <f t="shared" si="8"/>
         <v>1.4492753623188406</v>
       </c>
-      <c r="W11" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
+      <c r="W11" s="2">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="10"/>
         <v>2.5316455696202533</v>
       </c>
-      <c r="Y11" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y11" s="2">
+        <f t="shared" si="11"/>
         <v>1.4492753623188406</v>
       </c>
-      <c r="Z11" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z11" s="2">
+        <f t="shared" si="12"/>
         <v>1.4084507042253522</v>
       </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="13"/>
+        <v>2 (2%)</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (6.84931506849315%)</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (5.15463917525773%)</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.63157894736842%)</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (4.25531914893617%)</v>
+      </c>
+      <c r="AG11" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.66666666666667%)</v>
+      </c>
+      <c r="AH11" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.40845070422535%)</v>
+      </c>
+      <c r="AI11" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.44927536231884%)</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK11" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.53164556962025%)</v>
+      </c>
+      <c r="AL11" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.44927536231884%)</v>
+      </c>
+      <c r="AM11" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.40845070422535%)</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1450,55 +2059,103 @@
         <v>9</v>
       </c>
       <c r="O12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P12" s="3">
-        <f t="shared" si="1"/>
+      <c r="P12" s="2">
+        <f t="shared" si="2"/>
         <v>13.698630136986301</v>
       </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q12" s="3">
+        <f t="shared" si="3"/>
         <v>11.340206185567011</v>
       </c>
-      <c r="R12" s="3">
-        <f t="shared" si="3"/>
+      <c r="R12" s="2">
+        <f t="shared" si="4"/>
         <v>10.526315789473683</v>
       </c>
-      <c r="S12" s="3">
-        <f t="shared" si="4"/>
+      <c r="S12" s="2">
+        <f t="shared" si="5"/>
         <v>9.5744680851063837</v>
       </c>
-      <c r="T12" s="3">
-        <f t="shared" si="5"/>
+      <c r="T12" s="2">
+        <f t="shared" si="6"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="U12" s="3">
-        <f t="shared" si="6"/>
+      <c r="U12" s="2">
+        <f t="shared" si="7"/>
         <v>8.4507042253521121</v>
       </c>
-      <c r="V12" s="3">
-        <f t="shared" si="7"/>
+      <c r="V12" s="2">
+        <f t="shared" si="8"/>
         <v>13.043478260869565</v>
       </c>
-      <c r="W12" s="3">
-        <f t="shared" si="8"/>
+      <c r="W12" s="2">
+        <f t="shared" si="9"/>
         <v>9.8360655737704921</v>
       </c>
-      <c r="X12" s="3">
-        <f t="shared" si="9"/>
+      <c r="X12" s="2">
+        <f t="shared" si="10"/>
         <v>11.39240506329114</v>
       </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y12" s="2">
+        <f t="shared" si="11"/>
         <v>8.695652173913043</v>
       </c>
-      <c r="Z12" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z12" s="2">
+        <f t="shared" si="12"/>
         <v>12.676056338028168</v>
       </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="13"/>
+        <v>9 (9%)</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="0"/>
+        <v>10 (13.6986301369863%)</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (11.340206185567%)</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (10.5263157894737%)</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (9.57446808510638%)</v>
+      </c>
+      <c r="AG12" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (13.3333333333333%)</v>
+      </c>
+      <c r="AH12" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (8.45070422535211%)</v>
+      </c>
+      <c r="AI12" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (13.0434782608696%)</v>
+      </c>
+      <c r="AJ12" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (9.83606557377049%)</v>
+      </c>
+      <c r="AK12" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (11.3924050632911%)</v>
+      </c>
+      <c r="AL12" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (8.69565217391304%)</v>
+      </c>
+      <c r="AM12" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (12.6760563380282%)</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1539,55 +2196,103 @@
         <v>10</v>
       </c>
       <c r="O13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="P13" s="3">
-        <f t="shared" si="1"/>
+      <c r="P13" s="2">
+        <f t="shared" si="2"/>
         <v>9.5890410958904102</v>
       </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="3"/>
         <v>13.402061855670103</v>
       </c>
-      <c r="R13" s="3">
-        <f t="shared" si="3"/>
+      <c r="R13" s="2">
+        <f t="shared" si="4"/>
         <v>9.2105263157894726</v>
       </c>
-      <c r="S13" s="3">
-        <f t="shared" si="4"/>
+      <c r="S13" s="2">
+        <f t="shared" si="5"/>
         <v>9.5744680851063837</v>
       </c>
-      <c r="T13" s="3">
-        <f t="shared" si="5"/>
+      <c r="T13" s="2">
+        <f t="shared" si="6"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="U13" s="3">
-        <f t="shared" si="6"/>
+      <c r="U13" s="2">
+        <f t="shared" si="7"/>
         <v>15.492957746478872</v>
       </c>
-      <c r="V13" s="3">
-        <f t="shared" si="7"/>
+      <c r="V13" s="2">
+        <f t="shared" si="8"/>
         <v>13.043478260869565</v>
       </c>
-      <c r="W13" s="3">
-        <f t="shared" si="8"/>
+      <c r="W13" s="2">
+        <f t="shared" si="9"/>
         <v>13.114754098360656</v>
       </c>
-      <c r="X13" s="3">
-        <f t="shared" si="9"/>
+      <c r="X13" s="2">
+        <f t="shared" si="10"/>
         <v>15.18987341772152</v>
       </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y13" s="2">
+        <f t="shared" si="11"/>
         <v>14.492753623188406</v>
       </c>
-      <c r="Z13" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z13" s="2">
+        <f t="shared" si="12"/>
         <v>14.084507042253522</v>
       </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="13"/>
+        <v>13 (13%)</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="0"/>
+        <v>7 (9.58904109589041%)</v>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (13.4020618556701%)</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="0"/>
+        <v>7 (9.21052631578947%)</v>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (9.57446808510638%)</v>
+      </c>
+      <c r="AG13" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (13.3333333333333%)</v>
+      </c>
+      <c r="AH13" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (15.4929577464789%)</v>
+      </c>
+      <c r="AI13" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (13.0434782608696%)</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (13.1147540983607%)</v>
+      </c>
+      <c r="AK13" t="str">
+        <f t="shared" si="0"/>
+        <v>12 (15.1898734177215%)</v>
+      </c>
+      <c r="AL13" t="str">
+        <f t="shared" si="0"/>
+        <v>10 (14.4927536231884%)</v>
+      </c>
+      <c r="AM13" t="str">
+        <f t="shared" si="0"/>
+        <v>10 (14.0845070422535%)</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1628,55 +2333,103 @@
         <v>5</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P14" s="3">
-        <f t="shared" si="1"/>
+      <c r="P14" s="2">
+        <f t="shared" si="2"/>
         <v>2.7397260273972601</v>
       </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q14" s="3">
+        <f t="shared" si="3"/>
         <v>6.1855670103092786</v>
       </c>
-      <c r="R14" s="3">
-        <f t="shared" si="3"/>
+      <c r="R14" s="2">
+        <f t="shared" si="4"/>
         <v>6.5789473684210522</v>
       </c>
-      <c r="S14" s="3">
-        <f t="shared" si="4"/>
+      <c r="S14" s="2">
+        <f t="shared" si="5"/>
         <v>5.3191489361702127</v>
       </c>
-      <c r="T14" s="3">
-        <f t="shared" si="5"/>
+      <c r="T14" s="2">
+        <f t="shared" si="6"/>
         <v>8.3333333333333321</v>
       </c>
-      <c r="U14" s="3">
-        <f t="shared" si="6"/>
+      <c r="U14" s="2">
+        <f t="shared" si="7"/>
         <v>11.267605633802818</v>
       </c>
-      <c r="V14" s="3">
-        <f t="shared" si="7"/>
+      <c r="V14" s="2">
+        <f t="shared" si="8"/>
         <v>2.8985507246376812</v>
       </c>
-      <c r="W14" s="3">
-        <f t="shared" si="8"/>
+      <c r="W14" s="2">
+        <f t="shared" si="9"/>
         <v>8.1967213114754092</v>
       </c>
-      <c r="X14" s="3">
-        <f t="shared" si="9"/>
+      <c r="X14" s="2">
+        <f t="shared" si="10"/>
         <v>6.3291139240506329</v>
       </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y14" s="2">
+        <f t="shared" si="11"/>
         <v>7.2463768115942031</v>
       </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z14" s="2">
+        <f t="shared" si="12"/>
         <v>7.042253521126761</v>
       </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="13"/>
+        <v>9 (9%)</v>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.73972602739726%)</v>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (6.18556701030928%)</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (6.57894736842105%)</v>
+      </c>
+      <c r="AF14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (5.31914893617021%)</v>
+      </c>
+      <c r="AG14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (8.33333333333333%)</v>
+      </c>
+      <c r="AH14" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (11.2676056338028%)</v>
+      </c>
+      <c r="AI14" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.89855072463768%)</v>
+      </c>
+      <c r="AJ14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (8.19672131147541%)</v>
+      </c>
+      <c r="AK14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (6.32911392405063%)</v>
+      </c>
+      <c r="AL14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (7.2463768115942%)</v>
+      </c>
+      <c r="AM14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (7.04225352112676%)</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1717,55 +2470,103 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="2"/>
         <v>2.7397260273972601</v>
       </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
         <v>3.0927835051546393</v>
       </c>
-      <c r="R15" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="R15" s="2">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="5"/>
         <v>3.1914893617021276</v>
       </c>
-      <c r="T15" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="T15" s="2">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="7"/>
         <v>1.4084507042253522</v>
       </c>
-      <c r="V15" s="3">
-        <f t="shared" si="7"/>
+      <c r="V15" s="2">
+        <f t="shared" si="8"/>
         <v>2.8985507246376812</v>
       </c>
-      <c r="W15" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="W15" s="2">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="10"/>
         <v>3.79746835443038</v>
       </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y15" s="2">
+        <f t="shared" si="11"/>
         <v>4.3478260869565215</v>
       </c>
-      <c r="Z15" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Z15" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="13"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.73972602739726%)</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3.09278350515464%)</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3.19148936170213%)</v>
+      </c>
+      <c r="AG15" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH15" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.40845070422535%)</v>
+      </c>
+      <c r="AI15" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.89855072463768%)</v>
+      </c>
+      <c r="AJ15" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK15" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3.79746835443038%)</v>
+      </c>
+      <c r="AL15" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4.34782608695652%)</v>
+      </c>
+      <c r="AM15" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1806,55 +2607,103 @@
         <v>13</v>
       </c>
       <c r="O16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="P16" s="3">
-        <f t="shared" si="1"/>
+      <c r="P16" s="2">
+        <f t="shared" si="2"/>
         <v>20.547945205479451</v>
       </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q16" s="3">
+        <f t="shared" si="3"/>
         <v>20.618556701030926</v>
       </c>
-      <c r="R16" s="3">
-        <f t="shared" si="3"/>
+      <c r="R16" s="2">
+        <f t="shared" si="4"/>
         <v>17.105263157894736</v>
       </c>
-      <c r="S16" s="3">
-        <f t="shared" si="4"/>
+      <c r="S16" s="2">
+        <f t="shared" si="5"/>
         <v>19.148936170212767</v>
       </c>
-      <c r="T16" s="3">
-        <f t="shared" si="5"/>
+      <c r="T16" s="2">
+        <f t="shared" si="6"/>
         <v>18.333333333333332</v>
       </c>
-      <c r="U16" s="3">
-        <f t="shared" si="6"/>
+      <c r="U16" s="2">
+        <f t="shared" si="7"/>
         <v>18.30985915492958</v>
       </c>
-      <c r="V16" s="3">
-        <f t="shared" si="7"/>
+      <c r="V16" s="2">
+        <f t="shared" si="8"/>
         <v>21.739130434782609</v>
       </c>
-      <c r="W16" s="3">
-        <f t="shared" si="8"/>
+      <c r="W16" s="2">
+        <f t="shared" si="9"/>
         <v>18.032786885245901</v>
       </c>
-      <c r="X16" s="3">
-        <f t="shared" si="9"/>
+      <c r="X16" s="2">
+        <f t="shared" si="10"/>
         <v>21.518987341772153</v>
       </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y16" s="2">
+        <f t="shared" si="11"/>
         <v>21.739130434782609</v>
       </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z16" s="2">
+        <f t="shared" si="12"/>
         <v>18.30985915492958</v>
       </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="13"/>
+        <v>18 (18%)</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="0"/>
+        <v>15 (20.5479452054795%)</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="0"/>
+        <v>20 (20.6185567010309%)</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (17.1052631578947%)</v>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="0"/>
+        <v>18 (19.1489361702128%)</v>
+      </c>
+      <c r="AG16" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (18.3333333333333%)</v>
+      </c>
+      <c r="AH16" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (18.3098591549296%)</v>
+      </c>
+      <c r="AI16" t="str">
+        <f t="shared" si="0"/>
+        <v>15 (21.7391304347826%)</v>
+      </c>
+      <c r="AJ16" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (18.0327868852459%)</v>
+      </c>
+      <c r="AK16" t="str">
+        <f t="shared" si="0"/>
+        <v>17 (21.5189873417722%)</v>
+      </c>
+      <c r="AL16" t="str">
+        <f t="shared" si="0"/>
+        <v>15 (21.7391304347826%)</v>
+      </c>
+      <c r="AM16" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (18.3098591549296%)</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1898,52 +2747,100 @@
         <f>(B17/$B$24)*100</f>
         <v>4</v>
       </c>
-      <c r="P17" s="3">
-        <f t="shared" si="1"/>
+      <c r="P17" s="2">
+        <f t="shared" si="2"/>
         <v>4.10958904109589</v>
       </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q17" s="3">
+        <f t="shared" si="3"/>
         <v>3.0927835051546393</v>
       </c>
-      <c r="R17" s="3">
-        <f t="shared" si="3"/>
+      <c r="R17" s="2">
+        <f t="shared" si="4"/>
         <v>5.2631578947368416</v>
       </c>
-      <c r="S17" s="3">
-        <f t="shared" si="4"/>
+      <c r="S17" s="2">
+        <f t="shared" si="5"/>
         <v>4.2553191489361701</v>
       </c>
-      <c r="T17" s="3">
-        <f t="shared" si="5"/>
+      <c r="T17" s="2">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="U17" s="3">
-        <f t="shared" si="6"/>
+      <c r="U17" s="2">
+        <f t="shared" si="7"/>
         <v>1.4084507042253522</v>
       </c>
-      <c r="V17" s="3">
-        <f t="shared" si="7"/>
+      <c r="V17" s="2">
+        <f t="shared" si="8"/>
         <v>1.4492753623188406</v>
       </c>
-      <c r="W17" s="3">
-        <f t="shared" si="8"/>
+      <c r="W17" s="2">
+        <f t="shared" si="9"/>
         <v>1.639344262295082</v>
       </c>
-      <c r="X17" s="3">
-        <f t="shared" si="9"/>
+      <c r="X17" s="2">
+        <f t="shared" si="10"/>
         <v>1.2658227848101267</v>
       </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y17" s="2">
+        <f t="shared" si="11"/>
         <v>1.4492753623188406</v>
       </c>
-      <c r="Z17" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z17" s="2">
+        <f t="shared" si="12"/>
         <v>1.4084507042253522</v>
       </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="13"/>
+        <v>4 (4%)</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4.10958904109589%)</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3.09278350515464%)</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (5.26315789473684%)</v>
+      </c>
+      <c r="AF17" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (4.25531914893617%)</v>
+      </c>
+      <c r="AG17" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (5%)</v>
+      </c>
+      <c r="AH17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.40845070422535%)</v>
+      </c>
+      <c r="AI17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.44927536231884%)</v>
+      </c>
+      <c r="AJ17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.63934426229508%)</v>
+      </c>
+      <c r="AK17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.26582278481013%)</v>
+      </c>
+      <c r="AL17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.44927536231884%)</v>
+      </c>
+      <c r="AM17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1.40845070422535%)</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1984,55 +2881,103 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
+      <c r="P18" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="3"/>
         <v>2.0618556701030926</v>
       </c>
-      <c r="R18" s="3">
-        <f t="shared" si="3"/>
+      <c r="R18" s="2">
+        <f t="shared" si="4"/>
         <v>3.9473684210526314</v>
       </c>
-      <c r="S18" s="3">
-        <f t="shared" si="4"/>
+      <c r="S18" s="2">
+        <f t="shared" si="5"/>
         <v>5.3191489361702127</v>
       </c>
-      <c r="T18" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="T18" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V18" s="3">
+      <c r="U18" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W18" s="3">
+      <c r="V18" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X18" s="3">
+      <c r="W18" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="X18" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Y18" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="13"/>
+        <v>5 (5%)</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2.06185567010309%)</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3.94736842105263%)</v>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (5.31914893617021%)</v>
+      </c>
+      <c r="AG18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AI18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AM18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2073,55 +3018,103 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
+      <c r="P19" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R19" s="3">
+      <c r="Q19" s="3">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="4"/>
         <v>5.2631578947368416</v>
       </c>
-      <c r="S19" s="3">
-        <f t="shared" si="4"/>
+      <c r="S19" s="2">
+        <f t="shared" si="5"/>
         <v>1.0638297872340425</v>
       </c>
-      <c r="T19" s="3">
-        <f t="shared" si="5"/>
+      <c r="T19" s="2">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="U19" s="3">
-        <f t="shared" si="6"/>
+      <c r="U19" s="2">
+        <f t="shared" si="7"/>
         <v>2.8169014084507045</v>
       </c>
-      <c r="V19" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="3">
+      <c r="V19" s="2">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="9"/>
         <v>3.278688524590164</v>
       </c>
-      <c r="X19" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3">
+      <c r="X19" s="2">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="11"/>
         <v>1.4492753623188406</v>
       </c>
-      <c r="Z19" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z19" s="2">
+        <f t="shared" si="12"/>
         <v>1.4084507042253522</v>
       </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="13"/>
+        <v>4 (4%)</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" ref="AC19:AC22" si="14">_xlfn.CONCAT(C19, " ", "(",P19,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" ref="AD19:AD22" si="15">_xlfn.CONCAT(D19, " ", "(",Q19,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" ref="AE19:AE22" si="16">_xlfn.CONCAT(E19, " ", "(",R19,"%",")")</f>
+        <v>4 (5.26315789473684%)</v>
+      </c>
+      <c r="AF19" t="str">
+        <f t="shared" ref="AF19:AF22" si="17">_xlfn.CONCAT(F19, " ", "(",S19,"%",")")</f>
+        <v>1 (1.06382978723404%)</v>
+      </c>
+      <c r="AG19" t="str">
+        <f t="shared" ref="AG19:AG22" si="18">_xlfn.CONCAT(G19, " ", "(",T19,"%",")")</f>
+        <v>3 (5%)</v>
+      </c>
+      <c r="AH19" t="str">
+        <f t="shared" ref="AH19:AH22" si="19">_xlfn.CONCAT(H19, " ", "(",U19,"%",")")</f>
+        <v>2 (2.8169014084507%)</v>
+      </c>
+      <c r="AI19" t="str">
+        <f t="shared" ref="AI19:AI22" si="20">_xlfn.CONCAT(I19, " ", "(",V19,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ19" t="str">
+        <f t="shared" ref="AJ19:AJ22" si="21">_xlfn.CONCAT(J19, " ", "(",W19,"%",")")</f>
+        <v>2 (3.27868852459016%)</v>
+      </c>
+      <c r="AK19" t="str">
+        <f t="shared" ref="AK19:AK22" si="22">_xlfn.CONCAT(K19, " ", "(",X19,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL19" t="str">
+        <f t="shared" ref="AL19:AL22" si="23">_xlfn.CONCAT(L19, " ", "(",Y19,"%",")")</f>
+        <v>1 (1.44927536231884%)</v>
+      </c>
+      <c r="AM19" t="str">
+        <f t="shared" ref="AM19:AM22" si="24">_xlfn.CONCAT(M19, " ", "(",Z19,"%",")")</f>
+        <v>1 (1.40845070422535%)</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2162,55 +3155,103 @@
         <v>6</v>
       </c>
       <c r="O20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P20" s="3">
-        <f t="shared" si="1"/>
+      <c r="P20" s="2">
+        <f t="shared" si="2"/>
         <v>2.7397260273972601</v>
       </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q20" s="3">
+        <f t="shared" si="3"/>
         <v>3.0927835051546393</v>
       </c>
-      <c r="R20" s="3">
-        <f t="shared" si="3"/>
+      <c r="R20" s="2">
+        <f t="shared" si="4"/>
         <v>14.473684210526317</v>
       </c>
-      <c r="S20" s="3">
-        <f t="shared" si="4"/>
+      <c r="S20" s="2">
+        <f t="shared" si="5"/>
         <v>5.3191489361702127</v>
       </c>
-      <c r="T20" s="3">
-        <f t="shared" si="5"/>
+      <c r="T20" s="2">
+        <f t="shared" si="6"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="U20" s="3">
-        <f t="shared" si="6"/>
+      <c r="U20" s="2">
+        <f t="shared" si="7"/>
         <v>11.267605633802818</v>
       </c>
-      <c r="V20" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="V20" s="2">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="9"/>
         <v>11.475409836065573</v>
       </c>
-      <c r="X20" s="3">
-        <f t="shared" si="9"/>
+      <c r="X20" s="2">
+        <f t="shared" si="10"/>
         <v>1.2658227848101267</v>
       </c>
-      <c r="Y20" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y20" s="2">
+        <f t="shared" si="11"/>
         <v>2.8985507246376812</v>
       </c>
-      <c r="Z20" s="3">
-        <f t="shared" si="11"/>
+      <c r="Z20" s="2">
+        <f t="shared" si="12"/>
         <v>8.4507042253521121</v>
       </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="13"/>
+        <v>12 (12%)</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="14"/>
+        <v>2 (2.73972602739726%)</v>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="15"/>
+        <v>3 (3.09278350515464%)</v>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="16"/>
+        <v>11 (14.4736842105263%)</v>
+      </c>
+      <c r="AF20" t="str">
+        <f t="shared" si="17"/>
+        <v>5 (5.31914893617021%)</v>
+      </c>
+      <c r="AG20" t="str">
+        <f t="shared" si="18"/>
+        <v>7 (11.6666666666667%)</v>
+      </c>
+      <c r="AH20" t="str">
+        <f t="shared" si="19"/>
+        <v>8 (11.2676056338028%)</v>
+      </c>
+      <c r="AI20" t="str">
+        <f t="shared" si="20"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ20" t="str">
+        <f t="shared" si="21"/>
+        <v>7 (11.4754098360656%)</v>
+      </c>
+      <c r="AK20" t="str">
+        <f t="shared" si="22"/>
+        <v>1 (1.26582278481013%)</v>
+      </c>
+      <c r="AL20" t="str">
+        <f t="shared" si="23"/>
+        <v>2 (2.89855072463768%)</v>
+      </c>
+      <c r="AM20" t="str">
+        <f t="shared" si="24"/>
+        <v>6 (8.45070422535211%)</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2251,55 +3292,103 @@
         <v>2</v>
       </c>
       <c r="O21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="2"/>
         <v>4.10958904109589</v>
       </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q21" s="3">
+        <f t="shared" si="3"/>
         <v>3.0927835051546393</v>
       </c>
-      <c r="R21" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="R21" s="2">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="5"/>
         <v>3.1914893617021276</v>
       </c>
-      <c r="T21" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="T21" s="2">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="7"/>
         <v>1.4084507042253522</v>
       </c>
-      <c r="V21" s="3">
-        <f t="shared" si="7"/>
+      <c r="V21" s="2">
+        <f t="shared" si="8"/>
         <v>1.4492753623188406</v>
       </c>
-      <c r="W21" s="3">
-        <f t="shared" si="8"/>
+      <c r="W21" s="2">
+        <f t="shared" si="9"/>
         <v>1.639344262295082</v>
       </c>
-      <c r="X21" s="3">
-        <f t="shared" si="9"/>
+      <c r="X21" s="2">
+        <f t="shared" si="10"/>
         <v>1.2658227848101267</v>
       </c>
-      <c r="Y21" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Y21" s="2">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="12"/>
         <v>2.8169014084507045</v>
       </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="13"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="14"/>
+        <v>3 (4.10958904109589%)</v>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="15"/>
+        <v>3 (3.09278350515464%)</v>
+      </c>
+      <c r="AE21" t="str">
+        <f t="shared" si="16"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AF21" t="str">
+        <f t="shared" si="17"/>
+        <v>3 (3.19148936170213%)</v>
+      </c>
+      <c r="AG21" t="str">
+        <f t="shared" si="18"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH21" t="str">
+        <f t="shared" si="19"/>
+        <v>1 (1.40845070422535%)</v>
+      </c>
+      <c r="AI21" t="str">
+        <f t="shared" si="20"/>
+        <v>1 (1.44927536231884%)</v>
+      </c>
+      <c r="AJ21" t="str">
+        <f t="shared" si="21"/>
+        <v>1 (1.63934426229508%)</v>
+      </c>
+      <c r="AK21" t="str">
+        <f t="shared" si="22"/>
+        <v>1 (1.26582278481013%)</v>
+      </c>
+      <c r="AL21" t="str">
+        <f t="shared" si="23"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AM21" t="str">
+        <f t="shared" si="24"/>
+        <v>2 (2.8169014084507%)</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2340,55 +3429,103 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="2"/>
         <v>9.5890410958904102</v>
       </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="2"/>
+      <c r="Q22" s="3">
+        <f t="shared" si="3"/>
         <v>3.0927835051546393</v>
       </c>
-      <c r="R22" s="3">
-        <f t="shared" si="3"/>
+      <c r="R22" s="2">
+        <f t="shared" si="4"/>
         <v>5.2631578947368416</v>
       </c>
-      <c r="S22" s="3">
-        <f t="shared" si="4"/>
+      <c r="S22" s="2">
+        <f t="shared" si="5"/>
         <v>7.4468085106382977</v>
       </c>
-      <c r="T22" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="T22" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V22" s="3">
+      <c r="U22" s="2">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" si="8"/>
         <v>11.594202898550725</v>
       </c>
-      <c r="W22" s="3">
-        <f t="shared" si="8"/>
+      <c r="W22" s="2">
+        <f t="shared" si="9"/>
         <v>6.557377049180328</v>
       </c>
-      <c r="X22" s="3">
-        <f t="shared" si="9"/>
+      <c r="X22" s="2">
+        <f t="shared" si="10"/>
         <v>5.0632911392405067</v>
       </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="10"/>
+      <c r="Y22" s="2">
+        <f t="shared" si="11"/>
         <v>11.594202898550725</v>
       </c>
-      <c r="Z22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="Z22" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="13"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="14"/>
+        <v>7 (9.58904109589041%)</v>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" si="15"/>
+        <v>3 (3.09278350515464%)</v>
+      </c>
+      <c r="AE22" t="str">
+        <f t="shared" si="16"/>
+        <v>4 (5.26315789473684%)</v>
+      </c>
+      <c r="AF22" t="str">
+        <f t="shared" si="17"/>
+        <v>7 (7.4468085106383%)</v>
+      </c>
+      <c r="AG22" t="str">
+        <f t="shared" si="18"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH22" t="str">
+        <f t="shared" si="19"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AI22" t="str">
+        <f t="shared" si="20"/>
+        <v>8 (11.5942028985507%)</v>
+      </c>
+      <c r="AJ22" t="str">
+        <f t="shared" si="21"/>
+        <v>4 (6.55737704918033%)</v>
+      </c>
+      <c r="AK22" t="str">
+        <f t="shared" si="22"/>
+        <v>4 (5.06329113924051%)</v>
+      </c>
+      <c r="AL22" t="str">
+        <f t="shared" si="23"/>
+        <v>8 (11.5942028985507%)</v>
+      </c>
+      <c r="AM22" t="str">
+        <f t="shared" si="24"/>
+        <v>0 (0%)</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2397,55 +3534,3668 @@
         <v>100</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:M24" si="12">SUM(C3:C22)</f>
+        <f t="shared" ref="C24:M24" si="25">SUM(C3:C22)</f>
         <v>73</v>
       </c>
       <c r="D24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>97</v>
       </c>
       <c r="E24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>76</v>
       </c>
       <c r="F24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>94</v>
       </c>
       <c r="G24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>60</v>
       </c>
       <c r="H24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>71</v>
       </c>
       <c r="I24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>69</v>
       </c>
       <c r="J24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>61</v>
       </c>
       <c r="K24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>79</v>
       </c>
       <c r="L24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>69</v>
       </c>
       <c r="M24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A585B6B-0BC8-4131-AADC-335DF40288C6}">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AM1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>3</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>3</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>2</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>_xlfn.CONCAT(B3, " ", "(",O3,"%",")")</f>
+        <v>2 (2%)</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" ref="AC3:AM18" si="0">_xlfn.CONCAT(C3, " ", "(",P3,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AE3" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AG3" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AH3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AI3" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (2%)</v>
+      </c>
+      <c r="AK3" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AM3" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2">
+        <v>4</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" ref="AB4:AM22" si="1">_xlfn.CONCAT(B4, " ", "(",O4,"%",")")</f>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2%)</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (4%)</v>
+      </c>
+      <c r="AG4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AI4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AM4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3</v>
+      </c>
+      <c r="T5" s="2">
+        <v>2</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4%)</v>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AF5" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AG5" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (2%)</v>
+      </c>
+      <c r="AH5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AI5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AM5" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>2</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
+        <v>2 (2%)</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AD6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AF6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AG6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (2%)</v>
+      </c>
+      <c r="AH6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AI6" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ6" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AL6" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AM6" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>2</v>
+      </c>
+      <c r="U7" s="2">
+        <v>10</v>
+      </c>
+      <c r="V7" s="2">
+        <v>19</v>
+      </c>
+      <c r="W7" s="2">
+        <v>11</v>
+      </c>
+      <c r="X7" s="2">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="1"/>
+        <v>2 (2%)</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AF7" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AG7" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (2%)</v>
+      </c>
+      <c r="AH7" t="str">
+        <f t="shared" si="0"/>
+        <v>7 (10%)</v>
+      </c>
+      <c r="AI7" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (19%)</v>
+      </c>
+      <c r="AJ7" t="str">
+        <f t="shared" si="0"/>
+        <v>7 (11%)</v>
+      </c>
+      <c r="AK7" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (16%)</v>
+      </c>
+      <c r="AL7" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (13%)</v>
+      </c>
+      <c r="AM7" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (15%)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>10</v>
+      </c>
+      <c r="R8" s="2">
+        <v>8</v>
+      </c>
+      <c r="S8" s="2">
+        <v>9</v>
+      </c>
+      <c r="T8" s="2">
+        <v>10</v>
+      </c>
+      <c r="U8" s="2">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2">
+        <v>6</v>
+      </c>
+      <c r="W8" s="2">
+        <v>5</v>
+      </c>
+      <c r="X8" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="1"/>
+        <v>10 (10%)</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (8%)</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="0"/>
+        <v>10 (10%)</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (8%)</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (9%)</v>
+      </c>
+      <c r="AG8" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (10%)</v>
+      </c>
+      <c r="AH8" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (7%)</v>
+      </c>
+      <c r="AI8" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (6%)</v>
+      </c>
+      <c r="AJ8" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (5%)</v>
+      </c>
+      <c r="AK8" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (8%)</v>
+      </c>
+      <c r="AL8" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (6%)</v>
+      </c>
+      <c r="AM8" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (7%)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>8</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>4</v>
+      </c>
+      <c r="T9" s="2">
+        <v>5</v>
+      </c>
+      <c r="U9" s="2">
+        <v>3</v>
+      </c>
+      <c r="V9" s="2">
+        <v>3</v>
+      </c>
+      <c r="W9" s="2">
+        <v>3</v>
+      </c>
+      <c r="X9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="1"/>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (8%)</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (8%)</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (4%)</v>
+      </c>
+      <c r="AG9" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (5%)</v>
+      </c>
+      <c r="AH9" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AI9" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AK9" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AL9" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AM9" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4%)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>4</v>
+      </c>
+      <c r="V10" s="2">
+        <v>3</v>
+      </c>
+      <c r="W10" s="2">
+        <v>5</v>
+      </c>
+      <c r="X10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AG10" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4%)</v>
+      </c>
+      <c r="AI10" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (5%)</v>
+      </c>
+      <c r="AK10" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AL10" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AM10" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4%)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>5</v>
+      </c>
+      <c r="R11" s="2">
+        <v>3</v>
+      </c>
+      <c r="S11" s="2">
+        <v>4</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="1"/>
+        <v>2 (2%)</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (7%)</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (5%)</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (4%)</v>
+      </c>
+      <c r="AG11" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (2%)</v>
+      </c>
+      <c r="AH11" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AI11" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK11" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AL11" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AM11" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>11</v>
+      </c>
+      <c r="R12" s="2">
+        <v>11</v>
+      </c>
+      <c r="S12" s="2">
+        <v>10</v>
+      </c>
+      <c r="T12" s="2">
+        <v>13</v>
+      </c>
+      <c r="U12" s="2">
+        <v>8</v>
+      </c>
+      <c r="V12" s="2">
+        <v>13</v>
+      </c>
+      <c r="W12" s="2">
+        <v>10</v>
+      </c>
+      <c r="X12" s="2">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="1"/>
+        <v>9 (9%)</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="0"/>
+        <v>10 (14%)</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (11%)</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (11%)</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (10%)</v>
+      </c>
+      <c r="AG12" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (13%)</v>
+      </c>
+      <c r="AH12" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (8%)</v>
+      </c>
+      <c r="AI12" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (13%)</v>
+      </c>
+      <c r="AJ12" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (10%)</v>
+      </c>
+      <c r="AK12" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (11%)</v>
+      </c>
+      <c r="AL12" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (9%)</v>
+      </c>
+      <c r="AM12" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (13%)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>13</v>
+      </c>
+      <c r="P13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>13</v>
+      </c>
+      <c r="R13" s="2">
+        <v>9</v>
+      </c>
+      <c r="S13" s="2">
+        <v>10</v>
+      </c>
+      <c r="T13" s="2">
+        <v>13</v>
+      </c>
+      <c r="U13" s="2">
+        <v>15</v>
+      </c>
+      <c r="V13" s="2">
+        <v>13</v>
+      </c>
+      <c r="W13" s="2">
+        <v>13</v>
+      </c>
+      <c r="X13" s="2">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>14</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="1"/>
+        <v>13 (13%)</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="0"/>
+        <v>7 (10%)</v>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (13%)</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="0"/>
+        <v>7 (9%)</v>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (10%)</v>
+      </c>
+      <c r="AG13" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (13%)</v>
+      </c>
+      <c r="AH13" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (15%)</v>
+      </c>
+      <c r="AI13" t="str">
+        <f t="shared" si="0"/>
+        <v>9 (13%)</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (13%)</v>
+      </c>
+      <c r="AK13" t="str">
+        <f t="shared" si="0"/>
+        <v>12 (15%)</v>
+      </c>
+      <c r="AL13" t="str">
+        <f t="shared" si="0"/>
+        <v>10 (14%)</v>
+      </c>
+      <c r="AM13" t="str">
+        <f t="shared" si="0"/>
+        <v>10 (14%)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>6</v>
+      </c>
+      <c r="R14" s="2">
+        <v>7</v>
+      </c>
+      <c r="S14" s="2">
+        <v>5</v>
+      </c>
+      <c r="T14" s="2">
+        <v>8</v>
+      </c>
+      <c r="U14" s="2">
+        <v>11</v>
+      </c>
+      <c r="V14" s="2">
+        <v>3</v>
+      </c>
+      <c r="W14" s="2">
+        <v>8</v>
+      </c>
+      <c r="X14" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="1"/>
+        <v>9 (9%)</v>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (6%)</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (7%)</v>
+      </c>
+      <c r="AF14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (5%)</v>
+      </c>
+      <c r="AG14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (8%)</v>
+      </c>
+      <c r="AH14" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (11%)</v>
+      </c>
+      <c r="AI14" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AJ14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (8%)</v>
+      </c>
+      <c r="AK14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (6%)</v>
+      </c>
+      <c r="AL14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (7%)</v>
+      </c>
+      <c r="AM14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (7%)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>3</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2">
+        <v>3</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AG15" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH15" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AI15" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AJ15" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK15" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4%)</v>
+      </c>
+      <c r="AL15" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4%)</v>
+      </c>
+      <c r="AM15" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>17</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="O16">
+        <v>18</v>
+      </c>
+      <c r="P16" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>21</v>
+      </c>
+      <c r="R16" s="2">
+        <v>17</v>
+      </c>
+      <c r="S16" s="2">
+        <v>19</v>
+      </c>
+      <c r="T16" s="2">
+        <v>18</v>
+      </c>
+      <c r="U16" s="2">
+        <v>18</v>
+      </c>
+      <c r="V16" s="2">
+        <v>22</v>
+      </c>
+      <c r="W16" s="2">
+        <v>18</v>
+      </c>
+      <c r="X16" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>18</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="1"/>
+        <v>18 (18%)</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="0"/>
+        <v>15 (21%)</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="0"/>
+        <v>20 (21%)</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (17%)</v>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="0"/>
+        <v>18 (19%)</v>
+      </c>
+      <c r="AG16" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (18%)</v>
+      </c>
+      <c r="AH16" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (18%)</v>
+      </c>
+      <c r="AI16" t="str">
+        <f t="shared" si="0"/>
+        <v>15 (22%)</v>
+      </c>
+      <c r="AJ16" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (18%)</v>
+      </c>
+      <c r="AK16" t="str">
+        <f t="shared" si="0"/>
+        <v>17 (22%)</v>
+      </c>
+      <c r="AL16" t="str">
+        <f t="shared" si="0"/>
+        <v>15 (22%)</v>
+      </c>
+      <c r="AM16" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (18%)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2">
+        <v>5</v>
+      </c>
+      <c r="S17" s="2">
+        <v>4</v>
+      </c>
+      <c r="T17" s="2">
+        <v>5</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2">
+        <v>2</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="1"/>
+        <v>4 (4%)</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4%)</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (5%)</v>
+      </c>
+      <c r="AF17" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (4%)</v>
+      </c>
+      <c r="AG17" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (5%)</v>
+      </c>
+      <c r="AH17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AI17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AJ17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (2%)</v>
+      </c>
+      <c r="AK17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AL17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AM17" t="str">
+        <f t="shared" si="0"/>
+        <v>1 (1%)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>4</v>
+      </c>
+      <c r="S18" s="2">
+        <v>5</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="1"/>
+        <v>5 (5%)</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (2%)</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (4%)</v>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (5%)</v>
+      </c>
+      <c r="AG18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AI18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AK18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AM18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>5</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>5</v>
+      </c>
+      <c r="U19" s="2">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>3</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="1"/>
+        <v>4 (4%)</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="1"/>
+        <v>4 (5%)</v>
+      </c>
+      <c r="AF19" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AG19" t="str">
+        <f t="shared" si="1"/>
+        <v>3 (5%)</v>
+      </c>
+      <c r="AH19" t="str">
+        <f t="shared" si="1"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AI19" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ19" t="str">
+        <f t="shared" si="1"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AK19" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL19" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AM19" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (1%)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+      <c r="P20" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>3</v>
+      </c>
+      <c r="R20" s="2">
+        <v>14</v>
+      </c>
+      <c r="S20" s="2">
+        <v>5</v>
+      </c>
+      <c r="T20" s="2">
+        <v>12</v>
+      </c>
+      <c r="U20" s="2">
+        <v>11</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>11</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="1"/>
+        <v>12 (12%)</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="1"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="1"/>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="1"/>
+        <v>11 (14%)</v>
+      </c>
+      <c r="AF20" t="str">
+        <f t="shared" si="1"/>
+        <v>5 (5%)</v>
+      </c>
+      <c r="AG20" t="str">
+        <f t="shared" si="1"/>
+        <v>7 (12%)</v>
+      </c>
+      <c r="AH20" t="str">
+        <f t="shared" si="1"/>
+        <v>8 (11%)</v>
+      </c>
+      <c r="AI20" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ20" t="str">
+        <f t="shared" si="1"/>
+        <v>7 (11%)</v>
+      </c>
+      <c r="AK20" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AL20" t="str">
+        <f t="shared" si="1"/>
+        <v>2 (3%)</v>
+      </c>
+      <c r="AM20" t="str">
+        <f t="shared" si="1"/>
+        <v>6 (8%)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>3</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="W21" s="2">
+        <v>2</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="1"/>
+        <v>3 (4%)</v>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="1"/>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AE21" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AF21" t="str">
+        <f t="shared" si="1"/>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AG21" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH21" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AI21" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AJ21" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (2%)</v>
+      </c>
+      <c r="AK21" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (1%)</v>
+      </c>
+      <c r="AL21" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AM21" t="str">
+        <f t="shared" si="1"/>
+        <v>2 (3%)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>3</v>
+      </c>
+      <c r="R22" s="2">
+        <v>5</v>
+      </c>
+      <c r="S22" s="2">
+        <v>7</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>12</v>
+      </c>
+      <c r="W22" s="2">
+        <v>7</v>
+      </c>
+      <c r="X22" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="1"/>
+        <v>7 (10%)</v>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" si="1"/>
+        <v>3 (3%)</v>
+      </c>
+      <c r="AE22" t="str">
+        <f t="shared" si="1"/>
+        <v>4 (5%)</v>
+      </c>
+      <c r="AF22" t="str">
+        <f t="shared" si="1"/>
+        <v>7 (7%)</v>
+      </c>
+      <c r="AG22" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH22" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AI22" t="str">
+        <f t="shared" si="1"/>
+        <v>8 (12%)</v>
+      </c>
+      <c r="AJ22" t="str">
+        <f t="shared" si="1"/>
+        <v>4 (7%)</v>
+      </c>
+      <c r="AK22" t="str">
+        <f t="shared" si="1"/>
+        <v>4 (5%)</v>
+      </c>
+      <c r="AL22" t="str">
+        <f t="shared" si="1"/>
+        <v>8 (12%)</v>
+      </c>
+      <c r="AM22" t="str">
+        <f t="shared" si="1"/>
+        <v>0 (0%)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <v>97</v>
+      </c>
+      <c r="E24">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>94</v>
+      </c>
+      <c r="G24">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>71</v>
+      </c>
+      <c r="I24">
+        <v>69</v>
+      </c>
+      <c r="J24">
+        <v>61</v>
+      </c>
+      <c r="K24">
+        <v>79</v>
+      </c>
+      <c r="L24">
+        <v>69</v>
+      </c>
+      <c r="M24">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25BE048-6E20-42BC-9E3C-2A8E40B44249}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/results/summary_all.xlsx
+++ b/results/summary_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kauane Bordin\Meu Drive (kauanembordin@gmail.com)\Capítulo Functional Traits\plant_functional_traits_chapter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5D053B-EFE9-4E84-8538-3DBC22E8E290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDAE8F4-7664-4312-AF67-4605CD4572C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7345C443-23AC-41F1-AD75-3C55830770F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{7345C443-23AC-41F1-AD75-3C55830770F6}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="86">
   <si>
     <t>Trait</t>
   </si>
@@ -172,15 +172,9 @@
     <t>11 (15%)</t>
   </si>
   <si>
-    <t>10 (10%)</t>
-  </si>
-  <si>
     <t>6 (8%)</t>
   </si>
   <si>
-    <t>8 (9%)</t>
-  </si>
-  <si>
     <t>6 (10%)</t>
   </si>
   <si>
@@ -205,15 +199,9 @@
     <t>10 (14%)</t>
   </si>
   <si>
-    <t>11 (11%)</t>
-  </si>
-  <si>
     <t>8 (11%)</t>
   </si>
   <si>
-    <t>9 (10%)</t>
-  </si>
-  <si>
     <t>8 (13%)</t>
   </si>
   <si>
@@ -223,9 +211,6 @@
     <t>6 (9%)</t>
   </si>
   <si>
-    <t>13 (13%)</t>
-  </si>
-  <si>
     <t>7 (9%)</t>
   </si>
   <si>
@@ -244,18 +229,6 @@
     <t>18 (18%)</t>
   </si>
   <si>
-    <t>15 (21%)</t>
-  </si>
-  <si>
-    <t>20 (21%)</t>
-  </si>
-  <si>
-    <t>13 (17%)</t>
-  </si>
-  <si>
-    <t>18 (19%)</t>
-  </si>
-  <si>
     <t>11 (18%)</t>
   </si>
   <si>
@@ -271,15 +244,6 @@
     <t>4 (5%)</t>
   </si>
   <si>
-    <t>12 (12%)</t>
-  </si>
-  <si>
-    <t>11 (14%)</t>
-  </si>
-  <si>
-    <t>7 (12%)</t>
-  </si>
-  <si>
     <t>7 (7%)</t>
   </si>
   <si>
@@ -287,6 +251,51 @@
   </si>
   <si>
     <t>4 (7%)</t>
+  </si>
+  <si>
+    <t>10 (9%)</t>
+  </si>
+  <si>
+    <t>6 (7%)</t>
+  </si>
+  <si>
+    <t>8 (7%)</t>
+  </si>
+  <si>
+    <t>9 (8%)</t>
+  </si>
+  <si>
+    <t>10 (12%)</t>
+  </si>
+  <si>
+    <t>11 (10%)</t>
+  </si>
+  <si>
+    <t>8 (10%)</t>
+  </si>
+  <si>
+    <t>13 (12%)</t>
+  </si>
+  <si>
+    <t>7 (8%)</t>
+  </si>
+  <si>
+    <t>18 (16%)</t>
+  </si>
+  <si>
+    <t>15 (19%)</t>
+  </si>
+  <si>
+    <t>20 (19%)</t>
+  </si>
+  <si>
+    <t>12 (11%)</t>
+  </si>
+  <si>
+    <t>11 (13%)</t>
+  </si>
+  <si>
+    <t>12 (17%)</t>
   </si>
 </sst>
 </file>
@@ -651,7 +660,7 @@
   <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView zoomScale="77" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B3" sqref="B3:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,9 +834,9 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <f>(B3/$B$24)*100</f>
-        <v>2</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="P3" s="2">
         <f>(C3/$C$24)*100</f>
@@ -839,7 +848,7 @@
       </c>
       <c r="R3" s="2">
         <f>(E3/$E$24)*100</f>
-        <v>2.6315789473684208</v>
+        <v>2.4096385542168677</v>
       </c>
       <c r="S3" s="2">
         <f>(F3/$F$24)*100</f>
@@ -847,7 +856,7 @@
       </c>
       <c r="T3" s="2">
         <f>(G3/$G$24)*100</f>
-        <v>3.3333333333333335</v>
+        <v>2.8169014084507045</v>
       </c>
       <c r="U3" s="2">
         <f>(H3/$H$24)*100</f>
@@ -875,10 +884,10 @@
       </c>
       <c r="AB3" t="str">
         <f>_xlfn.CONCAT(B3, " ", "(",O3,"%",")")</f>
-        <v>2 (2%)</v>
+        <v>2 (1.81818181818182%)</v>
       </c>
       <c r="AC3" t="str">
-        <f t="shared" ref="AC3:AP18" si="0">_xlfn.CONCAT(C3, " ", "(",P3,"%",")")</f>
+        <f t="shared" ref="AC3:AM18" si="0">_xlfn.CONCAT(C3, " ", "(",P3,"%",")")</f>
         <v>0 (0%)</v>
       </c>
       <c r="AD3" t="str">
@@ -887,7 +896,7 @@
       </c>
       <c r="AE3" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2.63157894736842%)</v>
+        <v>2 (2.40963855421687%)</v>
       </c>
       <c r="AF3" t="str">
         <f t="shared" si="0"/>
@@ -895,7 +904,7 @@
       </c>
       <c r="AG3" t="str">
         <f t="shared" si="0"/>
-        <v>2 (3.33333333333333%)</v>
+        <v>2 (2.8169014084507%)</v>
       </c>
       <c r="AH3" t="str">
         <f t="shared" si="0"/>
@@ -962,25 +971,25 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <f t="shared" ref="O4:O22" si="1">(B4/$B$24)*100</f>
-        <v>3</v>
+        <v>2.7272727272727271</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ref="P4:P22" si="2">(C4/$C$24)*100</f>
-        <v>1.3698630136986301</v>
+        <v>1.2345679012345678</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:Q22" si="3">(D4/$D$24)*100</f>
-        <v>2.0618556701030926</v>
+        <v>1.8518518518518516</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ref="R4:R22" si="4">(E4/$E$24)*100</f>
-        <v>2.6315789473684208</v>
+        <v>2.4096385542168677</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" ref="S4:S22" si="5">(F4/$F$24)*100</f>
-        <v>4.2553191489361701</v>
+        <v>4</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" ref="T4:T22" si="6">(G4/$G$24)*100</f>
@@ -1012,23 +1021,23 @@
       </c>
       <c r="AB4" t="str">
         <f t="shared" ref="AB4:AB22" si="13">_xlfn.CONCAT(B4, " ", "(",O4,"%",")")</f>
-        <v>3 (3%)</v>
+        <v>3 (2.72727272727273%)</v>
       </c>
       <c r="AC4" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.36986301369863%)</v>
+        <v>1 (1.23456790123457%)</v>
       </c>
       <c r="AD4" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2.06185567010309%)</v>
+        <v>2 (1.85185185185185%)</v>
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2.63157894736842%)</v>
+        <v>2 (2.40963855421687%)</v>
       </c>
       <c r="AF4" t="str">
         <f t="shared" si="0"/>
-        <v>4 (4.25531914893617%)</v>
+        <v>4 (4%)</v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="0"/>
@@ -1099,29 +1108,29 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="O5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="2"/>
-        <v>4.10958904109589</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="3"/>
-        <v>3.0927835051546393</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="4"/>
-        <v>1.3157894736842104</v>
+        <v>1.2048192771084338</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="5"/>
-        <v>3.1914893617021276</v>
+        <v>3</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
+        <v>1.4084507042253522</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="7"/>
@@ -1149,27 +1158,27 @@
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="13"/>
-        <v>1 (1%)</v>
+        <v>1 (0.909090909090909%)</v>
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="0"/>
-        <v>3 (4.10958904109589%)</v>
+        <v>3 (3.7037037037037%)</v>
       </c>
       <c r="AD5" t="str">
         <f t="shared" si="0"/>
-        <v>3 (3.09278350515464%)</v>
+        <v>3 (2.77777777777778%)</v>
       </c>
       <c r="AE5" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.31578947368421%)</v>
+        <v>1 (1.20481927710843%)</v>
       </c>
       <c r="AF5" t="str">
         <f t="shared" si="0"/>
-        <v>3 (3.19148936170213%)</v>
+        <v>3 (3%)</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.66666666666667%)</v>
+        <v>1 (1.40845070422535%)</v>
       </c>
       <c r="AH5" t="str">
         <f t="shared" si="0"/>
@@ -1236,9 +1245,9 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8181818181818181</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="2"/>
@@ -1246,19 +1255,19 @@
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>1.0309278350515463</v>
+        <v>0.92592592592592582</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="4"/>
-        <v>1.3157894736842104</v>
+        <v>1.2048192771084338</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="5"/>
-        <v>1.0638297872340425</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
+        <v>1.4084507042253522</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="7"/>
@@ -1286,7 +1295,7 @@
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="13"/>
-        <v>2 (2%)</v>
+        <v>2 (1.81818181818182%)</v>
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="0"/>
@@ -1294,19 +1303,19 @@
       </c>
       <c r="AD6" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.03092783505155%)</v>
+        <v>1 (0.925925925925926%)</v>
       </c>
       <c r="AE6" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.31578947368421%)</v>
+        <v>1 (1.20481927710843%)</v>
       </c>
       <c r="AF6" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.06382978723404%)</v>
+        <v>1 (1%)</v>
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.66666666666667%)</v>
+        <v>1 (1.40845070422535%)</v>
       </c>
       <c r="AH6" t="str">
         <f t="shared" si="0"/>
@@ -1338,22 +1347,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -1373,29 +1382,29 @@
       <c r="M7">
         <v>11</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
+        <v>10.909090909090908</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="2"/>
-        <v>1.3698630136986301</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="3"/>
-        <v>1.0309278350515463</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="4"/>
-        <v>2.6315789473684208</v>
+        <v>10.843373493975903</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="5"/>
-        <v>1.0638297872340425</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
+        <v>16.901408450704224</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="7"/>
@@ -1423,27 +1432,27 @@
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="13"/>
-        <v>2 (2%)</v>
+        <v>12 (10.9090909090909%)</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.36986301369863%)</v>
+        <v>9 (11.1111111111111%)</v>
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.03092783505155%)</v>
+        <v>12 (11.1111111111111%)</v>
       </c>
       <c r="AE7" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2.63157894736842%)</v>
+        <v>9 (10.8433734939759%)</v>
       </c>
       <c r="AF7" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.06382978723404%)</v>
+        <v>7 (7%)</v>
       </c>
       <c r="AG7" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.66666666666667%)</v>
+        <v>12 (16.9014084507042%)</v>
       </c>
       <c r="AH7" t="str">
         <f t="shared" si="0"/>
@@ -1510,29 +1519,29 @@
       <c r="M8">
         <v>5</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090917</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>8.2191780821917799</v>
+        <v>7.4074074074074066</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="3"/>
-        <v>10.309278350515463</v>
+        <v>9.2592592592592595</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="4"/>
-        <v>7.8947368421052628</v>
+        <v>7.2289156626506017</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="5"/>
-        <v>8.5106382978723403</v>
+        <v>8</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>8.4507042253521121</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="7"/>
@@ -1560,27 +1569,27 @@
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="13"/>
-        <v>10 (10%)</v>
+        <v>10 (9.09090909090909%)</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="0"/>
-        <v>6 (8.21917808219178%)</v>
+        <v>6 (7.40740740740741%)</v>
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="0"/>
-        <v>10 (10.3092783505155%)</v>
+        <v>10 (9.25925925925926%)</v>
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="0"/>
-        <v>6 (7.89473684210526%)</v>
+        <v>6 (7.2289156626506%)</v>
       </c>
       <c r="AF8" t="str">
         <f t="shared" si="0"/>
-        <v>8 (8.51063829787234%)</v>
+        <v>8 (8%)</v>
       </c>
       <c r="AG8" t="str">
         <f t="shared" si="0"/>
-        <v>6 (10%)</v>
+        <v>6 (8.45070422535211%)</v>
       </c>
       <c r="AH8" t="str">
         <f t="shared" si="0"/>
@@ -1647,29 +1656,29 @@
       <c r="M9">
         <v>3</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7272727272727271</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="2"/>
-        <v>8.2191780821917799</v>
+        <v>7.4074074074074066</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="3"/>
-        <v>8.2474226804123703</v>
+        <v>7.4074074074074066</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="4"/>
-        <v>1.3157894736842104</v>
+        <v>1.2048192771084338</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" si="5"/>
-        <v>4.2553191489361701</v>
+        <v>4</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4.225352112676056</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="7"/>
@@ -1697,27 +1706,27 @@
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="13"/>
-        <v>3 (3%)</v>
+        <v>3 (2.72727272727273%)</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="0"/>
-        <v>6 (8.21917808219178%)</v>
+        <v>6 (7.40740740740741%)</v>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="0"/>
-        <v>8 (8.24742268041237%)</v>
+        <v>8 (7.40740740740741%)</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.31578947368421%)</v>
+        <v>1 (1.20481927710843%)</v>
       </c>
       <c r="AF9" t="str">
         <f t="shared" si="0"/>
-        <v>4 (4.25531914893617%)</v>
+        <v>4 (4%)</v>
       </c>
       <c r="AG9" t="str">
         <f t="shared" si="0"/>
-        <v>3 (5%)</v>
+        <v>3 (4.22535211267606%)</v>
       </c>
       <c r="AH9" t="str">
         <f t="shared" si="0"/>
@@ -1784,7 +1793,7 @@
       <c r="M10">
         <v>3</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1921,29 +1930,29 @@
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="O11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8181818181818181</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="2"/>
-        <v>6.8493150684931505</v>
+        <v>6.1728395061728394</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="3"/>
-        <v>5.1546391752577314</v>
+        <v>4.6296296296296298</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="4"/>
-        <v>2.6315789473684208</v>
+        <v>2.4096385542168677</v>
       </c>
       <c r="S11" s="2">
         <f t="shared" si="5"/>
-        <v>4.2553191489361701</v>
+        <v>4</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
+        <v>1.4084507042253522</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" si="7"/>
@@ -1971,27 +1980,27 @@
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="13"/>
-        <v>2 (2%)</v>
+        <v>2 (1.81818181818182%)</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="0"/>
-        <v>5 (6.84931506849315%)</v>
+        <v>5 (6.17283950617284%)</v>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="0"/>
-        <v>5 (5.15463917525773%)</v>
+        <v>5 (4.62962962962963%)</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2.63157894736842%)</v>
+        <v>2 (2.40963855421687%)</v>
       </c>
       <c r="AF11" t="str">
         <f t="shared" si="0"/>
-        <v>4 (4.25531914893617%)</v>
+        <v>4 (4%)</v>
       </c>
       <c r="AG11" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1.66666666666667%)</v>
+        <v>1 (1.40845070422535%)</v>
       </c>
       <c r="AH11" t="str">
         <f t="shared" si="0"/>
@@ -2058,29 +2067,29 @@
       <c r="M12">
         <v>9</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>9</v>
+      <c r="O12" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1818181818181817</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="2"/>
-        <v>13.698630136986301</v>
+        <v>12.345679012345679</v>
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="3"/>
-        <v>11.340206185567011</v>
+        <v>10.185185185185185</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="4"/>
-        <v>10.526315789473683</v>
+        <v>9.6385542168674707</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" si="5"/>
-        <v>9.5744680851063837</v>
+        <v>9</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" si="6"/>
-        <v>13.333333333333334</v>
+        <v>11.267605633802818</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" si="7"/>
@@ -2108,27 +2117,27 @@
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="13"/>
+        <v>9 (8.18181818181818%)</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="0"/>
+        <v>10 (12.3456790123457%)</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (10.1851851851852%)</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (9.63855421686747%)</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="0"/>
         <v>9 (9%)</v>
       </c>
-      <c r="AC12" t="str">
-        <f t="shared" si="0"/>
-        <v>10 (13.6986301369863%)</v>
-      </c>
-      <c r="AD12" t="str">
-        <f t="shared" si="0"/>
-        <v>11 (11.340206185567%)</v>
-      </c>
-      <c r="AE12" t="str">
-        <f t="shared" si="0"/>
-        <v>8 (10.5263157894737%)</v>
-      </c>
-      <c r="AF12" t="str">
-        <f t="shared" si="0"/>
-        <v>9 (9.57446808510638%)</v>
-      </c>
       <c r="AG12" t="str">
         <f t="shared" si="0"/>
-        <v>8 (13.3333333333333%)</v>
+        <v>8 (11.2676056338028%)</v>
       </c>
       <c r="AH12" t="str">
         <f t="shared" si="0"/>
@@ -2195,29 +2204,29 @@
       <c r="M13">
         <v>10</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>13</v>
+      <c r="O13" s="2">
+        <f t="shared" si="1"/>
+        <v>11.818181818181818</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="2"/>
-        <v>9.5890410958904102</v>
+        <v>8.6419753086419746</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="3"/>
-        <v>13.402061855670103</v>
+        <v>12.037037037037036</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="4"/>
-        <v>9.2105263157894726</v>
+        <v>8.4337349397590362</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" si="5"/>
-        <v>9.5744680851063837</v>
+        <v>9</v>
       </c>
       <c r="T13" s="2">
         <f t="shared" si="6"/>
-        <v>13.333333333333334</v>
+        <v>11.267605633802818</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" si="7"/>
@@ -2245,27 +2254,27 @@
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="13"/>
-        <v>13 (13%)</v>
+        <v>13 (11.8181818181818%)</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="0"/>
-        <v>7 (9.58904109589041%)</v>
+        <v>7 (8.64197530864197%)</v>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="0"/>
-        <v>13 (13.4020618556701%)</v>
+        <v>13 (12.037037037037%)</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="0"/>
-        <v>7 (9.21052631578947%)</v>
+        <v>7 (8.43373493975904%)</v>
       </c>
       <c r="AF13" t="str">
         <f t="shared" si="0"/>
-        <v>9 (9.57446808510638%)</v>
+        <v>9 (9%)</v>
       </c>
       <c r="AG13" t="str">
         <f t="shared" si="0"/>
-        <v>8 (13.3333333333333%)</v>
+        <v>8 (11.2676056338028%)</v>
       </c>
       <c r="AH13" t="str">
         <f t="shared" si="0"/>
@@ -2332,29 +2341,29 @@
       <c r="M14">
         <v>5</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>9</v>
+      <c r="O14" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1818181818181817</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="2"/>
-        <v>2.7397260273972601</v>
+        <v>2.4691358024691357</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="3"/>
-        <v>6.1855670103092786</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="4"/>
-        <v>6.5789473684210522</v>
+        <v>6.024096385542169</v>
       </c>
       <c r="S14" s="2">
         <f t="shared" si="5"/>
-        <v>5.3191489361702127</v>
+        <v>5</v>
       </c>
       <c r="T14" s="2">
         <f t="shared" si="6"/>
-        <v>8.3333333333333321</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" si="7"/>
@@ -2382,27 +2391,27 @@
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="13"/>
-        <v>9 (9%)</v>
+        <v>9 (8.18181818181818%)</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2.73972602739726%)</v>
+        <v>2 (2.46913580246914%)</v>
       </c>
       <c r="AD14" t="str">
         <f t="shared" si="0"/>
-        <v>6 (6.18556701030928%)</v>
+        <v>6 (5.55555555555556%)</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="0"/>
-        <v>5 (6.57894736842105%)</v>
+        <v>5 (6.02409638554217%)</v>
       </c>
       <c r="AF14" t="str">
         <f t="shared" si="0"/>
-        <v>5 (5.31914893617021%)</v>
+        <v>5 (5%)</v>
       </c>
       <c r="AG14" t="str">
         <f t="shared" si="0"/>
-        <v>5 (8.33333333333333%)</v>
+        <v>5 (7.04225352112676%)</v>
       </c>
       <c r="AH14" t="str">
         <f t="shared" si="0"/>
@@ -2469,17 +2478,17 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="O15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="2"/>
-        <v>2.7397260273972601</v>
+        <v>2.4691358024691357</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="3"/>
-        <v>3.0927835051546393</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="4"/>
@@ -2487,7 +2496,7 @@
       </c>
       <c r="S15" s="2">
         <f t="shared" si="5"/>
-        <v>3.1914893617021276</v>
+        <v>3</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" si="6"/>
@@ -2519,15 +2528,15 @@
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="13"/>
-        <v>1 (1%)</v>
+        <v>1 (0.909090909090909%)</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2.73972602739726%)</v>
+        <v>2 (2.46913580246914%)</v>
       </c>
       <c r="AD15" t="str">
         <f t="shared" si="0"/>
-        <v>3 (3.09278350515464%)</v>
+        <v>3 (2.77777777777778%)</v>
       </c>
       <c r="AE15" t="str">
         <f t="shared" si="0"/>
@@ -2535,7 +2544,7 @@
       </c>
       <c r="AF15" t="str">
         <f t="shared" si="0"/>
-        <v>3 (3.19148936170213%)</v>
+        <v>3 (3%)</v>
       </c>
       <c r="AG15" t="str">
         <f t="shared" si="0"/>
@@ -2606,29 +2615,29 @@
       <c r="M16">
         <v>13</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>18</v>
+      <c r="O16" s="2">
+        <f t="shared" si="1"/>
+        <v>16.363636363636363</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="2"/>
-        <v>20.547945205479451</v>
+        <v>18.518518518518519</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="3"/>
-        <v>20.618556701030926</v>
+        <v>18.518518518518519</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="4"/>
-        <v>17.105263157894736</v>
+        <v>15.66265060240964</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" si="5"/>
-        <v>19.148936170212767</v>
+        <v>18</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="6"/>
-        <v>18.333333333333332</v>
+        <v>15.492957746478872</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" si="7"/>
@@ -2656,27 +2665,27 @@
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="13"/>
+        <v>18 (16.3636363636364%)</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="0"/>
+        <v>15 (18.5185185185185%)</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="0"/>
+        <v>20 (18.5185185185185%)</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (15.6626506024096%)</v>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="0"/>
         <v>18 (18%)</v>
       </c>
-      <c r="AC16" t="str">
-        <f t="shared" si="0"/>
-        <v>15 (20.5479452054795%)</v>
-      </c>
-      <c r="AD16" t="str">
-        <f t="shared" si="0"/>
-        <v>20 (20.6185567010309%)</v>
-      </c>
-      <c r="AE16" t="str">
-        <f t="shared" si="0"/>
-        <v>13 (17.1052631578947%)</v>
-      </c>
-      <c r="AF16" t="str">
-        <f t="shared" si="0"/>
-        <v>18 (19.1489361702128%)</v>
-      </c>
       <c r="AG16" t="str">
         <f t="shared" si="0"/>
-        <v>11 (18.3333333333333%)</v>
+        <v>11 (15.4929577464789%)</v>
       </c>
       <c r="AH16" t="str">
         <f t="shared" si="0"/>
@@ -2743,29 +2752,29 @@
       <c r="M17">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="2">
         <f>(B17/$B$24)*100</f>
-        <v>4</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="2"/>
-        <v>4.10958904109589</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="3"/>
-        <v>3.0927835051546393</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="4"/>
-        <v>5.2631578947368416</v>
+        <v>4.8192771084337354</v>
       </c>
       <c r="S17" s="2">
         <f t="shared" si="5"/>
-        <v>4.2553191489361701</v>
+        <v>4</v>
       </c>
       <c r="T17" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4.225352112676056</v>
       </c>
       <c r="U17" s="2">
         <f t="shared" si="7"/>
@@ -2793,27 +2802,27 @@
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="13"/>
+        <v>4 (3.63636363636364%)</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3.7037037037037%)</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (2.77777777777778%)</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="0"/>
+        <v>4 (4.81927710843374%)</v>
+      </c>
+      <c r="AF17" t="str">
+        <f t="shared" si="0"/>
         <v>4 (4%)</v>
       </c>
-      <c r="AC17" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (4.10958904109589%)</v>
-      </c>
-      <c r="AD17" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (3.09278350515464%)</v>
-      </c>
-      <c r="AE17" t="str">
-        <f t="shared" si="0"/>
-        <v>4 (5.26315789473684%)</v>
-      </c>
-      <c r="AF17" t="str">
-        <f t="shared" si="0"/>
-        <v>4 (4.25531914893617%)</v>
-      </c>
       <c r="AG17" t="str">
         <f t="shared" si="0"/>
-        <v>3 (5%)</v>
+        <v>3 (4.22535211267606%)</v>
       </c>
       <c r="AH17" t="str">
         <f t="shared" si="0"/>
@@ -2880,9 +2889,9 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="O18" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5454545454545459</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="2"/>
@@ -2890,15 +2899,15 @@
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="3"/>
-        <v>2.0618556701030926</v>
+        <v>1.8518518518518516</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="4"/>
-        <v>3.9473684210526314</v>
+        <v>3.6144578313253009</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" si="5"/>
-        <v>5.3191489361702127</v>
+        <v>5</v>
       </c>
       <c r="T18" s="2">
         <f t="shared" si="6"/>
@@ -2930,23 +2939,23 @@
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="13"/>
+        <v>5 (4.54545454545455%)</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="0"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="0"/>
+        <v>2 (1.85185185185185%)</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="0"/>
+        <v>3 (3.6144578313253%)</v>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="0"/>
         <v>5 (5%)</v>
-      </c>
-      <c r="AC18" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AD18" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.06185567010309%)</v>
-      </c>
-      <c r="AE18" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (3.94736842105263%)</v>
-      </c>
-      <c r="AF18" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (5.31914893617021%)</v>
       </c>
       <c r="AG18" t="str">
         <f t="shared" si="0"/>
@@ -3017,9 +3026,9 @@
       <c r="M19">
         <v>1</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="O19" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6363636363636362</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="2"/>
@@ -3031,15 +3040,15 @@
       </c>
       <c r="R19" s="2">
         <f t="shared" si="4"/>
-        <v>5.2631578947368416</v>
+        <v>4.8192771084337354</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" si="5"/>
-        <v>1.0638297872340425</v>
+        <v>1</v>
       </c>
       <c r="T19" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4.225352112676056</v>
       </c>
       <c r="U19" s="2">
         <f t="shared" si="7"/>
@@ -3067,7 +3076,7 @@
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="13"/>
-        <v>4 (4%)</v>
+        <v>4 (3.63636363636364%)</v>
       </c>
       <c r="AC19" t="str">
         <f t="shared" ref="AC19:AC22" si="14">_xlfn.CONCAT(C19, " ", "(",P19,"%",")")</f>
@@ -3079,15 +3088,15 @@
       </c>
       <c r="AE19" t="str">
         <f t="shared" ref="AE19:AE22" si="16">_xlfn.CONCAT(E19, " ", "(",R19,"%",")")</f>
-        <v>4 (5.26315789473684%)</v>
+        <v>4 (4.81927710843374%)</v>
       </c>
       <c r="AF19" t="str">
         <f t="shared" ref="AF19:AF22" si="17">_xlfn.CONCAT(F19, " ", "(",S19,"%",")")</f>
-        <v>1 (1.06382978723404%)</v>
+        <v>1 (1%)</v>
       </c>
       <c r="AG19" t="str">
         <f t="shared" ref="AG19:AG22" si="18">_xlfn.CONCAT(G19, " ", "(",T19,"%",")")</f>
-        <v>3 (5%)</v>
+        <v>3 (4.22535211267606%)</v>
       </c>
       <c r="AH19" t="str">
         <f t="shared" ref="AH19:AH22" si="19">_xlfn.CONCAT(H19, " ", "(",U19,"%",")")</f>
@@ -3154,29 +3163,29 @@
       <c r="M20">
         <v>6</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="O20" s="2">
+        <f t="shared" si="1"/>
+        <v>10.909090909090908</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="2"/>
-        <v>2.7397260273972601</v>
+        <v>2.4691358024691357</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="3"/>
-        <v>3.0927835051546393</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="4"/>
-        <v>14.473684210526317</v>
+        <v>13.253012048192772</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" si="5"/>
-        <v>5.3191489361702127</v>
+        <v>5</v>
       </c>
       <c r="T20" s="2">
         <f t="shared" si="6"/>
-        <v>11.666666666666666</v>
+        <v>9.8591549295774641</v>
       </c>
       <c r="U20" s="2">
         <f t="shared" si="7"/>
@@ -3204,27 +3213,27 @@
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="13"/>
-        <v>12 (12%)</v>
+        <v>12 (10.9090909090909%)</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="14"/>
-        <v>2 (2.73972602739726%)</v>
+        <v>2 (2.46913580246914%)</v>
       </c>
       <c r="AD20" t="str">
         <f t="shared" si="15"/>
-        <v>3 (3.09278350515464%)</v>
+        <v>3 (2.77777777777778%)</v>
       </c>
       <c r="AE20" t="str">
         <f t="shared" si="16"/>
-        <v>11 (14.4736842105263%)</v>
+        <v>11 (13.2530120481928%)</v>
       </c>
       <c r="AF20" t="str">
         <f t="shared" si="17"/>
-        <v>5 (5.31914893617021%)</v>
+        <v>5 (5%)</v>
       </c>
       <c r="AG20" t="str">
         <f t="shared" si="18"/>
-        <v>7 (11.6666666666667%)</v>
+        <v>7 (9.85915492957746%)</v>
       </c>
       <c r="AH20" t="str">
         <f t="shared" si="19"/>
@@ -3291,17 +3300,17 @@
       <c r="M21">
         <v>2</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="2"/>
-        <v>4.10958904109589</v>
+        <v>3.7037037037037033</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" si="3"/>
-        <v>3.0927835051546393</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="4"/>
@@ -3309,7 +3318,7 @@
       </c>
       <c r="S21" s="2">
         <f t="shared" si="5"/>
-        <v>3.1914893617021276</v>
+        <v>3</v>
       </c>
       <c r="T21" s="2">
         <f t="shared" si="6"/>
@@ -3345,11 +3354,11 @@
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="14"/>
-        <v>3 (4.10958904109589%)</v>
+        <v>3 (3.7037037037037%)</v>
       </c>
       <c r="AD21" t="str">
         <f t="shared" si="15"/>
-        <v>3 (3.09278350515464%)</v>
+        <v>3 (2.77777777777778%)</v>
       </c>
       <c r="AE21" t="str">
         <f t="shared" si="16"/>
@@ -3357,7 +3366,7 @@
       </c>
       <c r="AF21" t="str">
         <f t="shared" si="17"/>
-        <v>3 (3.19148936170213%)</v>
+        <v>3 (3%)</v>
       </c>
       <c r="AG21" t="str">
         <f t="shared" si="18"/>
@@ -3428,25 +3437,25 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="2"/>
-        <v>9.5890410958904102</v>
+        <v>8.6419753086419746</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="3"/>
-        <v>3.0927835051546393</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="4"/>
-        <v>5.2631578947368416</v>
+        <v>4.8192771084337354</v>
       </c>
       <c r="S22" s="2">
         <f t="shared" si="5"/>
-        <v>7.4468085106382977</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="T22" s="2">
         <f t="shared" si="6"/>
@@ -3482,19 +3491,19 @@
       </c>
       <c r="AC22" t="str">
         <f t="shared" si="14"/>
-        <v>7 (9.58904109589041%)</v>
+        <v>7 (8.64197530864197%)</v>
       </c>
       <c r="AD22" t="str">
         <f t="shared" si="15"/>
-        <v>3 (3.09278350515464%)</v>
+        <v>3 (2.77777777777778%)</v>
       </c>
       <c r="AE22" t="str">
         <f t="shared" si="16"/>
-        <v>4 (5.26315789473684%)</v>
+        <v>4 (4.81927710843374%)</v>
       </c>
       <c r="AF22" t="str">
         <f t="shared" si="17"/>
-        <v>7 (7.4468085106383%)</v>
+        <v>7 (7%)</v>
       </c>
       <c r="AG22" t="str">
         <f t="shared" si="18"/>
@@ -3531,27 +3540,27 @@
       </c>
       <c r="B24">
         <f>SUM(B3:B22)</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:M24" si="25">SUM(C3:C22)</f>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <f t="shared" si="25"/>
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E24">
         <f t="shared" si="25"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F24">
         <f t="shared" si="25"/>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G24">
         <f t="shared" si="25"/>
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H24">
         <f t="shared" si="25"/>
@@ -3593,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A585B6B-0BC8-4131-AADC-335DF40288C6}">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AM1048576"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7:AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3782,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
@@ -3822,7 +3831,7 @@
       </c>
       <c r="AE3" t="str">
         <f t="shared" si="0"/>
-        <v>2 (3%)</v>
+        <v>2 (2%)</v>
       </c>
       <c r="AF3" t="str">
         <f t="shared" si="0"/>
@@ -3907,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" s="2">
         <v>4</v>
@@ -3947,7 +3956,7 @@
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="0"/>
-        <v>2 (3%)</v>
+        <v>2 (2%)</v>
       </c>
       <c r="AF4" t="str">
         <f t="shared" si="0"/>
@@ -4038,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="T5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -4080,7 +4089,7 @@
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="0"/>
-        <v>1 (2%)</v>
+        <v>1 (1%)</v>
       </c>
       <c r="AH5" t="str">
         <f t="shared" si="0"/>
@@ -4163,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" s="2">
         <v>1</v>
@@ -4205,7 +4214,7 @@
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="0"/>
-        <v>1 (2%)</v>
+        <v>1 (1%)</v>
       </c>
       <c r="AH6" t="str">
         <f t="shared" si="0"/>
@@ -4237,22 +4246,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -4273,22 +4282,22 @@
         <v>11</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R7" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S7" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T7" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="U7" s="2">
         <v>10</v>
@@ -4310,27 +4319,27 @@
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>2 (2%)</v>
+        <v>12 (11%)</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1%)</v>
+        <v>9 (11%)</v>
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1%)</v>
+        <v>12 (11%)</v>
       </c>
       <c r="AE7" t="str">
         <f t="shared" si="0"/>
-        <v>2 (3%)</v>
+        <v>9 (11%)</v>
       </c>
       <c r="AF7" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1%)</v>
+        <v>7 (7%)</v>
       </c>
       <c r="AG7" t="str">
         <f t="shared" si="0"/>
-        <v>1 (2%)</v>
+        <v>12 (17%)</v>
       </c>
       <c r="AH7" t="str">
         <f t="shared" si="0"/>
@@ -4398,22 +4407,22 @@
         <v>5</v>
       </c>
       <c r="O8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P8" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>9</v>
+      </c>
+      <c r="R8" s="2">
+        <v>7</v>
+      </c>
+      <c r="S8" s="2">
         <v>8</v>
       </c>
-      <c r="Q8" s="2">
-        <v>10</v>
-      </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <v>8</v>
-      </c>
-      <c r="S8" s="2">
-        <v>9</v>
-      </c>
-      <c r="T8" s="2">
-        <v>10</v>
       </c>
       <c r="U8" s="2">
         <v>7</v>
@@ -4435,27 +4444,27 @@
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>10 (10%)</v>
+        <v>10 (9%)</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="0"/>
+        <v>6 (7%)</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="0"/>
+        <v>10 (9%)</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="0"/>
+        <v>6 (7%)</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (8%)</v>
+      </c>
+      <c r="AG8" t="str">
+        <f t="shared" si="0"/>
         <v>6 (8%)</v>
-      </c>
-      <c r="AD8" t="str">
-        <f t="shared" si="0"/>
-        <v>10 (10%)</v>
-      </c>
-      <c r="AE8" t="str">
-        <f t="shared" si="0"/>
-        <v>6 (8%)</v>
-      </c>
-      <c r="AF8" t="str">
-        <f t="shared" si="0"/>
-        <v>8 (9%)</v>
-      </c>
-      <c r="AG8" t="str">
-        <f t="shared" si="0"/>
-        <v>6 (10%)</v>
       </c>
       <c r="AH8" t="str">
         <f t="shared" si="0"/>
@@ -4526,10 +4535,10 @@
         <v>3</v>
       </c>
       <c r="P9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R9" s="2">
         <v>1</v>
@@ -4538,7 +4547,7 @@
         <v>4</v>
       </c>
       <c r="T9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U9" s="2">
         <v>3</v>
@@ -4564,11 +4573,11 @@
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="0"/>
-        <v>6 (8%)</v>
+        <v>6 (7%)</v>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="0"/>
-        <v>8 (8%)</v>
+        <v>8 (7%)</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="0"/>
@@ -4580,7 +4589,7 @@
       </c>
       <c r="AG9" t="str">
         <f t="shared" si="0"/>
-        <v>3 (5%)</v>
+        <v>3 (4%)</v>
       </c>
       <c r="AH9" t="str">
         <f t="shared" si="0"/>
@@ -4776,19 +4785,19 @@
         <v>2</v>
       </c>
       <c r="P11" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="2">
         <v>5</v>
       </c>
       <c r="R11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11" s="2">
         <v>4</v>
       </c>
       <c r="T11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11" s="2">
         <v>1</v>
@@ -4814,7 +4823,7 @@
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="0"/>
-        <v>5 (7%)</v>
+        <v>5 (6%)</v>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="0"/>
@@ -4822,7 +4831,7 @@
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="0"/>
-        <v>2 (3%)</v>
+        <v>2 (2%)</v>
       </c>
       <c r="AF11" t="str">
         <f t="shared" si="0"/>
@@ -4830,7 +4839,7 @@
       </c>
       <c r="AG11" t="str">
         <f t="shared" si="0"/>
-        <v>1 (2%)</v>
+        <v>1 (1%)</v>
       </c>
       <c r="AH11" t="str">
         <f t="shared" si="0"/>
@@ -4898,22 +4907,22 @@
         <v>9</v>
       </c>
       <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>10</v>
+      </c>
+      <c r="R12" s="2">
+        <v>10</v>
+      </c>
+      <c r="S12" s="2">
         <v>9</v>
       </c>
-      <c r="P12" s="2">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="2">
+      <c r="T12" s="2">
         <v>11</v>
-      </c>
-      <c r="R12" s="2">
-        <v>11</v>
-      </c>
-      <c r="S12" s="2">
-        <v>10</v>
-      </c>
-      <c r="T12" s="2">
-        <v>13</v>
       </c>
       <c r="U12" s="2">
         <v>8</v>
@@ -4935,27 +4944,27 @@
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
+        <v>9 (8%)</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="0"/>
+        <v>10 (12%)</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="0"/>
+        <v>11 (10%)</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="0"/>
+        <v>8 (10%)</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="0"/>
         <v>9 (9%)</v>
       </c>
-      <c r="AC12" t="str">
-        <f t="shared" si="0"/>
-        <v>10 (14%)</v>
-      </c>
-      <c r="AD12" t="str">
-        <f t="shared" si="0"/>
-        <v>11 (11%)</v>
-      </c>
-      <c r="AE12" t="str">
+      <c r="AG12" t="str">
         <f t="shared" si="0"/>
         <v>8 (11%)</v>
-      </c>
-      <c r="AF12" t="str">
-        <f t="shared" si="0"/>
-        <v>9 (10%)</v>
-      </c>
-      <c r="AG12" t="str">
-        <f t="shared" si="0"/>
-        <v>8 (13%)</v>
       </c>
       <c r="AH12" t="str">
         <f t="shared" si="0"/>
@@ -5023,22 +5032,22 @@
         <v>10</v>
       </c>
       <c r="O13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P13" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q13" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R13" s="2">
+        <v>8</v>
+      </c>
+      <c r="S13" s="2">
         <v>9</v>
       </c>
-      <c r="S13" s="2">
-        <v>10</v>
-      </c>
       <c r="T13" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U13" s="2">
         <v>15</v>
@@ -5060,27 +5069,27 @@
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>13 (13%)</v>
+        <v>13 (12%)</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="0"/>
-        <v>7 (10%)</v>
+        <v>7 (9%)</v>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="0"/>
-        <v>13 (13%)</v>
+        <v>13 (12%)</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="0"/>
-        <v>7 (9%)</v>
+        <v>7 (8%)</v>
       </c>
       <c r="AF13" t="str">
         <f t="shared" si="0"/>
-        <v>9 (10%)</v>
+        <v>9 (9%)</v>
       </c>
       <c r="AG13" t="str">
         <f t="shared" si="0"/>
-        <v>8 (13%)</v>
+        <v>8 (11%)</v>
       </c>
       <c r="AH13" t="str">
         <f t="shared" si="0"/>
@@ -5148,22 +5157,22 @@
         <v>5</v>
       </c>
       <c r="O14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="2">
         <v>6</v>
       </c>
       <c r="R14" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S14" s="2">
         <v>5</v>
       </c>
       <c r="T14" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U14" s="2">
         <v>11</v>
@@ -5185,11 +5194,11 @@
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>9 (9%)</v>
+        <v>9 (8%)</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="0"/>
-        <v>2 (3%)</v>
+        <v>2 (2%)</v>
       </c>
       <c r="AD14" t="str">
         <f t="shared" si="0"/>
@@ -5197,15 +5206,15 @@
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="0"/>
+        <v>5 (6%)</v>
+      </c>
+      <c r="AF14" t="str">
+        <f t="shared" si="0"/>
+        <v>5 (5%)</v>
+      </c>
+      <c r="AG14" t="str">
+        <f t="shared" si="0"/>
         <v>5 (7%)</v>
-      </c>
-      <c r="AF14" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (5%)</v>
-      </c>
-      <c r="AG14" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (8%)</v>
       </c>
       <c r="AH14" t="str">
         <f t="shared" si="0"/>
@@ -5276,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="2">
         <v>3</v>
@@ -5314,7 +5323,7 @@
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="0"/>
-        <v>2 (3%)</v>
+        <v>2 (2%)</v>
       </c>
       <c r="AD15" t="str">
         <f t="shared" si="0"/>
@@ -5398,22 +5407,22 @@
         <v>13</v>
       </c>
       <c r="O16">
+        <v>16</v>
+      </c>
+      <c r="P16" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>19</v>
+      </c>
+      <c r="R16" s="2">
+        <v>16</v>
+      </c>
+      <c r="S16" s="2">
         <v>18</v>
       </c>
-      <c r="P16" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>21</v>
-      </c>
-      <c r="R16" s="2">
-        <v>17</v>
-      </c>
-      <c r="S16" s="2">
-        <v>19</v>
-      </c>
       <c r="T16" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U16" s="2">
         <v>18</v>
@@ -5435,27 +5444,27 @@
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
+        <v>18 (16%)</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="0"/>
+        <v>15 (19%)</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="0"/>
+        <v>20 (19%)</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="0"/>
+        <v>13 (16%)</v>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="0"/>
         <v>18 (18%)</v>
       </c>
-      <c r="AC16" t="str">
-        <f t="shared" si="0"/>
-        <v>15 (21%)</v>
-      </c>
-      <c r="AD16" t="str">
-        <f t="shared" si="0"/>
-        <v>20 (21%)</v>
-      </c>
-      <c r="AE16" t="str">
-        <f t="shared" si="0"/>
-        <v>13 (17%)</v>
-      </c>
-      <c r="AF16" t="str">
-        <f t="shared" si="0"/>
-        <v>18 (19%)</v>
-      </c>
       <c r="AG16" t="str">
         <f t="shared" si="0"/>
-        <v>11 (18%)</v>
+        <v>11 (15%)</v>
       </c>
       <c r="AH16" t="str">
         <f t="shared" si="0"/>
@@ -5538,7 +5547,7 @@
         <v>4</v>
       </c>
       <c r="T17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U17" s="2">
         <v>1</v>
@@ -5580,7 +5589,7 @@
       </c>
       <c r="AG17" t="str">
         <f t="shared" si="0"/>
-        <v>3 (5%)</v>
+        <v>3 (4%)</v>
       </c>
       <c r="AH17" t="str">
         <f t="shared" si="0"/>
@@ -5788,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U19" s="2">
         <v>3</v>
@@ -5830,7 +5839,7 @@
       </c>
       <c r="AG19" t="str">
         <f t="shared" si="1"/>
-        <v>3 (5%)</v>
+        <v>3 (4%)</v>
       </c>
       <c r="AH19" t="str">
         <f t="shared" si="1"/>
@@ -5898,22 +5907,22 @@
         <v>6</v>
       </c>
       <c r="O20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="2">
         <v>3</v>
       </c>
       <c r="R20" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S20" s="2">
         <v>5</v>
       </c>
       <c r="T20" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U20" s="2">
         <v>11</v>
@@ -5935,11 +5944,11 @@
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>12 (12%)</v>
+        <v>12 (11%)</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="1"/>
-        <v>2 (3%)</v>
+        <v>2 (2%)</v>
       </c>
       <c r="AD20" t="str">
         <f t="shared" si="1"/>
@@ -5947,7 +5956,7 @@
       </c>
       <c r="AE20" t="str">
         <f t="shared" si="1"/>
-        <v>11 (14%)</v>
+        <v>11 (13%)</v>
       </c>
       <c r="AF20" t="str">
         <f t="shared" si="1"/>
@@ -5955,7 +5964,7 @@
       </c>
       <c r="AG20" t="str">
         <f t="shared" si="1"/>
-        <v>7 (12%)</v>
+        <v>7 (10%)</v>
       </c>
       <c r="AH20" t="str">
         <f t="shared" si="1"/>
@@ -6151,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q22" s="2">
         <v>3</v>
@@ -6189,7 +6198,7 @@
       </c>
       <c r="AC22" t="str">
         <f t="shared" si="1"/>
-        <v>7 (10%)</v>
+        <v>7 (9%)</v>
       </c>
       <c r="AD22" t="str">
         <f t="shared" si="1"/>
@@ -6282,8 +6291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25BE048-6E20-42BC-9E3C-2A8E40B44249}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6384,7 +6393,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -6425,7 +6434,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -6472,7 +6481,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -6513,7 +6522,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -6539,22 +6548,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -6580,40 +6589,40 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
         <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -6624,10 +6633,10 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -6636,7 +6645,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -6686,7 +6695,7 @@
         <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
         <v>32</v>
@@ -6706,19 +6715,19 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -6744,37 +6753,37 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
         <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
         <v>42</v>
@@ -6785,22 +6794,22 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -6809,16 +6818,16 @@
         <v>42</v>
       </c>
       <c r="J13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" t="s">
         <v>58</v>
       </c>
-      <c r="K13" t="s">
-        <v>63</v>
-      </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -6826,40 +6835,40 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
       </c>
       <c r="I14" t="s">
         <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -6870,7 +6879,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -6908,40 +6917,40 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -6958,13 +6967,13 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -6990,7 +6999,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -7002,7 +7011,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -7040,13 +7049,13 @@
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
@@ -7072,25 +7081,25 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
         <v>31</v>
@@ -7105,7 +7114,7 @@
         <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -7157,16 +7166,16 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -7175,16 +7184,16 @@
         <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L22" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s">
         <v>31</v>

--- a/results/summary_all.xlsx
+++ b/results/summary_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kauane Bordin\Meu Drive (kauanembordin@gmail.com)\Capítulo Functional Traits\plant_functional_traits_chapter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDAE8F4-7664-4312-AF67-4605CD4572C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B645D21E-95D3-4922-870C-BB8F465939E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{7345C443-23AC-41F1-AD75-3C55830770F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7345C443-23AC-41F1-AD75-3C55830770F6}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="79">
   <si>
     <t>Trait</t>
   </si>
@@ -253,49 +253,28 @@
     <t>4 (7%)</t>
   </si>
   <si>
-    <t>10 (9%)</t>
-  </si>
-  <si>
-    <t>6 (7%)</t>
-  </si>
-  <si>
-    <t>8 (7%)</t>
-  </si>
-  <si>
-    <t>9 (8%)</t>
-  </si>
-  <si>
-    <t>10 (12%)</t>
-  </si>
-  <si>
-    <t>11 (10%)</t>
-  </si>
-  <si>
-    <t>8 (10%)</t>
-  </si>
-  <si>
-    <t>13 (12%)</t>
-  </si>
-  <si>
-    <t>7 (8%)</t>
-  </si>
-  <si>
-    <t>18 (16%)</t>
-  </si>
-  <si>
-    <t>15 (19%)</t>
-  </si>
-  <si>
-    <t>20 (19%)</t>
-  </si>
-  <si>
-    <t>12 (11%)</t>
-  </si>
-  <si>
-    <t>11 (13%)</t>
-  </si>
-  <si>
     <t>12 (17%)</t>
+  </si>
+  <si>
+    <t>10 (11%)</t>
+  </si>
+  <si>
+    <t>11 (11%)</t>
+  </si>
+  <si>
+    <t>10 (10%)</t>
+  </si>
+  <si>
+    <t>11 (12%)</t>
+  </si>
+  <si>
+    <t>15 (16%)</t>
+  </si>
+  <si>
+    <t>9 (12%)</t>
+  </si>
+  <si>
+    <t>14 (18%)</t>
   </si>
 </sst>
 </file>
@@ -331,15 +310,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE06031-2EB8-4A0E-9EC7-102B8E640FE8}">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M22"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,46 +654,48 @@
     <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1796875" customWidth="1"/>
-    <col min="17" max="17" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="5.1796875" customWidth="1"/>
+    <col min="19" max="19" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4" t="s">
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -757,44 +735,44 @@
       <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
         <v>4</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>5</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
         <v>2</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>4</v>
       </c>
-      <c r="X2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -834,104 +812,108 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="O3" s="2">
-        <f>(B3/$B$24)*100</f>
-        <v>1.8181818181818181</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="N3">
+        <f>SUM(B3,C3,H3,I3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:Q22" si="0">(B3/$B$24)*100</f>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="R3" s="2">
         <f>(C3/$C$24)*100</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="S3" s="2">
         <f>(D3/$D$24)*100</f>
         <v>0</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <f>(E3/$E$24)*100</f>
-        <v>2.4096385542168677</v>
-      </c>
-      <c r="S3" s="2">
+        <v>2.7397260273972601</v>
+      </c>
+      <c r="U3" s="2">
         <f>(F3/$F$24)*100</f>
         <v>0</v>
       </c>
-      <c r="T3" s="2">
+      <c r="V3" s="2">
         <f>(G3/$G$24)*100</f>
         <v>2.8169014084507045</v>
       </c>
-      <c r="U3" s="2">
+      <c r="W3" s="2">
         <f>(H3/$H$24)*100</f>
         <v>1.4084507042253522</v>
       </c>
-      <c r="V3" s="2">
+      <c r="X3" s="2">
         <f>(I3/$I$24)*100</f>
         <v>0</v>
       </c>
-      <c r="W3" s="2">
+      <c r="Y3" s="2">
         <f>(J3/$J$24)*100</f>
         <v>1.639344262295082</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Z3" s="2">
         <f>(K3/$K$24)*100</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AA3" s="2">
         <f>(L3/$L$24)*100</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AB3" s="2">
         <f>(M3/$M$24)*100</f>
         <v>1.4084507042253522</v>
       </c>
-      <c r="AB3" t="str">
-        <f>_xlfn.CONCAT(B3, " ", "(",O3,"%",")")</f>
-        <v>2 (1.81818181818182%)</v>
-      </c>
-      <c r="AC3" t="str">
-        <f t="shared" ref="AC3:AM18" si="0">_xlfn.CONCAT(C3, " ", "(",P3,"%",")")</f>
-        <v>0 (0%)</v>
-      </c>
       <c r="AD3" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <f t="shared" ref="AD3:AD13" si="1">_xlfn.CONCAT(B3, " ", "(",Q3,"%",")")</f>
+        <v>2 (2.10526315789474%)</v>
       </c>
       <c r="AE3" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.40963855421687%)</v>
+        <f t="shared" ref="AE3:AE13" si="2">_xlfn.CONCAT(C3, " ", "(",R3,"%",")")</f>
+        <v>0 (0%)</v>
       </c>
       <c r="AF3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AF3:AF13" si="3">_xlfn.CONCAT(D3, " ", "(",S3,"%",")")</f>
         <v>0 (0%)</v>
       </c>
       <c r="AG3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AG3:AG13" si="4">_xlfn.CONCAT(E3, " ", "(",T3,"%",")")</f>
+        <v>2 (2.73972602739726%)</v>
+      </c>
+      <c r="AH3" t="str">
+        <f t="shared" ref="AH3:AH13" si="5">_xlfn.CONCAT(F3, " ", "(",U3,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AI3" t="str">
+        <f t="shared" ref="AI3:AI13" si="6">_xlfn.CONCAT(G3, " ", "(",V3,"%",")")</f>
         <v>2 (2.8169014084507%)</v>
       </c>
-      <c r="AH3" t="str">
-        <f t="shared" si="0"/>
+      <c r="AJ3" t="str">
+        <f>_xlfn.CONCAT(H3, " ", "(",W3,"%",")")</f>
         <v>1 (1.40845070422535%)</v>
       </c>
-      <c r="AI3" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AJ3" t="str">
-        <f t="shared" si="0"/>
+      <c r="AK3" t="str">
+        <f>_xlfn.CONCAT(I3, " ", "(",X3,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL3" t="str">
+        <f>_xlfn.CONCAT(J3, " ", "(",Y3,"%",")")</f>
         <v>1 (1.63934426229508%)</v>
       </c>
-      <c r="AK3" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AL3" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
       <c r="AM3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(K3, " ", "(",Z3,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AN3" t="str">
+        <f>_xlfn.CONCAT(L3, " ", "(",AA3,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AO3" t="str">
+        <f>_xlfn.CONCAT(M3, " ", "(",AB3,"%",")")</f>
         <v>1 (1.40845070422535%)</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -971,104 +953,108 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="O4" s="2">
-        <f t="shared" ref="O4:O22" si="1">(B4/$B$24)*100</f>
-        <v>2.7272727272727271</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" ref="P4:P22" si="2">(C4/$C$24)*100</f>
-        <v>1.2345679012345678</v>
-      </c>
-      <c r="Q4" s="3">
-        <f t="shared" ref="Q4:Q22" si="3">(D4/$D$24)*100</f>
-        <v>1.8518518518518516</v>
+      <c r="N4">
+        <f t="shared" ref="N4:N22" si="7">SUM(B4,C4,H4,I4)</f>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1578947368421053</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" ref="R4:R22" si="4">(E4/$E$24)*100</f>
-        <v>2.4096385542168677</v>
+        <f t="shared" ref="R4:R21" si="8">(C4/$C$24)*100</f>
+        <v>1.3157894736842104</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4:S22" si="5">(F4/$F$24)*100</f>
+        <f t="shared" ref="S4:S22" si="9">(D4/$D$24)*100</f>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" ref="T4:T22" si="10">(E4/$E$24)*100</f>
+        <v>2.7397260273972601</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" ref="U4:U22" si="11">(F4/$F$24)*100</f>
         <v>4</v>
       </c>
-      <c r="T4" s="2">
-        <f t="shared" ref="T4:T22" si="6">(G4/$G$24)*100</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" ref="U4:U22" si="7">(H4/$H$24)*100</f>
-        <v>0</v>
-      </c>
       <c r="V4" s="2">
-        <f t="shared" ref="V4:V22" si="8">(I4/$I$24)*100</f>
+        <f t="shared" ref="V4:V22" si="12">(G4/$G$24)*100</f>
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" ref="W4:W22" si="9">(J4/$J$24)*100</f>
+        <f t="shared" ref="W4:W22" si="13">(H4/$H$24)*100</f>
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" ref="X4:X22" si="10">(K4/$K$24)*100</f>
+        <f t="shared" ref="X4:X22" si="14">(I4/$I$24)*100</f>
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" ref="Y4:Y22" si="11">(L4/$L$24)*100</f>
+        <f t="shared" ref="Y4:Y22" si="15">(J4/$J$24)*100</f>
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" ref="Z4:Z22" si="12">(M4/$M$24)*100</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" t="str">
-        <f t="shared" ref="AB4:AB22" si="13">_xlfn.CONCAT(B4, " ", "(",O4,"%",")")</f>
-        <v>3 (2.72727272727273%)</v>
-      </c>
-      <c r="AC4" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.23456790123457%)</v>
+        <f t="shared" ref="Z4:Z22" si="16">(K4/$K$24)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" ref="AA4:AA22" si="17">(L4/$L$24)*100</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <f t="shared" ref="AB4:AB22" si="18">(M4/$M$24)*100</f>
+        <v>0</v>
       </c>
       <c r="AD4" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (1.85185185185185%)</v>
+        <f t="shared" si="1"/>
+        <v>3 (3.15789473684211%)</v>
       </c>
       <c r="AE4" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.40963855421687%)</v>
+        <f t="shared" si="2"/>
+        <v>1 (1.31578947368421%)</v>
       </c>
       <c r="AF4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>2 (2.04081632653061%)</v>
+      </c>
+      <c r="AG4" t="str">
+        <f t="shared" si="4"/>
+        <v>2 (2.73972602739726%)</v>
+      </c>
+      <c r="AH4" t="str">
+        <f t="shared" si="5"/>
         <v>4 (4%)</v>
       </c>
-      <c r="AG4" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AH4" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
       <c r="AI4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0 (0%)</v>
       </c>
       <c r="AJ4" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <f t="shared" ref="AJ4:AJ13" si="19">_xlfn.CONCAT(H6, " ", "(",W4,"%",")")</f>
+        <v>1 (0%)</v>
       </c>
       <c r="AK4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AK4:AK13" si="20">_xlfn.CONCAT(I6, " ", "(",X4,"%",")")</f>
         <v>0 (0%)</v>
       </c>
       <c r="AL4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AL4:AL13" si="21">_xlfn.CONCAT(J6, " ", "(",Y4,"%",")")</f>
         <v>0 (0%)</v>
       </c>
       <c r="AM4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AM4:AM13" si="22">_xlfn.CONCAT(K6, " ", "(",Z4,"%",")")</f>
+        <v>1 (0%)</v>
+      </c>
+      <c r="AN4" t="str">
+        <f t="shared" ref="AN4:AN13" si="23">_xlfn.CONCAT(L6, " ", "(",AA4,"%",")")</f>
+        <v>1 (0%)</v>
+      </c>
+      <c r="AO4" t="str">
+        <f t="shared" ref="AO4:AO13" si="24">_xlfn.CONCAT(M6, " ", "(",AB4,"%",")")</f>
         <v>0 (0%)</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1108,104 +1094,108 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="O5" s="2">
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="8"/>
+        <v>3.9473684210526314</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="9"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="10"/>
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" t="str">
         <f t="shared" si="1"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="P5" s="2">
+        <v>1 (1.05263157894737%)</v>
+      </c>
+      <c r="AE5" t="str">
         <f t="shared" si="2"/>
-        <v>3.7037037037037033</v>
-      </c>
-      <c r="Q5" s="3">
+        <v>3 (3.94736842105263%)</v>
+      </c>
+      <c r="AF5" t="str">
         <f t="shared" si="3"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="R5" s="2">
+        <v>3 (3.06122448979592%)</v>
+      </c>
+      <c r="AG5" t="str">
         <f t="shared" si="4"/>
-        <v>1.2048192771084338</v>
-      </c>
-      <c r="S5" s="2">
+        <v>1 (1.36986301369863%)</v>
+      </c>
+      <c r="AH5" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="T5" s="2">
+        <v>3 (3%)</v>
+      </c>
+      <c r="AI5" t="str">
         <f t="shared" si="6"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="U5" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" t="str">
-        <f t="shared" si="13"/>
-        <v>1 (0.909090909090909%)</v>
-      </c>
-      <c r="AC5" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (3.7037037037037%)</v>
-      </c>
-      <c r="AD5" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (2.77777777777778%)</v>
-      </c>
-      <c r="AE5" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.20481927710843%)</v>
-      </c>
-      <c r="AF5" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (3%)</v>
-      </c>
-      <c r="AG5" t="str">
-        <f t="shared" si="0"/>
         <v>1 (1.40845070422535%)</v>
       </c>
-      <c r="AH5" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AI5" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
       <c r="AJ5" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <f t="shared" si="19"/>
+        <v>7 (0%)</v>
       </c>
       <c r="AK5" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <f t="shared" si="20"/>
+        <v>13 (0%)</v>
       </c>
       <c r="AL5" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <f t="shared" si="21"/>
+        <v>7 (0%)</v>
       </c>
       <c r="AM5" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <f t="shared" si="22"/>
+        <v>13 (0%)</v>
+      </c>
+      <c r="AN5" t="str">
+        <f t="shared" si="23"/>
+        <v>9 (0%)</v>
+      </c>
+      <c r="AO5" t="str">
+        <f t="shared" si="24"/>
+        <v>11 (0%)</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1245,118 +1235,122 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0204081632653061</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="10"/>
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="13"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="16"/>
+        <v>1.2658227848101267</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="17"/>
+        <v>1.4492753623188406</v>
+      </c>
+      <c r="AB6" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" t="str">
         <f t="shared" si="1"/>
-        <v>1.8181818181818181</v>
-      </c>
-      <c r="P6" s="2">
+        <v>2 (2.10526315789474%)</v>
+      </c>
+      <c r="AE6" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
+        <v>0 (0%)</v>
+      </c>
+      <c r="AF6" t="str">
         <f t="shared" si="3"/>
-        <v>0.92592592592592582</v>
-      </c>
-      <c r="R6" s="2">
+        <v>1 (1.02040816326531%)</v>
+      </c>
+      <c r="AG6" t="str">
         <f t="shared" si="4"/>
-        <v>1.2048192771084338</v>
-      </c>
-      <c r="S6" s="2">
+        <v>1 (1.36986301369863%)</v>
+      </c>
+      <c r="AH6" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="2">
+        <v>1 (1%)</v>
+      </c>
+      <c r="AI6" t="str">
         <f t="shared" si="6"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="U6" s="2">
-        <f t="shared" si="7"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="V6" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <f t="shared" si="10"/>
-        <v>1.2658227848101267</v>
-      </c>
-      <c r="Y6" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="Z6" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" t="str">
-        <f t="shared" si="13"/>
-        <v>2 (1.81818181818182%)</v>
-      </c>
-      <c r="AC6" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AD6" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (0.925925925925926%)</v>
-      </c>
-      <c r="AE6" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.20481927710843%)</v>
-      </c>
-      <c r="AF6" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1%)</v>
-      </c>
-      <c r="AG6" t="str">
-        <f t="shared" si="0"/>
         <v>1 (1.40845070422535%)</v>
       </c>
-      <c r="AH6" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.40845070422535%)</v>
-      </c>
-      <c r="AI6" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
       <c r="AJ6" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <f t="shared" si="19"/>
+        <v>5 (1.40845070422535%)</v>
       </c>
       <c r="AK6" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.26582278481013%)</v>
+        <f t="shared" si="20"/>
+        <v>4 (0%)</v>
       </c>
       <c r="AL6" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.44927536231884%)</v>
+        <f t="shared" si="21"/>
+        <v>3 (0%)</v>
       </c>
       <c r="AM6" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <f t="shared" si="22"/>
+        <v>6 (1.26582278481013%)</v>
+      </c>
+      <c r="AN6" t="str">
+        <f t="shared" si="23"/>
+        <v>4 (1.44927536231884%)</v>
+      </c>
+      <c r="AO6" t="str">
+        <f t="shared" si="24"/>
+        <v>5 (0%)</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -1382,1753 +1376,1805 @@
       <c r="M7">
         <v>11</v>
       </c>
-      <c r="O7" s="2">
+      <c r="N7">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="0"/>
+        <v>10.526315789473683</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="8"/>
+        <v>11.842105263157894</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="9"/>
+        <v>11.224489795918368</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="10"/>
+        <v>10.95890410958904</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="11"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="12"/>
+        <v>16.901408450704224</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="13"/>
+        <v>9.8591549295774641</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="14"/>
+        <v>18.840579710144929</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="15"/>
+        <v>11.475409836065573</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="16"/>
+        <v>16.455696202531644</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="17"/>
+        <v>13.043478260869565</v>
+      </c>
+      <c r="AB7" s="2">
+        <f t="shared" si="18"/>
+        <v>15.492957746478872</v>
+      </c>
+      <c r="AD7" t="str">
         <f t="shared" si="1"/>
-        <v>10.909090909090908</v>
-      </c>
-      <c r="P7" s="2">
+        <v>10 (10.5263157894737%)</v>
+      </c>
+      <c r="AE7" t="str">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="Q7" s="3">
+        <v>9 (11.8421052631579%)</v>
+      </c>
+      <c r="AF7" t="str">
         <f t="shared" si="3"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="R7" s="2">
+        <v>11 (11.2244897959184%)</v>
+      </c>
+      <c r="AG7" t="str">
         <f t="shared" si="4"/>
-        <v>10.843373493975903</v>
-      </c>
-      <c r="S7" s="2">
+        <v>8 (10.958904109589%)</v>
+      </c>
+      <c r="AH7" t="str">
         <f t="shared" si="5"/>
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="T7" s="2">
+        <v>7 (7%)</v>
+      </c>
+      <c r="AI7" t="str">
         <f t="shared" si="6"/>
-        <v>16.901408450704224</v>
-      </c>
-      <c r="U7" s="2">
+        <v>12 (16.9014084507042%)</v>
+      </c>
+      <c r="AJ7" t="str">
+        <f t="shared" si="19"/>
+        <v>2 (9.85915492957746%)</v>
+      </c>
+      <c r="AK7" t="str">
+        <f t="shared" si="20"/>
+        <v>2 (18.8405797101449%)</v>
+      </c>
+      <c r="AL7" t="str">
+        <f t="shared" si="21"/>
+        <v>2 (11.4754098360656%)</v>
+      </c>
+      <c r="AM7" t="str">
+        <f t="shared" si="22"/>
+        <v>2 (16.4556962025316%)</v>
+      </c>
+      <c r="AN7" t="str">
+        <f t="shared" si="23"/>
+        <v>1 (13.0434782608696%)</v>
+      </c>
+      <c r="AO7" t="str">
+        <f t="shared" si="24"/>
+        <v>3 (15.4929577464789%)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="7"/>
-        <v>9.8591549295774641</v>
-      </c>
-      <c r="V7" s="2">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="R8" s="2">
         <f t="shared" si="8"/>
-        <v>18.840579710144929</v>
-      </c>
-      <c r="W7" s="2">
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="9"/>
-        <v>11.475409836065573</v>
-      </c>
-      <c r="X7" s="2">
+        <v>9.183673469387756</v>
+      </c>
+      <c r="T8" s="2">
         <f t="shared" si="10"/>
-        <v>16.455696202531644</v>
-      </c>
-      <c r="Y7" s="2">
+        <v>6.8493150684931505</v>
+      </c>
+      <c r="U8" s="2">
         <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="12"/>
+        <v>8.4507042253521121</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="13"/>
+        <v>7.042253521126761</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="14"/>
+        <v>5.7971014492753623</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="15"/>
+        <v>4.918032786885246</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="16"/>
+        <v>7.59493670886076</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="17"/>
+        <v>5.7971014492753623</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" si="18"/>
+        <v>7.042253521126761</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="1"/>
+        <v>8 (8.42105263157895%)</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="2"/>
+        <v>6 (7.89473684210526%)</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="3"/>
+        <v>9 (9.18367346938776%)</v>
+      </c>
+      <c r="AG8" t="str">
+        <f t="shared" si="4"/>
+        <v>5 (6.84931506849315%)</v>
+      </c>
+      <c r="AH8" t="str">
+        <f t="shared" si="5"/>
+        <v>8 (8%)</v>
+      </c>
+      <c r="AI8" t="str">
+        <f t="shared" si="6"/>
+        <v>6 (8.45070422535211%)</v>
+      </c>
+      <c r="AJ8" t="str">
+        <f t="shared" si="19"/>
+        <v>3 (7.04225352112676%)</v>
+      </c>
+      <c r="AK8" t="str">
+        <f t="shared" si="20"/>
+        <v>2 (5.79710144927536%)</v>
+      </c>
+      <c r="AL8" t="str">
+        <f t="shared" si="21"/>
+        <v>3 (4.91803278688525%)</v>
+      </c>
+      <c r="AM8" t="str">
+        <f t="shared" si="22"/>
+        <v>2 (7.59493670886076%)</v>
+      </c>
+      <c r="AN8" t="str">
+        <f t="shared" si="23"/>
+        <v>2 (5.79710144927536%)</v>
+      </c>
+      <c r="AO8" t="str">
+        <f t="shared" si="24"/>
+        <v>3 (7.04225352112676%)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1052631578947367</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="8"/>
+        <v>6.5789473684210522</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="9"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="10"/>
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="12"/>
+        <v>4.225352112676056</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="13"/>
+        <v>2.8169014084507045</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="14"/>
+        <v>2.8985507246376812</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="15"/>
+        <v>3.278688524590164</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="16"/>
+        <v>2.5316455696202533</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="17"/>
+        <v>1.4492753623188406</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="18"/>
+        <v>4.225352112676056</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="1"/>
+        <v>2 (2.10526315789474%)</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="2"/>
+        <v>5 (6.57894736842105%)</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="3"/>
+        <v>6 (6.12244897959184%)</v>
+      </c>
+      <c r="AG9" t="str">
+        <f t="shared" si="4"/>
+        <v>1 (1.36986301369863%)</v>
+      </c>
+      <c r="AH9" t="str">
+        <f t="shared" si="5"/>
+        <v>4 (4%)</v>
+      </c>
+      <c r="AI9" t="str">
+        <f t="shared" si="6"/>
+        <v>3 (4.22535211267606%)</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f t="shared" si="19"/>
+        <v>1 (2.8169014084507%)</v>
+      </c>
+      <c r="AK9" t="str">
+        <f t="shared" si="20"/>
+        <v>1 (2.89855072463768%)</v>
+      </c>
+      <c r="AL9" t="str">
+        <f t="shared" si="21"/>
+        <v>0 (3.27868852459016%)</v>
+      </c>
+      <c r="AM9" t="str">
+        <f t="shared" si="22"/>
+        <v>2 (2.53164556962025%)</v>
+      </c>
+      <c r="AN9" t="str">
+        <f t="shared" si="23"/>
+        <v>1 (1.44927536231884%)</v>
+      </c>
+      <c r="AO9" t="str">
+        <f t="shared" si="24"/>
+        <v>1 (4.22535211267606%)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="8"/>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="9"/>
+        <v>4.0816326530612246</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="10"/>
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="13"/>
+        <v>4.225352112676056</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="14"/>
+        <v>2.8985507246376812</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="15"/>
+        <v>4.918032786885246</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="16"/>
+        <v>2.5316455696202533</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8985507246376812</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="18"/>
+        <v>4.225352112676056</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="1"/>
+        <v>1 (1.05263157894737%)</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="2"/>
+        <v>4 (5.26315789473684%)</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="3"/>
+        <v>4 (4.08163265306122%)</v>
+      </c>
+      <c r="AG10" t="str">
+        <f t="shared" si="4"/>
+        <v>1 (1.36986301369863%)</v>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="5"/>
+        <v>4 (4%)</v>
+      </c>
+      <c r="AI10" t="str">
+        <f t="shared" si="6"/>
+        <v>1 (1.40845070422535%)</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f t="shared" si="19"/>
+        <v>6 (4.22535211267606%)</v>
+      </c>
+      <c r="AK10" t="str">
+        <f t="shared" si="20"/>
+        <v>9 (2.89855072463768%)</v>
+      </c>
+      <c r="AL10" t="str">
+        <f t="shared" si="21"/>
+        <v>6 (4.91803278688525%)</v>
+      </c>
+      <c r="AM10" t="str">
+        <f t="shared" si="22"/>
+        <v>9 (2.53164556962025%)</v>
+      </c>
+      <c r="AN10" t="str">
+        <f t="shared" si="23"/>
+        <v>6 (2.89855072463768%)</v>
+      </c>
+      <c r="AO10" t="str">
+        <f t="shared" si="24"/>
+        <v>9 (4.22535211267606%)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="8"/>
+        <v>11.842105263157894</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="9"/>
+        <v>10.204081632653061</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="10"/>
+        <v>9.5890410958904102</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="12"/>
+        <v>11.267605633802818</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="13"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="14"/>
+        <v>1.4492753623188406</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="16"/>
+        <v>2.5316455696202533</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="17"/>
+        <v>1.4492753623188406</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="18"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="1"/>
+        <v>8 (8.42105263157895%)</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="2"/>
+        <v>9 (11.8421052631579%)</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="3"/>
+        <v>10 (10.2040816326531%)</v>
+      </c>
+      <c r="AG11" t="str">
+        <f t="shared" si="4"/>
+        <v>7 (9.58904109589041%)</v>
+      </c>
+      <c r="AH11" t="str">
+        <f t="shared" si="5"/>
+        <v>9 (9%)</v>
+      </c>
+      <c r="AI11" t="str">
+        <f t="shared" si="6"/>
+        <v>8 (11.2676056338028%)</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f t="shared" si="19"/>
+        <v>11 (1.40845070422535%)</v>
+      </c>
+      <c r="AK11" t="str">
+        <f t="shared" si="20"/>
+        <v>9 (1.44927536231884%)</v>
+      </c>
+      <c r="AL11" t="str">
+        <f t="shared" si="21"/>
+        <v>8 (0%)</v>
+      </c>
+      <c r="AM11" t="str">
+        <f t="shared" si="22"/>
+        <v>12 (2.53164556962025%)</v>
+      </c>
+      <c r="AN11" t="str">
+        <f t="shared" si="23"/>
+        <v>10 (1.44927536231884%)</v>
+      </c>
+      <c r="AO11" t="str">
+        <f t="shared" si="24"/>
+        <v>10 (1.40845070422535%)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="0"/>
+        <v>11.578947368421053</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="8"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="9"/>
+        <v>11.224489795918368</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="10"/>
+        <v>8.2191780821917799</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="12"/>
+        <v>11.267605633802818</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="13"/>
+        <v>8.4507042253521121</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="14"/>
         <v>13.043478260869565</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Y12" s="2">
+        <f t="shared" si="15"/>
+        <v>9.8360655737704921</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="16"/>
+        <v>11.39240506329114</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="17"/>
+        <v>8.695652173913043</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="18"/>
+        <v>12.676056338028168</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="1"/>
+        <v>11 (11.5789473684211%)</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="2"/>
+        <v>6 (7.89473684210526%)</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="3"/>
+        <v>11 (11.2244897959184%)</v>
+      </c>
+      <c r="AG12" t="str">
+        <f t="shared" si="4"/>
+        <v>6 (8.21917808219178%)</v>
+      </c>
+      <c r="AH12" t="str">
+        <f t="shared" si="5"/>
+        <v>9 (9%)</v>
+      </c>
+      <c r="AI12" t="str">
+        <f t="shared" si="6"/>
+        <v>8 (11.2676056338028%)</v>
+      </c>
+      <c r="AJ12" t="str">
+        <f t="shared" si="19"/>
+        <v>8 (8.45070422535211%)</v>
+      </c>
+      <c r="AK12" t="str">
+        <f t="shared" si="20"/>
+        <v>2 (13.0434782608696%)</v>
+      </c>
+      <c r="AL12" t="str">
+        <f t="shared" si="21"/>
+        <v>5 (9.83606557377049%)</v>
+      </c>
+      <c r="AM12" t="str">
+        <f t="shared" si="22"/>
+        <v>5 (11.3924050632911%)</v>
+      </c>
+      <c r="AN12" t="str">
+        <f t="shared" si="23"/>
+        <v>5 (8.69565217391304%)</v>
+      </c>
+      <c r="AO12" t="str">
+        <f t="shared" si="24"/>
+        <v>5 (12.6760563380282%)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="8"/>
+        <v>2.6315789473684208</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="9"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="10"/>
+        <v>5.4794520547945202</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="12"/>
+        <v>7.042253521126761</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="13"/>
+        <v>15.492957746478872</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="14"/>
+        <v>13.043478260869565</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="15"/>
+        <v>13.114754098360656</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="16"/>
+        <v>15.18987341772152</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="17"/>
+        <v>14.492753623188406</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="18"/>
+        <v>14.084507042253522</v>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="1"/>
+        <v>8 (8.42105263157895%)</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="2"/>
+        <v>2 (2.63157894736842%)</v>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="3"/>
+        <v>6 (6.12244897959184%)</v>
+      </c>
+      <c r="AG13" t="str">
+        <f t="shared" si="4"/>
+        <v>4 (5.47945205479452%)</v>
+      </c>
+      <c r="AH13" t="str">
+        <f t="shared" si="5"/>
+        <v>5 (5%)</v>
+      </c>
+      <c r="AI13" t="str">
+        <f t="shared" si="6"/>
+        <v>5 (7.04225352112676%)</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f t="shared" si="19"/>
+        <v>1 (15.4929577464789%)</v>
+      </c>
+      <c r="AK13" t="str">
+        <f t="shared" si="20"/>
+        <v>2 (13.0434782608696%)</v>
+      </c>
+      <c r="AL13" t="str">
+        <f t="shared" si="21"/>
+        <v>0 (13.1147540983607%)</v>
+      </c>
+      <c r="AM13" t="str">
+        <f t="shared" si="22"/>
+        <v>3 (15.1898734177215%)</v>
+      </c>
+      <c r="AN13" t="str">
+        <f t="shared" si="23"/>
+        <v>3 (14.4927536231884%)</v>
+      </c>
+      <c r="AO13" t="str">
+        <f t="shared" si="24"/>
+        <v>0 (14.0845070422535%)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="13"/>
+        <v>11.267605633802818</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="14"/>
+        <v>2.8985507246376812</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="15"/>
+        <v>8.1967213114754092</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="16"/>
+        <v>6.3291139240506329</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="17"/>
+        <v>7.2463768115942031</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="18"/>
+        <v>7.042253521126761</v>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" ref="AD14:AD22" si="25">_xlfn.CONCAT(B15, " ", "(",Q14,"%",")")</f>
+        <v>1 (0%)</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" ref="AE14:AE22" si="26">_xlfn.CONCAT(C15, " ", "(",R14,"%",")")</f>
+        <v>2 (0%)</v>
+      </c>
+      <c r="AF14" t="str">
+        <f t="shared" ref="AF14:AF22" si="27">_xlfn.CONCAT(D15, " ", "(",S14,"%",")")</f>
+        <v>3 (0%)</v>
+      </c>
+      <c r="AG14" t="str">
+        <f t="shared" ref="AG14:AG22" si="28">_xlfn.CONCAT(E15, " ", "(",T14,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AH14" t="str">
+        <f t="shared" ref="AH14:AH22" si="29">_xlfn.CONCAT(F15, " ", "(",U14,"%",")")</f>
+        <v>3 (0%)</v>
+      </c>
+      <c r="AI14" t="str">
+        <f t="shared" ref="AI14:AI22" si="30">_xlfn.CONCAT(G15, " ", "(",V14,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ14" t="str">
+        <f>_xlfn.CONCAT(H22, " ", "(",W14,"%",")")</f>
+        <v>0 (11.2676056338028%)</v>
+      </c>
+      <c r="AK14" t="str">
+        <f>_xlfn.CONCAT(I21, " ", "(",X14,"%",")")</f>
+        <v>1 (2.89855072463768%)</v>
+      </c>
+      <c r="AL14" t="str">
+        <f>_xlfn.CONCAT(J21, " ", "(",Y14,"%",")")</f>
+        <v>1 (8.19672131147541%)</v>
+      </c>
+      <c r="AM14" t="str">
+        <f>_xlfn.CONCAT(K21, " ", "(",Z14,"%",")")</f>
+        <v>1 (6.32911392405063%)</v>
+      </c>
+      <c r="AN14" t="str">
+        <f>_xlfn.CONCAT(L21, " ", "(",AA14,"%",")")</f>
+        <v>0 (7.2463768115942%)</v>
+      </c>
+      <c r="AO14" t="str">
+        <f>_xlfn.CONCAT(M21, " ", "(",AB14,"%",")")</f>
+        <v>2 (7.04225352112676%)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="8"/>
+        <v>2.6315789473684208</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="9"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="13"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="14"/>
+        <v>2.8985507246376812</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="16"/>
+        <v>3.79746835443038</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="17"/>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="25"/>
+        <v>15 (1.05263157894737%)</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="26"/>
+        <v>14 (2.63157894736842%)</v>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="27"/>
+        <v>18 (3.06122448979592%)</v>
+      </c>
+      <c r="AG15" t="str">
+        <f t="shared" si="28"/>
+        <v>11 (0%)</v>
+      </c>
+      <c r="AH15" t="str">
+        <f t="shared" si="29"/>
+        <v>18 (3%)</v>
+      </c>
+      <c r="AI15" t="str">
+        <f t="shared" si="30"/>
+        <v>11 (0%)</v>
+      </c>
+      <c r="AJ15" t="str">
+        <f>_xlfn.CONCAT(H16, " ", "(",W15,"%",")")</f>
+        <v>13 (1.40845070422535%)</v>
+      </c>
+      <c r="AK15" t="str">
+        <f>_xlfn.CONCAT(I22, " ", "(",X15,"%",")")</f>
+        <v>8 (2.89855072463768%)</v>
+      </c>
+      <c r="AL15" t="str">
+        <f>_xlfn.CONCAT(J22, " ", "(",Y15,"%",")")</f>
+        <v>4 (0%)</v>
+      </c>
+      <c r="AM15" t="str">
+        <f>_xlfn.CONCAT(K22, " ", "(",Z15,"%",")")</f>
+        <v>4 (3.79746835443038%)</v>
+      </c>
+      <c r="AN15" t="str">
+        <f>_xlfn.CONCAT(L22, " ", "(",AA15,"%",")")</f>
+        <v>8 (4.34782608695652%)</v>
+      </c>
+      <c r="AO15" t="str">
+        <f>_xlfn.CONCAT(M22, " ", "(",AB15,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>17</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="0"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="8"/>
+        <v>18.421052631578945</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="9"/>
+        <v>18.367346938775512</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="10"/>
+        <v>15.068493150684931</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="V16" s="2">
         <f t="shared" si="12"/>
         <v>15.492957746478872</v>
       </c>
-      <c r="AB7" t="str">
+      <c r="W16" s="2">
         <f t="shared" si="13"/>
-        <v>12 (10.9090909090909%)</v>
-      </c>
-      <c r="AC7" t="str">
-        <f t="shared" si="0"/>
-        <v>9 (11.1111111111111%)</v>
-      </c>
-      <c r="AD7" t="str">
-        <f t="shared" si="0"/>
-        <v>12 (11.1111111111111%)</v>
-      </c>
-      <c r="AE7" t="str">
-        <f t="shared" si="0"/>
-        <v>9 (10.8433734939759%)</v>
-      </c>
-      <c r="AF7" t="str">
-        <f t="shared" si="0"/>
-        <v>7 (7%)</v>
-      </c>
-      <c r="AG7" t="str">
-        <f t="shared" si="0"/>
-        <v>12 (16.9014084507042%)</v>
-      </c>
-      <c r="AH7" t="str">
-        <f t="shared" si="0"/>
-        <v>7 (9.85915492957746%)</v>
-      </c>
-      <c r="AI7" t="str">
-        <f t="shared" si="0"/>
-        <v>13 (18.8405797101449%)</v>
-      </c>
-      <c r="AJ7" t="str">
-        <f t="shared" si="0"/>
-        <v>7 (11.4754098360656%)</v>
-      </c>
-      <c r="AK7" t="str">
-        <f t="shared" si="0"/>
-        <v>13 (16.4556962025316%)</v>
-      </c>
-      <c r="AL7" t="str">
-        <f t="shared" si="0"/>
-        <v>9 (13.0434782608696%)</v>
-      </c>
-      <c r="AM7" t="str">
-        <f t="shared" si="0"/>
-        <v>11 (15.4929577464789%)</v>
+        <v>18.30985915492958</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="14"/>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="15"/>
+        <v>18.032786885245901</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="16"/>
+        <v>21.518987341772153</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="17"/>
+        <v>21.739130434782609</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="18"/>
+        <v>18.30985915492958</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="25"/>
+        <v>4 (15.7894736842105%)</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="26"/>
+        <v>3 (18.4210526315789%)</v>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="27"/>
+        <v>3 (18.3673469387755%)</v>
+      </c>
+      <c r="AG16" t="str">
+        <f t="shared" si="28"/>
+        <v>4 (15.0684931506849%)</v>
+      </c>
+      <c r="AH16" t="str">
+        <f t="shared" si="29"/>
+        <v>4 (18%)</v>
+      </c>
+      <c r="AI16" t="str">
+        <f t="shared" si="30"/>
+        <v>3 (15.4929577464789%)</v>
+      </c>
+      <c r="AJ16" t="str">
+        <f>_xlfn.CONCAT(H17, " ", "(",W16,"%",")")</f>
+        <v>1 (18.3098591549296%)</v>
+      </c>
+      <c r="AK16" t="str">
+        <f>_xlfn.CONCAT(I16, " ", "(",X16,"%",")")</f>
+        <v>15 (21.7391304347826%)</v>
+      </c>
+      <c r="AL16" t="str">
+        <f>_xlfn.CONCAT(J16, " ", "(",Y16,"%",")")</f>
+        <v>11 (18.0327868852459%)</v>
+      </c>
+      <c r="AM16" t="str">
+        <f>_xlfn.CONCAT(K16, " ", "(",Z16,"%",")")</f>
+        <v>17 (21.5189873417722%)</v>
+      </c>
+      <c r="AN16" t="str">
+        <f>_xlfn.CONCAT(L16, " ", "(",AA16,"%",")")</f>
+        <v>15 (21.7391304347826%)</v>
+      </c>
+      <c r="AO16" t="str">
+        <f>_xlfn.CONCAT(M16, " ", "(",AB16,"%",")")</f>
+        <v>13 (18.3098591549296%)</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="1"/>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="2"/>
-        <v>7.4074074074074066</v>
-      </c>
-      <c r="Q8" s="3">
-        <f t="shared" si="3"/>
-        <v>9.2592592592592595</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" si="4"/>
-        <v>7.2289156626506017</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="T8" s="2">
-        <f t="shared" si="6"/>
-        <v>8.4507042253521121</v>
-      </c>
-      <c r="U8" s="2">
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="7"/>
-        <v>7.042253521126761</v>
-      </c>
-      <c r="V8" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2105263157894735</v>
+      </c>
+      <c r="R17" s="2">
         <f t="shared" si="8"/>
-        <v>5.7971014492753623</v>
-      </c>
-      <c r="W8" s="2">
+        <v>3.9473684210526314</v>
+      </c>
+      <c r="S17" s="2">
         <f t="shared" si="9"/>
-        <v>4.918032786885246</v>
-      </c>
-      <c r="X8" s="2">
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="T17" s="2">
         <f t="shared" si="10"/>
-        <v>7.59493670886076</v>
-      </c>
-      <c r="Y8" s="2">
+        <v>5.4794520547945202</v>
+      </c>
+      <c r="U17" s="2">
         <f t="shared" si="11"/>
-        <v>5.7971014492753623</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="shared" si="12"/>
-        <v>7.042253521126761</v>
-      </c>
-      <c r="AB8" t="str">
-        <f t="shared" si="13"/>
-        <v>10 (9.09090909090909%)</v>
-      </c>
-      <c r="AC8" t="str">
-        <f t="shared" si="0"/>
-        <v>6 (7.40740740740741%)</v>
-      </c>
-      <c r="AD8" t="str">
-        <f t="shared" si="0"/>
-        <v>10 (9.25925925925926%)</v>
-      </c>
-      <c r="AE8" t="str">
-        <f t="shared" si="0"/>
-        <v>6 (7.2289156626506%)</v>
-      </c>
-      <c r="AF8" t="str">
-        <f t="shared" si="0"/>
-        <v>8 (8%)</v>
-      </c>
-      <c r="AG8" t="str">
-        <f t="shared" si="0"/>
-        <v>6 (8.45070422535211%)</v>
-      </c>
-      <c r="AH8" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (7.04225352112676%)</v>
-      </c>
-      <c r="AI8" t="str">
-        <f t="shared" si="0"/>
-        <v>4 (5.79710144927536%)</v>
-      </c>
-      <c r="AJ8" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (4.91803278688525%)</v>
-      </c>
-      <c r="AK8" t="str">
-        <f t="shared" si="0"/>
-        <v>6 (7.59493670886076%)</v>
-      </c>
-      <c r="AL8" t="str">
-        <f t="shared" si="0"/>
-        <v>4 (5.79710144927536%)</v>
-      </c>
-      <c r="AM8" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (7.04225352112676%)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7272727272727271</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="2"/>
-        <v>7.4074074074074066</v>
-      </c>
-      <c r="Q9" s="3">
-        <f t="shared" si="3"/>
-        <v>7.4074074074074066</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2048192771084338</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="T9" s="2">
-        <f t="shared" si="6"/>
-        <v>4.225352112676056</v>
-      </c>
-      <c r="U9" s="2">
-        <f t="shared" si="7"/>
-        <v>2.8169014084507045</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" si="8"/>
-        <v>2.8985507246376812</v>
-      </c>
-      <c r="W9" s="2">
-        <f t="shared" si="9"/>
-        <v>3.278688524590164</v>
-      </c>
-      <c r="X9" s="2">
-        <f t="shared" si="10"/>
-        <v>2.5316455696202533</v>
-      </c>
-      <c r="Y9" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="Z9" s="2">
+      <c r="V17" s="2">
         <f t="shared" si="12"/>
         <v>4.225352112676056</v>
       </c>
-      <c r="AB9" t="str">
+      <c r="W17" s="2">
         <f t="shared" si="13"/>
-        <v>3 (2.72727272727273%)</v>
-      </c>
-      <c r="AC9" t="str">
-        <f t="shared" si="0"/>
-        <v>6 (7.40740740740741%)</v>
-      </c>
-      <c r="AD9" t="str">
-        <f t="shared" si="0"/>
-        <v>8 (7.40740740740741%)</v>
-      </c>
-      <c r="AE9" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.20481927710843%)</v>
-      </c>
-      <c r="AF9" t="str">
-        <f t="shared" si="0"/>
-        <v>4 (4%)</v>
-      </c>
-      <c r="AG9" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (4.22535211267606%)</v>
-      </c>
-      <c r="AH9" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.8169014084507%)</v>
-      </c>
-      <c r="AI9" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.89855072463768%)</v>
-      </c>
-      <c r="AJ9" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (3.27868852459016%)</v>
-      </c>
-      <c r="AK9" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.53164556962025%)</v>
-      </c>
-      <c r="AL9" t="str">
-        <f t="shared" si="0"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" si="14"/>
+        <v>1.4492753623188406</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="15"/>
+        <v>1.639344262295082</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="16"/>
+        <v>1.2658227848101267</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="17"/>
+        <v>1.4492753623188406</v>
+      </c>
+      <c r="AB17" s="2">
+        <f t="shared" si="18"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="25"/>
+        <v>5 (4.21052631578947%)</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="26"/>
+        <v>0 (3.94736842105263%)</v>
+      </c>
+      <c r="AF17" t="str">
+        <f t="shared" si="27"/>
+        <v>2 (3.06122448979592%)</v>
+      </c>
+      <c r="AG17" t="str">
+        <f t="shared" si="28"/>
+        <v>3 (5.47945205479452%)</v>
+      </c>
+      <c r="AH17" t="str">
+        <f t="shared" si="29"/>
+        <v>5 (4%)</v>
+      </c>
+      <c r="AI17" t="str">
+        <f t="shared" si="30"/>
+        <v>0 (4.22535211267606%)</v>
+      </c>
+      <c r="AJ17" t="str">
+        <f>_xlfn.CONCAT(H19, " ", "(",W17,"%",")")</f>
+        <v>2 (1.40845070422535%)</v>
+      </c>
+      <c r="AK17" t="str">
+        <f>_xlfn.CONCAT(I17, " ", "(",X17,"%",")")</f>
         <v>1 (1.44927536231884%)</v>
       </c>
-      <c r="AM9" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (4.22535211267606%)</v>
+      <c r="AL17" t="str">
+        <f>_xlfn.CONCAT(J17, " ", "(",Y17,"%",")")</f>
+        <v>1 (1.63934426229508%)</v>
+      </c>
+      <c r="AM17" t="str">
+        <f>_xlfn.CONCAT(K17, " ", "(",Z17,"%",")")</f>
+        <v>1 (1.26582278481013%)</v>
+      </c>
+      <c r="AN17" t="str">
+        <f>_xlfn.CONCAT(L17, " ", "(",AA17,"%",")")</f>
+        <v>1 (1.44927536231884%)</v>
+      </c>
+      <c r="AO17" t="str">
+        <f>_xlfn.CONCAT(M17, " ", "(",AB17,"%",")")</f>
+        <v>1 (1.40845070422535%)</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="9"/>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="10"/>
+        <v>4.10958904109589</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="25"/>
+        <v>4 (5.26315789473684%)</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="26"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="27"/>
+        <v>0 (2.04081632653061%)</v>
+      </c>
+      <c r="AG18" t="str">
+        <f t="shared" si="28"/>
+        <v>4 (4.10958904109589%)</v>
+      </c>
+      <c r="AH18" t="str">
+        <f t="shared" si="29"/>
+        <v>1 (5%)</v>
+      </c>
+      <c r="AI18" t="str">
+        <f t="shared" si="30"/>
+        <v>3 (0%)</v>
+      </c>
+      <c r="AJ18" t="str">
+        <f>_xlfn.CONCAT(H20, " ", "(",W18,"%",")")</f>
+        <v>8 (0%)</v>
+      </c>
+      <c r="AK18" t="str">
+        <f>_xlfn.CONCAT(I19, " ", "(",X18,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL18" t="str">
+        <f>_xlfn.CONCAT(J19, " ", "(",Y18,"%",")")</f>
+        <v>2 (0%)</v>
+      </c>
+      <c r="AM18" t="str">
+        <f>_xlfn.CONCAT(K19, " ", "(",Z18,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AN18" t="str">
+        <f>_xlfn.CONCAT(L19, " ", "(",AA18,"%",")")</f>
+        <v>1 (0%)</v>
+      </c>
+      <c r="AO18" t="str">
+        <f>_xlfn.CONCAT(M19, " ", "(",AB18,"%",")")</f>
+        <v>1 (0%)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="2">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="7"/>
-        <v>4.225352112676056</v>
-      </c>
-      <c r="V10" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2105263157894735</v>
+      </c>
+      <c r="R19" s="2">
         <f t="shared" si="8"/>
-        <v>2.8985507246376812</v>
-      </c>
-      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
         <f t="shared" si="9"/>
-        <v>4.918032786885246</v>
-      </c>
-      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
         <f t="shared" si="10"/>
-        <v>2.5316455696202533</v>
-      </c>
-      <c r="Y10" s="2">
+        <v>5.4794520547945202</v>
+      </c>
+      <c r="U19" s="2">
         <f t="shared" si="11"/>
-        <v>2.8985507246376812</v>
-      </c>
-      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2">
         <f t="shared" si="12"/>
         <v>4.225352112676056</v>
       </c>
-      <c r="AB10" t="str">
+      <c r="W19" s="2">
         <f t="shared" si="13"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AC10" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AD10" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AE10" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AF10" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AG10" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AH10" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (4.22535211267606%)</v>
-      </c>
-      <c r="AI10" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.89855072463768%)</v>
-      </c>
-      <c r="AJ10" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (4.91803278688525%)</v>
-      </c>
-      <c r="AK10" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.53164556962025%)</v>
-      </c>
-      <c r="AL10" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.89855072463768%)</v>
-      </c>
-      <c r="AM10" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (4.22535211267606%)</v>
+        <v>2.8169014084507045</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="15"/>
+        <v>3.278688524590164</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="17"/>
+        <v>1.4492753623188406</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="18"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="25"/>
+        <v>10 (4.21052631578947%)</v>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="26"/>
+        <v>2 (0%)</v>
+      </c>
+      <c r="AF19" t="str">
+        <f t="shared" si="27"/>
+        <v>3 (0%)</v>
+      </c>
+      <c r="AG19" t="str">
+        <f t="shared" si="28"/>
+        <v>9 (5.47945205479452%)</v>
+      </c>
+      <c r="AH19" t="str">
+        <f t="shared" si="29"/>
+        <v>5 (1%)</v>
+      </c>
+      <c r="AI19" t="str">
+        <f t="shared" si="30"/>
+        <v>7 (4.22535211267606%)</v>
+      </c>
+      <c r="AJ19" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",W19,"%",")")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AK19" t="str">
+        <f>_xlfn.CONCAT(I20, " ", "(",X19,"%",")")</f>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AL19" t="str">
+        <f>_xlfn.CONCAT(J20, " ", "(",Y19,"%",")")</f>
+        <v>7 (3.27868852459016%)</v>
+      </c>
+      <c r="AM19" t="str">
+        <f>_xlfn.CONCAT(K20, " ", "(",Z19,"%",")")</f>
+        <v>1 (0%)</v>
+      </c>
+      <c r="AN19" t="str">
+        <f>_xlfn.CONCAT(L20, " ", "(",AA19,"%",")")</f>
+        <v>2 (1.44927536231884%)</v>
+      </c>
+      <c r="AO19" t="str">
+        <f>_xlfn.CONCAT(M20, " ", "(",AB19,"%",")")</f>
+        <v>6 (1.40845070422535%)</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8181818181818181</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="2"/>
-        <v>6.1728395061728394</v>
-      </c>
-      <c r="Q11" s="3">
-        <f t="shared" si="3"/>
-        <v>4.6296296296296298</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="4"/>
-        <v>2.4096385542168677</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="T11" s="2">
-        <f t="shared" si="6"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="7"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="V11" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="W11" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <f t="shared" si="10"/>
-        <v>2.5316455696202533</v>
-      </c>
-      <c r="Y11" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="12"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="AB11" t="str">
-        <f t="shared" si="13"/>
-        <v>2 (1.81818181818182%)</v>
-      </c>
-      <c r="AC11" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (6.17283950617284%)</v>
-      </c>
-      <c r="AD11" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (4.62962962962963%)</v>
-      </c>
-      <c r="AE11" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.40963855421687%)</v>
-      </c>
-      <c r="AF11" t="str">
-        <f t="shared" si="0"/>
-        <v>4 (4%)</v>
-      </c>
-      <c r="AG11" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.40845070422535%)</v>
-      </c>
-      <c r="AH11" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.40845070422535%)</v>
-      </c>
-      <c r="AI11" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.44927536231884%)</v>
-      </c>
-      <c r="AJ11" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AK11" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.53164556962025%)</v>
-      </c>
-      <c r="AL11" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.44927536231884%)</v>
-      </c>
-      <c r="AM11" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.40845070422535%)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>9</v>
-      </c>
-      <c r="J12">
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <v>9</v>
-      </c>
-      <c r="L12">
-        <v>6</v>
-      </c>
-      <c r="M12">
-        <v>9</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" si="1"/>
-        <v>8.1818181818181817</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="2"/>
-        <v>12.345679012345679</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" si="3"/>
-        <v>10.185185185185185</v>
-      </c>
-      <c r="R12" s="2">
-        <f t="shared" si="4"/>
-        <v>9.6385542168674707</v>
-      </c>
-      <c r="S12" s="2">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="T12" s="2">
-        <f t="shared" si="6"/>
-        <v>11.267605633802818</v>
-      </c>
-      <c r="U12" s="2">
-        <f t="shared" si="7"/>
-        <v>8.4507042253521121</v>
-      </c>
-      <c r="V12" s="2">
-        <f t="shared" si="8"/>
-        <v>13.043478260869565</v>
-      </c>
-      <c r="W12" s="2">
-        <f t="shared" si="9"/>
-        <v>9.8360655737704921</v>
-      </c>
-      <c r="X12" s="2">
-        <f t="shared" si="10"/>
-        <v>11.39240506329114</v>
-      </c>
-      <c r="Y12" s="2">
-        <f t="shared" si="11"/>
-        <v>8.695652173913043</v>
-      </c>
-      <c r="Z12" s="2">
-        <f t="shared" si="12"/>
-        <v>12.676056338028168</v>
-      </c>
-      <c r="AB12" t="str">
-        <f t="shared" si="13"/>
-        <v>9 (8.18181818181818%)</v>
-      </c>
-      <c r="AC12" t="str">
-        <f t="shared" si="0"/>
-        <v>10 (12.3456790123457%)</v>
-      </c>
-      <c r="AD12" t="str">
-        <f t="shared" si="0"/>
-        <v>11 (10.1851851851852%)</v>
-      </c>
-      <c r="AE12" t="str">
-        <f t="shared" si="0"/>
-        <v>8 (9.63855421686747%)</v>
-      </c>
-      <c r="AF12" t="str">
-        <f t="shared" si="0"/>
-        <v>9 (9%)</v>
-      </c>
-      <c r="AG12" t="str">
-        <f t="shared" si="0"/>
-        <v>8 (11.2676056338028%)</v>
-      </c>
-      <c r="AH12" t="str">
-        <f t="shared" si="0"/>
-        <v>6 (8.45070422535211%)</v>
-      </c>
-      <c r="AI12" t="str">
-        <f t="shared" si="0"/>
-        <v>9 (13.0434782608696%)</v>
-      </c>
-      <c r="AJ12" t="str">
-        <f t="shared" si="0"/>
-        <v>6 (9.83606557377049%)</v>
-      </c>
-      <c r="AK12" t="str">
-        <f t="shared" si="0"/>
-        <v>9 (11.3924050632911%)</v>
-      </c>
-      <c r="AL12" t="str">
-        <f t="shared" si="0"/>
-        <v>6 (8.69565217391304%)</v>
-      </c>
-      <c r="AM12" t="str">
-        <f t="shared" si="0"/>
-        <v>9 (12.6760563380282%)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>9</v>
-      </c>
-      <c r="J13">
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>10</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="1"/>
-        <v>11.818181818181818</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="2"/>
-        <v>8.6419753086419746</v>
-      </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="3"/>
-        <v>12.037037037037036</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="4"/>
-        <v>8.4337349397590362</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="T13" s="2">
-        <f t="shared" si="6"/>
-        <v>11.267605633802818</v>
-      </c>
-      <c r="U13" s="2">
-        <f t="shared" si="7"/>
-        <v>15.492957746478872</v>
-      </c>
-      <c r="V13" s="2">
-        <f t="shared" si="8"/>
-        <v>13.043478260869565</v>
-      </c>
-      <c r="W13" s="2">
-        <f t="shared" si="9"/>
-        <v>13.114754098360656</v>
-      </c>
-      <c r="X13" s="2">
-        <f t="shared" si="10"/>
-        <v>15.18987341772152</v>
-      </c>
-      <c r="Y13" s="2">
-        <f t="shared" si="11"/>
-        <v>14.492753623188406</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="12"/>
-        <v>14.084507042253522</v>
-      </c>
-      <c r="AB13" t="str">
-        <f t="shared" si="13"/>
-        <v>13 (11.8181818181818%)</v>
-      </c>
-      <c r="AC13" t="str">
-        <f t="shared" si="0"/>
-        <v>7 (8.64197530864197%)</v>
-      </c>
-      <c r="AD13" t="str">
-        <f t="shared" si="0"/>
-        <v>13 (12.037037037037%)</v>
-      </c>
-      <c r="AE13" t="str">
-        <f t="shared" si="0"/>
-        <v>7 (8.43373493975904%)</v>
-      </c>
-      <c r="AF13" t="str">
-        <f t="shared" si="0"/>
-        <v>9 (9%)</v>
-      </c>
-      <c r="AG13" t="str">
-        <f t="shared" si="0"/>
-        <v>8 (11.2676056338028%)</v>
-      </c>
-      <c r="AH13" t="str">
-        <f t="shared" si="0"/>
-        <v>11 (15.4929577464789%)</v>
-      </c>
-      <c r="AI13" t="str">
-        <f t="shared" si="0"/>
-        <v>9 (13.0434782608696%)</v>
-      </c>
-      <c r="AJ13" t="str">
-        <f t="shared" si="0"/>
-        <v>8 (13.1147540983607%)</v>
-      </c>
-      <c r="AK13" t="str">
-        <f t="shared" si="0"/>
-        <v>12 (15.1898734177215%)</v>
-      </c>
-      <c r="AL13" t="str">
-        <f t="shared" si="0"/>
-        <v>10 (14.4927536231884%)</v>
-      </c>
-      <c r="AM13" t="str">
-        <f t="shared" si="0"/>
-        <v>10 (14.0845070422535%)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>5</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="1"/>
-        <v>8.1818181818181817</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="2"/>
-        <v>2.4691358024691357</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="3"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" si="4"/>
-        <v>6.024096385542169</v>
-      </c>
-      <c r="S14" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="T14" s="2">
-        <f t="shared" si="6"/>
-        <v>7.042253521126761</v>
-      </c>
-      <c r="U14" s="2">
-        <f t="shared" si="7"/>
-        <v>11.267605633802818</v>
-      </c>
-      <c r="V14" s="2">
-        <f t="shared" si="8"/>
-        <v>2.8985507246376812</v>
-      </c>
-      <c r="W14" s="2">
-        <f t="shared" si="9"/>
-        <v>8.1967213114754092</v>
-      </c>
-      <c r="X14" s="2">
-        <f t="shared" si="10"/>
-        <v>6.3291139240506329</v>
-      </c>
-      <c r="Y14" s="2">
-        <f t="shared" si="11"/>
-        <v>7.2463768115942031</v>
-      </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="12"/>
-        <v>7.042253521126761</v>
-      </c>
-      <c r="AB14" t="str">
-        <f t="shared" si="13"/>
-        <v>9 (8.18181818181818%)</v>
-      </c>
-      <c r="AC14" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.46913580246914%)</v>
-      </c>
-      <c r="AD14" t="str">
-        <f t="shared" si="0"/>
-        <v>6 (5.55555555555556%)</v>
-      </c>
-      <c r="AE14" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (6.02409638554217%)</v>
-      </c>
-      <c r="AF14" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (5%)</v>
-      </c>
-      <c r="AG14" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (7.04225352112676%)</v>
-      </c>
-      <c r="AH14" t="str">
-        <f t="shared" si="0"/>
-        <v>8 (11.2676056338028%)</v>
-      </c>
-      <c r="AI14" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.89855072463768%)</v>
-      </c>
-      <c r="AJ14" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (8.19672131147541%)</v>
-      </c>
-      <c r="AK14" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (6.32911392405063%)</v>
-      </c>
-      <c r="AL14" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (7.2463768115942%)</v>
-      </c>
-      <c r="AM14" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (7.04225352112676%)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" si="2"/>
-        <v>2.4691358024691357</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="3"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="R15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="T15" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <f t="shared" si="7"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="V15" s="2">
-        <f t="shared" si="8"/>
-        <v>2.8985507246376812</v>
-      </c>
-      <c r="W15" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
-        <f t="shared" si="10"/>
-        <v>3.79746835443038</v>
-      </c>
-      <c r="Y15" s="2">
-        <f t="shared" si="11"/>
-        <v>4.3478260869565215</v>
-      </c>
-      <c r="Z15" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" t="str">
-        <f t="shared" si="13"/>
-        <v>1 (0.909090909090909%)</v>
-      </c>
-      <c r="AC15" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.46913580246914%)</v>
-      </c>
-      <c r="AD15" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (2.77777777777778%)</v>
-      </c>
-      <c r="AE15" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AF15" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (3%)</v>
-      </c>
-      <c r="AG15" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AH15" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.40845070422535%)</v>
-      </c>
-      <c r="AI15" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (2.89855072463768%)</v>
-      </c>
-      <c r="AJ15" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AK15" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (3.79746835443038%)</v>
-      </c>
-      <c r="AL15" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (4.34782608695652%)</v>
-      </c>
-      <c r="AM15" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>18</v>
-      </c>
-      <c r="G16">
-        <v>11</v>
-      </c>
-      <c r="H16">
-        <v>13</v>
-      </c>
-      <c r="I16">
-        <v>15</v>
-      </c>
-      <c r="J16">
-        <v>11</v>
-      </c>
-      <c r="K16">
-        <v>17</v>
-      </c>
-      <c r="L16">
-        <v>15</v>
-      </c>
-      <c r="M16">
-        <v>13</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="1"/>
-        <v>16.363636363636363</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="2"/>
-        <v>18.518518518518519</v>
-      </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="3"/>
-        <v>18.518518518518519</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="4"/>
-        <v>15.66265060240964</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="T16" s="2">
-        <f t="shared" si="6"/>
-        <v>15.492957746478872</v>
-      </c>
-      <c r="U16" s="2">
-        <f t="shared" si="7"/>
-        <v>18.30985915492958</v>
-      </c>
-      <c r="V16" s="2">
-        <f t="shared" si="8"/>
-        <v>21.739130434782609</v>
-      </c>
-      <c r="W16" s="2">
-        <f t="shared" si="9"/>
-        <v>18.032786885245901</v>
-      </c>
-      <c r="X16" s="2">
-        <f t="shared" si="10"/>
-        <v>21.518987341772153</v>
-      </c>
-      <c r="Y16" s="2">
-        <f t="shared" si="11"/>
-        <v>21.739130434782609</v>
-      </c>
-      <c r="Z16" s="2">
-        <f t="shared" si="12"/>
-        <v>18.30985915492958</v>
-      </c>
-      <c r="AB16" t="str">
-        <f t="shared" si="13"/>
-        <v>18 (16.3636363636364%)</v>
-      </c>
-      <c r="AC16" t="str">
-        <f t="shared" si="0"/>
-        <v>15 (18.5185185185185%)</v>
-      </c>
-      <c r="AD16" t="str">
-        <f t="shared" si="0"/>
-        <v>20 (18.5185185185185%)</v>
-      </c>
-      <c r="AE16" t="str">
-        <f t="shared" si="0"/>
-        <v>13 (15.6626506024096%)</v>
-      </c>
-      <c r="AF16" t="str">
-        <f t="shared" si="0"/>
-        <v>18 (18%)</v>
-      </c>
-      <c r="AG16" t="str">
-        <f t="shared" si="0"/>
-        <v>11 (15.4929577464789%)</v>
-      </c>
-      <c r="AH16" t="str">
-        <f t="shared" si="0"/>
-        <v>13 (18.3098591549296%)</v>
-      </c>
-      <c r="AI16" t="str">
-        <f t="shared" si="0"/>
-        <v>15 (21.7391304347826%)</v>
-      </c>
-      <c r="AJ16" t="str">
-        <f t="shared" si="0"/>
-        <v>11 (18.0327868852459%)</v>
-      </c>
-      <c r="AK16" t="str">
-        <f t="shared" si="0"/>
-        <v>17 (21.5189873417722%)</v>
-      </c>
-      <c r="AL16" t="str">
-        <f t="shared" si="0"/>
-        <v>15 (21.7391304347826%)</v>
-      </c>
-      <c r="AM16" t="str">
-        <f t="shared" si="0"/>
-        <v>13 (18.3098591549296%)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <f>(B17/$B$24)*100</f>
-        <v>3.6363636363636362</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" si="2"/>
-        <v>3.7037037037037033</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="3"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" si="4"/>
-        <v>4.8192771084337354</v>
-      </c>
-      <c r="S17" s="2">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="T17" s="2">
-        <f t="shared" si="6"/>
-        <v>4.225352112676056</v>
-      </c>
-      <c r="U17" s="2">
-        <f t="shared" si="7"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="V17" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="W17" s="2">
-        <f t="shared" si="9"/>
-        <v>1.639344262295082</v>
-      </c>
-      <c r="X17" s="2">
-        <f t="shared" si="10"/>
-        <v>1.2658227848101267</v>
-      </c>
-      <c r="Y17" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="Z17" s="2">
-        <f t="shared" si="12"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="AB17" t="str">
-        <f t="shared" si="13"/>
-        <v>4 (3.63636363636364%)</v>
-      </c>
-      <c r="AC17" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (3.7037037037037%)</v>
-      </c>
-      <c r="AD17" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (2.77777777777778%)</v>
-      </c>
-      <c r="AE17" t="str">
-        <f t="shared" si="0"/>
-        <v>4 (4.81927710843374%)</v>
-      </c>
-      <c r="AF17" t="str">
-        <f t="shared" si="0"/>
-        <v>4 (4%)</v>
-      </c>
-      <c r="AG17" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (4.22535211267606%)</v>
-      </c>
-      <c r="AH17" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.40845070422535%)</v>
-      </c>
-      <c r="AI17" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.44927536231884%)</v>
-      </c>
-      <c r="AJ17" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.63934426229508%)</v>
-      </c>
-      <c r="AK17" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.26582278481013%)</v>
-      </c>
-      <c r="AL17" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.44927536231884%)</v>
-      </c>
-      <c r="AM17" t="str">
-        <f t="shared" si="0"/>
-        <v>1 (1.40845070422535%)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="3"/>
-        <v>1.8518518518518516</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" si="4"/>
-        <v>3.6144578313253009</v>
-      </c>
-      <c r="S18" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="T18" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" t="str">
-        <f t="shared" si="13"/>
-        <v>5 (4.54545454545455%)</v>
-      </c>
-      <c r="AC18" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AD18" t="str">
-        <f t="shared" si="0"/>
-        <v>2 (1.85185185185185%)</v>
-      </c>
-      <c r="AE18" t="str">
-        <f t="shared" si="0"/>
-        <v>3 (3.6144578313253%)</v>
-      </c>
-      <c r="AF18" t="str">
-        <f t="shared" si="0"/>
-        <v>5 (5%)</v>
-      </c>
-      <c r="AG18" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AH18" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AI18" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AJ18" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AK18" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AL18" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AM18" t="str">
-        <f t="shared" si="0"/>
-        <v>0 (0%)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="1"/>
-        <v>3.6363636363636362</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="4"/>
-        <v>4.8192771084337354</v>
-      </c>
-      <c r="S19" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="2">
-        <f t="shared" si="6"/>
-        <v>4.225352112676056</v>
-      </c>
-      <c r="U19" s="2">
-        <f t="shared" si="7"/>
-        <v>2.8169014084507045</v>
-      </c>
-      <c r="V19" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="2">
-        <f t="shared" si="9"/>
-        <v>3.278688524590164</v>
-      </c>
-      <c r="X19" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="2">
-        <f t="shared" si="11"/>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="Z19" s="2">
-        <f t="shared" si="12"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="AB19" t="str">
-        <f t="shared" si="13"/>
-        <v>4 (3.63636363636364%)</v>
-      </c>
-      <c r="AC19" t="str">
-        <f t="shared" ref="AC19:AC22" si="14">_xlfn.CONCAT(C19, " ", "(",P19,"%",")")</f>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AD19" t="str">
-        <f t="shared" ref="AD19:AD22" si="15">_xlfn.CONCAT(D19, " ", "(",Q19,"%",")")</f>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AE19" t="str">
-        <f t="shared" ref="AE19:AE22" si="16">_xlfn.CONCAT(E19, " ", "(",R19,"%",")")</f>
-        <v>4 (4.81927710843374%)</v>
-      </c>
-      <c r="AF19" t="str">
-        <f t="shared" ref="AF19:AF22" si="17">_xlfn.CONCAT(F19, " ", "(",S19,"%",")")</f>
-        <v>1 (1%)</v>
-      </c>
-      <c r="AG19" t="str">
-        <f t="shared" ref="AG19:AG22" si="18">_xlfn.CONCAT(G19, " ", "(",T19,"%",")")</f>
-        <v>3 (4.22535211267606%)</v>
-      </c>
-      <c r="AH19" t="str">
-        <f t="shared" ref="AH19:AH22" si="19">_xlfn.CONCAT(H19, " ", "(",U19,"%",")")</f>
-        <v>2 (2.8169014084507%)</v>
-      </c>
-      <c r="AI19" t="str">
-        <f t="shared" ref="AI19:AI22" si="20">_xlfn.CONCAT(I19, " ", "(",V19,"%",")")</f>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AJ19" t="str">
-        <f t="shared" ref="AJ19:AJ22" si="21">_xlfn.CONCAT(J19, " ", "(",W19,"%",")")</f>
-        <v>2 (3.27868852459016%)</v>
-      </c>
-      <c r="AK19" t="str">
-        <f t="shared" ref="AK19:AK22" si="22">_xlfn.CONCAT(K19, " ", "(",X19,"%",")")</f>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AL19" t="str">
-        <f t="shared" ref="AL19:AL22" si="23">_xlfn.CONCAT(L19, " ", "(",Y19,"%",")")</f>
-        <v>1 (1.44927536231884%)</v>
-      </c>
-      <c r="AM19" t="str">
-        <f t="shared" ref="AM19:AM22" si="24">_xlfn.CONCAT(M19, " ", "(",Z19,"%",")")</f>
-        <v>1 (1.40845070422535%)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -3137,7 +3183,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -3163,104 +3209,108 @@
       <c r="M20">
         <v>6</v>
       </c>
-      <c r="O20" s="2">
-        <f t="shared" si="1"/>
-        <v>10.909090909090908</v>
-      </c>
-      <c r="P20" s="2">
-        <f t="shared" si="2"/>
-        <v>2.4691358024691357</v>
-      </c>
-      <c r="Q20" s="3">
-        <f t="shared" si="3"/>
-        <v>2.7777777777777777</v>
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="0"/>
+        <v>10.526315789473683</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="4"/>
-        <v>13.253012048192772</v>
+        <f t="shared" si="8"/>
+        <v>2.6315789473684208</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="10"/>
+        <v>12.328767123287671</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="T20" s="2">
-        <f t="shared" si="6"/>
+      <c r="V20" s="2">
+        <f t="shared" si="12"/>
         <v>9.8591549295774641</v>
       </c>
-      <c r="U20" s="2">
-        <f t="shared" si="7"/>
+      <c r="W20" s="2">
+        <f t="shared" si="13"/>
         <v>11.267605633802818</v>
       </c>
-      <c r="V20" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
-        <f t="shared" si="9"/>
+      <c r="X20" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <f t="shared" si="15"/>
         <v>11.475409836065573</v>
       </c>
-      <c r="X20" s="2">
-        <f t="shared" si="10"/>
+      <c r="Z20" s="2">
+        <f t="shared" si="16"/>
         <v>1.2658227848101267</v>
       </c>
-      <c r="Y20" s="2">
-        <f t="shared" si="11"/>
+      <c r="AA20" s="2">
+        <f t="shared" si="17"/>
         <v>2.8985507246376812</v>
       </c>
-      <c r="Z20" s="2">
-        <f t="shared" si="12"/>
+      <c r="AB20" s="2">
+        <f t="shared" si="18"/>
         <v>8.4507042253521121</v>
       </c>
-      <c r="AB20" t="str">
-        <f t="shared" si="13"/>
-        <v>12 (10.9090909090909%)</v>
-      </c>
-      <c r="AC20" t="str">
-        <f t="shared" si="14"/>
-        <v>2 (2.46913580246914%)</v>
-      </c>
       <c r="AD20" t="str">
-        <f t="shared" si="15"/>
-        <v>3 (2.77777777777778%)</v>
+        <f t="shared" si="25"/>
+        <v>0 (10.5263157894737%)</v>
       </c>
       <c r="AE20" t="str">
-        <f t="shared" si="16"/>
-        <v>11 (13.2530120481928%)</v>
+        <f t="shared" si="26"/>
+        <v>3 (2.63157894736842%)</v>
       </c>
       <c r="AF20" t="str">
-        <f t="shared" si="17"/>
-        <v>5 (5%)</v>
+        <f t="shared" si="27"/>
+        <v>3 (3.06122448979592%)</v>
       </c>
       <c r="AG20" t="str">
-        <f t="shared" si="18"/>
-        <v>7 (9.85915492957746%)</v>
+        <f t="shared" si="28"/>
+        <v>0 (12.3287671232877%)</v>
       </c>
       <c r="AH20" t="str">
-        <f t="shared" si="19"/>
-        <v>8 (11.2676056338028%)</v>
+        <f t="shared" si="29"/>
+        <v>3 (5%)</v>
       </c>
       <c r="AI20" t="str">
-        <f t="shared" si="20"/>
-        <v>0 (0%)</v>
+        <f t="shared" si="30"/>
+        <v>0 (9.85915492957746%)</v>
       </c>
       <c r="AJ20" t="str">
-        <f t="shared" si="21"/>
-        <v>7 (11.4754098360656%)</v>
-      </c>
-      <c r="AK20" t="str">
-        <f t="shared" si="22"/>
-        <v>1 (1.26582278481013%)</v>
-      </c>
-      <c r="AL20" t="str">
-        <f t="shared" si="23"/>
-        <v>2 (2.89855072463768%)</v>
-      </c>
-      <c r="AM20" t="str">
-        <f t="shared" si="24"/>
-        <v>6 (8.45070422535211%)</v>
+        <f>_xlfn.CONCAT(H23, " ", "(",W20,"%",")")</f>
+        <v xml:space="preserve"> (11.2676056338028%)</v>
+      </c>
+      <c r="AK20" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",X20,"%",")")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AL20" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",Y20,"%",")")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AM20" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",Z20,"%",")")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AN20" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",AA20,"%",")")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO20" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",AB20,"%",")")</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3300,104 +3350,108 @@
       <c r="M21">
         <v>2</v>
       </c>
-      <c r="O21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" si="2"/>
-        <v>3.7037037037037033</v>
-      </c>
-      <c r="Q21" s="3">
-        <f t="shared" si="3"/>
-        <v>2.7777777777777777</v>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3.9473684210526314</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>3.0612244897959182</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="13"/>
         <v>1.4084507042253522</v>
       </c>
-      <c r="V21" s="2">
-        <f t="shared" si="8"/>
+      <c r="X21" s="2">
+        <f t="shared" si="14"/>
         <v>1.4492753623188406</v>
       </c>
-      <c r="W21" s="2">
-        <f t="shared" si="9"/>
+      <c r="Y21" s="2">
+        <f t="shared" si="15"/>
         <v>1.639344262295082</v>
       </c>
-      <c r="X21" s="2">
-        <f t="shared" si="10"/>
+      <c r="Z21" s="2">
+        <f t="shared" si="16"/>
         <v>1.2658227848101267</v>
       </c>
-      <c r="Y21" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="12"/>
+      <c r="AA21" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="18"/>
         <v>2.8169014084507045</v>
       </c>
-      <c r="AB21" t="str">
-        <f t="shared" si="13"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AC21" t="str">
-        <f t="shared" si="14"/>
-        <v>3 (3.7037037037037%)</v>
-      </c>
       <c r="AD21" t="str">
-        <f t="shared" si="15"/>
-        <v>3 (2.77777777777778%)</v>
+        <f t="shared" si="25"/>
+        <v>0 (0%)</v>
       </c>
       <c r="AE21" t="str">
-        <f t="shared" si="16"/>
-        <v>0 (0%)</v>
+        <f t="shared" si="26"/>
+        <v>7 (3.94736842105263%)</v>
       </c>
       <c r="AF21" t="str">
-        <f t="shared" si="17"/>
-        <v>3 (3%)</v>
+        <f t="shared" si="27"/>
+        <v>3 (3.06122448979592%)</v>
       </c>
       <c r="AG21" t="str">
-        <f t="shared" si="18"/>
-        <v>0 (0%)</v>
+        <f t="shared" si="28"/>
+        <v>4 (0%)</v>
       </c>
       <c r="AH21" t="str">
-        <f t="shared" si="19"/>
-        <v>1 (1.40845070422535%)</v>
+        <f t="shared" si="29"/>
+        <v>7 (3%)</v>
       </c>
       <c r="AI21" t="str">
-        <f t="shared" si="20"/>
-        <v>1 (1.44927536231884%)</v>
-      </c>
-      <c r="AJ21" t="str">
-        <f t="shared" si="21"/>
-        <v>1 (1.63934426229508%)</v>
+        <f t="shared" si="30"/>
+        <v>0 (0%)</v>
+      </c>
+      <c r="AJ21" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",W21,"%",")")</f>
+        <v>#REF!</v>
       </c>
       <c r="AK21" t="str">
-        <f t="shared" si="22"/>
-        <v>1 (1.26582278481013%)</v>
+        <f>_xlfn.CONCAT(I23, " ", "(",X21,"%",")")</f>
+        <v xml:space="preserve"> (1.44927536231884%)</v>
       </c>
       <c r="AL21" t="str">
-        <f t="shared" si="23"/>
-        <v>0 (0%)</v>
+        <f>_xlfn.CONCAT(J23, " ", "(",Y21,"%",")")</f>
+        <v xml:space="preserve"> (1.63934426229508%)</v>
       </c>
       <c r="AM21" t="str">
-        <f t="shared" si="24"/>
-        <v>2 (2.8169014084507%)</v>
+        <f>_xlfn.CONCAT(K23, " ", "(",Z21,"%",")")</f>
+        <v xml:space="preserve"> (1.26582278481013%)</v>
+      </c>
+      <c r="AN21" t="str">
+        <f>_xlfn.CONCAT(L23, " ", "(",AA21,"%",")")</f>
+        <v xml:space="preserve"> (0%)</v>
+      </c>
+      <c r="AO21" t="str">
+        <f>_xlfn.CONCAT(M23, " ", "(",AB21,"%",")")</f>
+        <v xml:space="preserve"> (2.8169014084507%)</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3437,153 +3491,157 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="O22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" si="2"/>
-        <v>8.6419753086419746</v>
-      </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="3"/>
-        <v>2.7777777777777777</v>
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="4"/>
-        <v>4.8192771084337354</v>
+        <f>(C22/$C$24)*100</f>
+        <v>9.2105263157894726</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="10"/>
+        <v>5.4794520547945202</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="11"/>
         <v>7.0000000000000009</v>
       </c>
-      <c r="T22" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="V22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <f t="shared" si="14"/>
         <v>11.594202898550725</v>
       </c>
-      <c r="W22" s="2">
-        <f t="shared" si="9"/>
+      <c r="Y22" s="2">
+        <f t="shared" si="15"/>
         <v>6.557377049180328</v>
       </c>
-      <c r="X22" s="2">
-        <f t="shared" si="10"/>
+      <c r="Z22" s="2">
+        <f t="shared" si="16"/>
         <v>5.0632911392405067</v>
       </c>
-      <c r="Y22" s="2">
-        <f t="shared" si="11"/>
+      <c r="AA22" s="2">
+        <f t="shared" si="17"/>
         <v>11.594202898550725</v>
       </c>
-      <c r="Z22" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" t="str">
-        <f t="shared" si="13"/>
-        <v>0 (0%)</v>
-      </c>
-      <c r="AC22" t="str">
-        <f t="shared" si="14"/>
-        <v>7 (8.64197530864197%)</v>
+      <c r="AB22" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="AD22" t="str">
-        <f t="shared" si="15"/>
-        <v>3 (2.77777777777778%)</v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve"> (0%)</v>
       </c>
       <c r="AE22" t="str">
-        <f t="shared" si="16"/>
-        <v>4 (4.81927710843374%)</v>
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> (9.21052631578947%)</v>
       </c>
       <c r="AF22" t="str">
-        <f t="shared" si="17"/>
-        <v>7 (7%)</v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve"> (3.06122448979592%)</v>
       </c>
       <c r="AG22" t="str">
-        <f t="shared" si="18"/>
-        <v>0 (0%)</v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve"> (5.47945205479452%)</v>
       </c>
       <c r="AH22" t="str">
-        <f t="shared" si="19"/>
-        <v>0 (0%)</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve"> (7%)</v>
       </c>
       <c r="AI22" t="str">
-        <f t="shared" si="20"/>
-        <v>8 (11.5942028985507%)</v>
+        <f t="shared" si="30"/>
+        <v xml:space="preserve"> (0%)</v>
       </c>
       <c r="AJ22" t="str">
-        <f t="shared" si="21"/>
-        <v>4 (6.55737704918033%)</v>
-      </c>
-      <c r="AK22" t="str">
-        <f t="shared" si="22"/>
-        <v>4 (5.06329113924051%)</v>
-      </c>
-      <c r="AL22" t="str">
-        <f t="shared" si="23"/>
-        <v>8 (11.5942028985507%)</v>
-      </c>
-      <c r="AM22" t="str">
-        <f t="shared" si="24"/>
-        <v>0 (0%)</v>
+        <f>_xlfn.CONCAT(H24, " ", "(",W22,"%",")")</f>
+        <v>71 (0%)</v>
+      </c>
+      <c r="AK22" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",X22,"%",")")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AL22" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",Y22,"%",")")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AM22" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",Z22,"%",")")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AN22" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",AA22,"%",")")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO22" t="e">
+        <f>_xlfn.CONCAT(#REF!, " ", "(",AB22,"%",")")</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <f>SUM(B3:B22)</f>
-        <v>110</v>
+        <f t="shared" ref="B24:M24" si="31">SUM(B3:B23)</f>
+        <v>95</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:M24" si="25">SUM(C3:C22)</f>
-        <v>81</v>
+        <f t="shared" si="31"/>
+        <v>76</v>
       </c>
       <c r="D24">
-        <f t="shared" si="25"/>
-        <v>108</v>
+        <f t="shared" si="31"/>
+        <v>98</v>
       </c>
       <c r="E24">
-        <f t="shared" si="25"/>
-        <v>83</v>
+        <f t="shared" si="31"/>
+        <v>73</v>
       </c>
       <c r="F24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="G24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>71</v>
       </c>
       <c r="H24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>71</v>
       </c>
       <c r="I24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>69</v>
       </c>
       <c r="J24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>61</v>
       </c>
       <c r="K24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>79</v>
       </c>
       <c r="L24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>69</v>
       </c>
       <c r="M24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>71</v>
       </c>
     </row>
@@ -3591,8 +3649,8 @@
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3602,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A585B6B-0BC8-4131-AADC-335DF40288C6}">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7:AM7"/>
+    <sheetView topLeftCell="Y5" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3:AM22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3791,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
@@ -3831,7 +3889,7 @@
       </c>
       <c r="AE3" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2%)</v>
+        <v>2 (3%)</v>
       </c>
       <c r="AF3" t="str">
         <f t="shared" si="0"/>
@@ -3916,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S4" s="2">
         <v>4</v>
@@ -3956,7 +4014,7 @@
       </c>
       <c r="AE4" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2%)</v>
+        <v>2 (3%)</v>
       </c>
       <c r="AF4" t="str">
         <f t="shared" si="0"/>
@@ -4246,16 +4304,16 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -4285,7 +4343,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="2">
         <v>11</v>
@@ -4319,19 +4377,19 @@
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>12 (11%)</v>
+        <v>10 (11%)</v>
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="0"/>
-        <v>9 (11%)</v>
+        <v>9 (12%)</v>
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="0"/>
-        <v>12 (11%)</v>
+        <v>11 (11%)</v>
       </c>
       <c r="AE7" t="str">
         <f t="shared" si="0"/>
-        <v>9 (11%)</v>
+        <v>8 (11%)</v>
       </c>
       <c r="AF7" t="str">
         <f t="shared" si="0"/>
@@ -4371,16 +4429,16 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -4407,10 +4465,10 @@
         <v>5</v>
       </c>
       <c r="O8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P8" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="2">
         <v>9</v>
@@ -4444,19 +4502,19 @@
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>10 (9%)</v>
+        <v>8 (8%)</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" si="0"/>
-        <v>6 (7%)</v>
+        <v>6 (8%)</v>
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="0"/>
-        <v>10 (9%)</v>
+        <v>9 (9%)</v>
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="0"/>
-        <v>6 (7%)</v>
+        <v>5 (7%)</v>
       </c>
       <c r="AF8" t="str">
         <f t="shared" si="0"/>
@@ -4496,13 +4554,13 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>6</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4532,13 +4590,13 @@
         <v>3</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" s="2">
         <v>7</v>
       </c>
       <c r="Q9" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R9" s="2">
         <v>1</v>
@@ -4569,15 +4627,15 @@
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>3 (3%)</v>
+        <v>2 (2%)</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="0"/>
-        <v>6 (7%)</v>
+        <v>5 (7%)</v>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="0"/>
-        <v>8 (7%)</v>
+        <v>6 (6%)</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="0"/>
@@ -4621,22 +4679,22 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -4657,22 +4715,22 @@
         <v>3</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="2">
         <v>4</v>
@@ -4694,27 +4752,27 @@
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>0 (0%)</v>
+        <v>1 (1%)</v>
       </c>
       <c r="AC10" t="str">
         <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <v>4 (5%)</v>
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <v>4 (4%)</v>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <v>1 (1%)</v>
       </c>
       <c r="AF10" t="str">
         <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <v>4 (4%)</v>
       </c>
       <c r="AG10" t="str">
         <f t="shared" si="0"/>
-        <v>0 (0%)</v>
+        <v>1 (1%)</v>
       </c>
       <c r="AH10" t="str">
         <f t="shared" si="0"/>
@@ -4746,22 +4804,22 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -4782,22 +4840,22 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P11" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R11" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T11" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U11" s="2">
         <v>1</v>
@@ -4819,27 +4877,27 @@
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>2 (2%)</v>
+        <v>8 (8%)</v>
       </c>
       <c r="AC11" t="str">
         <f t="shared" si="0"/>
-        <v>5 (6%)</v>
+        <v>9 (12%)</v>
       </c>
       <c r="AD11" t="str">
         <f t="shared" si="0"/>
-        <v>5 (5%)</v>
+        <v>10 (10%)</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2%)</v>
+        <v>7 (10%)</v>
       </c>
       <c r="AF11" t="str">
         <f t="shared" si="0"/>
-        <v>4 (4%)</v>
+        <v>9 (9%)</v>
       </c>
       <c r="AG11" t="str">
         <f t="shared" si="0"/>
-        <v>1 (1%)</v>
+        <v>8 (11%)</v>
       </c>
       <c r="AH11" t="str">
         <f t="shared" si="0"/>
@@ -4871,16 +4929,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -4907,16 +4965,16 @@
         <v>9</v>
       </c>
       <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12" s="2">
         <v>8</v>
       </c>
-      <c r="P12" s="2">
-        <v>12</v>
-      </c>
       <c r="Q12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R12" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S12" s="2">
         <v>9</v>
@@ -4944,19 +5002,19 @@
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>9 (8%)</v>
+        <v>11 (12%)</v>
       </c>
       <c r="AC12" t="str">
         <f t="shared" si="0"/>
-        <v>10 (12%)</v>
+        <v>6 (8%)</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="0"/>
-        <v>11 (10%)</v>
+        <v>11 (11%)</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="0"/>
-        <v>8 (10%)</v>
+        <v>6 (8%)</v>
       </c>
       <c r="AF12" t="str">
         <f t="shared" si="0"/>
@@ -4996,22 +5054,22 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -5032,22 +5090,22 @@
         <v>10</v>
       </c>
       <c r="O13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P13" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R13" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S13" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T13" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U13" s="2">
         <v>15</v>
@@ -5069,27 +5127,27 @@
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>13 (12%)</v>
+        <v>8 (8%)</v>
       </c>
       <c r="AC13" t="str">
         <f t="shared" si="0"/>
-        <v>7 (9%)</v>
+        <v>2 (3%)</v>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="0"/>
-        <v>13 (12%)</v>
+        <v>6 (6%)</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="0"/>
-        <v>7 (8%)</v>
+        <v>4 (5%)</v>
       </c>
       <c r="AF13" t="str">
         <f t="shared" si="0"/>
-        <v>9 (9%)</v>
+        <v>5 (5%)</v>
       </c>
       <c r="AG13" t="str">
         <f t="shared" si="0"/>
-        <v>8 (11%)</v>
+        <v>5 (7%)</v>
       </c>
       <c r="AH13" t="str">
         <f t="shared" si="0"/>
@@ -5121,22 +5179,22 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -5157,22 +5215,22 @@
         <v>5</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U14" s="2">
         <v>11</v>
@@ -5194,27 +5252,27 @@
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>9 (8%)</v>
+        <v>0 (0%)</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2%)</v>
+        <v>0 (0%)</v>
       </c>
       <c r="AD14" t="str">
         <f t="shared" si="0"/>
-        <v>6 (6%)</v>
+        <v>0 (0%)</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="0"/>
-        <v>5 (6%)</v>
+        <v>0 (0%)</v>
       </c>
       <c r="AF14" t="str">
         <f t="shared" si="0"/>
-        <v>5 (5%)</v>
+        <v>0 (0%)</v>
       </c>
       <c r="AG14" t="str">
         <f t="shared" si="0"/>
-        <v>5 (7%)</v>
+        <v>0 (0%)</v>
       </c>
       <c r="AH14" t="str">
         <f t="shared" si="0"/>
@@ -5285,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="2">
         <v>3</v>
@@ -5323,7 +5381,7 @@
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="0"/>
-        <v>2 (2%)</v>
+        <v>2 (3%)</v>
       </c>
       <c r="AD15" t="str">
         <f t="shared" si="0"/>
@@ -5371,16 +5429,16 @@
         <v>19</v>
       </c>
       <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
         <v>18</v>
       </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
       <c r="E16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>18</v>
@@ -5410,13 +5468,13 @@
         <v>16</v>
       </c>
       <c r="P16" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R16" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S16" s="2">
         <v>18</v>
@@ -5444,19 +5502,19 @@
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>18 (16%)</v>
+        <v>15 (16%)</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="0"/>
-        <v>15 (19%)</v>
+        <v>14 (18%)</v>
       </c>
       <c r="AD16" t="str">
         <f t="shared" si="0"/>
-        <v>20 (19%)</v>
+        <v>18 (18%)</v>
       </c>
       <c r="AE16" t="str">
         <f t="shared" si="0"/>
-        <v>13 (16%)</v>
+        <v>11 (15%)</v>
       </c>
       <c r="AF16" t="str">
         <f t="shared" si="0"/>
@@ -5871,7 +5929,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -5880,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -5910,13 +5968,13 @@
         <v>11</v>
       </c>
       <c r="P20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="2">
         <v>3</v>
       </c>
       <c r="R20" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S20" s="2">
         <v>5</v>
@@ -5944,11 +6002,11 @@
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>12 (11%)</v>
+        <v>10 (11%)</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="1"/>
-        <v>2 (2%)</v>
+        <v>2 (3%)</v>
       </c>
       <c r="AD20" t="str">
         <f t="shared" si="1"/>
@@ -5956,7 +6014,7 @@
       </c>
       <c r="AE20" t="str">
         <f t="shared" si="1"/>
-        <v>11 (13%)</v>
+        <v>9 (12%)</v>
       </c>
       <c r="AF20" t="str">
         <f t="shared" si="1"/>
@@ -6289,10 +6347,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25BE048-6E20-42BC-9E3C-2A8E40B44249}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:M7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6393,7 +6451,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -6434,7 +6492,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -6548,22 +6606,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
         <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -6589,16 +6647,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -6630,13 +6688,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -6671,22 +6729,22 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
@@ -6712,22 +6770,22 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -6753,16 +6811,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
         <v>51</v>
@@ -6794,22 +6852,22 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -6835,22 +6893,22 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
         <v>53</v>
@@ -6879,7 +6937,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -6917,16 +6975,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
         <v>62</v>
@@ -7081,16 +7139,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
@@ -7197,11 +7255,6 @@
       </c>
       <c r="M22" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/results/summary_all.xlsx
+++ b/results/summary_all.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kauane Bordin\Meu Drive (kauanembordin@gmail.com)\Capítulo Functional Traits\plant_functional_traits_chapter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B645D21E-95D3-4922-870C-BB8F465939E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D6E533-1D8C-4232-A017-3F338D64AE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7345C443-23AC-41F1-AD75-3C55830770F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{7345C443-23AC-41F1-AD75-3C55830770F6}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
     <sheet name="rounded" sheetId="2" r:id="rId2"/>
-    <sheet name="to gt" sheetId="3" r:id="rId3"/>
+    <sheet name="to gt (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="to gt" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="79">
   <si>
     <t>Trait</t>
   </si>
@@ -281,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,13 +290,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -310,13 +368,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -334,6 +410,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18E180A-20BA-7CE6-EE8B-05FE880CA27D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7264400" y="0"/>
+          <a:ext cx="6661150" cy="3359150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE06031-2EB8-4A0E-9EC7-102B8E640FE8}">
   <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+    <sheetView zoomScale="77" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -889,27 +1031,27 @@
         <v>2 (2.8169014084507%)</v>
       </c>
       <c r="AJ3" t="str">
-        <f>_xlfn.CONCAT(H3, " ", "(",W3,"%",")")</f>
+        <f t="shared" ref="AJ3:AO3" si="7">_xlfn.CONCAT(H3, " ", "(",W3,"%",")")</f>
         <v>1 (1.40845070422535%)</v>
       </c>
       <c r="AK3" t="str">
-        <f>_xlfn.CONCAT(I3, " ", "(",X3,"%",")")</f>
+        <f t="shared" si="7"/>
         <v>0 (0%)</v>
       </c>
       <c r="AL3" t="str">
-        <f>_xlfn.CONCAT(J3, " ", "(",Y3,"%",")")</f>
+        <f t="shared" si="7"/>
         <v>1 (1.63934426229508%)</v>
       </c>
       <c r="AM3" t="str">
-        <f>_xlfn.CONCAT(K3, " ", "(",Z3,"%",")")</f>
+        <f t="shared" si="7"/>
         <v>0 (0%)</v>
       </c>
       <c r="AN3" t="str">
-        <f>_xlfn.CONCAT(L3, " ", "(",AA3,"%",")")</f>
+        <f t="shared" si="7"/>
         <v>0 (0%)</v>
       </c>
       <c r="AO3" t="str">
-        <f>_xlfn.CONCAT(M3, " ", "(",AB3,"%",")")</f>
+        <f t="shared" si="7"/>
         <v>1 (1.40845070422535%)</v>
       </c>
     </row>
@@ -954,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N22" si="7">SUM(B4,C4,H4,I4)</f>
+        <f t="shared" ref="N4:N22" si="8">SUM(B4,C4,H4,I4)</f>
         <v>4</v>
       </c>
       <c r="Q4" s="2">
@@ -962,47 +1104,47 @@
         <v>3.1578947368421053</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" ref="R4:R21" si="8">(C4/$C$24)*100</f>
+        <f t="shared" ref="R4:R21" si="9">(C4/$C$24)*100</f>
         <v>1.3157894736842104</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4:S22" si="9">(D4/$D$24)*100</f>
+        <f t="shared" ref="S4:S22" si="10">(D4/$D$24)*100</f>
         <v>2.0408163265306123</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" ref="T4:T22" si="10">(E4/$E$24)*100</f>
+        <f t="shared" ref="T4:T22" si="11">(E4/$E$24)*100</f>
         <v>2.7397260273972601</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" ref="U4:U22" si="11">(F4/$F$24)*100</f>
+        <f t="shared" ref="U4:U22" si="12">(F4/$F$24)*100</f>
         <v>4</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" ref="V4:V22" si="12">(G4/$G$24)*100</f>
+        <f t="shared" ref="V4:V22" si="13">(G4/$G$24)*100</f>
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <f t="shared" ref="W4:W22" si="13">(H4/$H$24)*100</f>
+        <f t="shared" ref="W4:W22" si="14">(H4/$H$24)*100</f>
         <v>0</v>
       </c>
       <c r="X4" s="2">
-        <f t="shared" ref="X4:X22" si="14">(I4/$I$24)*100</f>
+        <f t="shared" ref="X4:X22" si="15">(I4/$I$24)*100</f>
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" ref="Y4:Y22" si="15">(J4/$J$24)*100</f>
+        <f t="shared" ref="Y4:Y22" si="16">(J4/$J$24)*100</f>
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <f t="shared" ref="Z4:Z22" si="16">(K4/$K$24)*100</f>
+        <f t="shared" ref="Z4:Z22" si="17">(K4/$K$24)*100</f>
         <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <f t="shared" ref="AA4:AA22" si="17">(L4/$L$24)*100</f>
+        <f t="shared" ref="AA4:AA22" si="18">(L4/$L$24)*100</f>
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <f t="shared" ref="AB4:AB22" si="18">(M4/$M$24)*100</f>
+        <f t="shared" ref="AB4:AB22" si="19">(M4/$M$24)*100</f>
         <v>0</v>
       </c>
       <c r="AD4" t="str">
@@ -1030,27 +1172,27 @@
         <v>0 (0%)</v>
       </c>
       <c r="AJ4" t="str">
-        <f t="shared" ref="AJ4:AJ13" si="19">_xlfn.CONCAT(H6, " ", "(",W4,"%",")")</f>
+        <f t="shared" ref="AJ4:AJ13" si="20">_xlfn.CONCAT(H6, " ", "(",W4,"%",")")</f>
         <v>1 (0%)</v>
       </c>
       <c r="AK4" t="str">
-        <f t="shared" ref="AK4:AK13" si="20">_xlfn.CONCAT(I6, " ", "(",X4,"%",")")</f>
+        <f t="shared" ref="AK4:AK13" si="21">_xlfn.CONCAT(I6, " ", "(",X4,"%",")")</f>
         <v>0 (0%)</v>
       </c>
       <c r="AL4" t="str">
-        <f t="shared" ref="AL4:AL13" si="21">_xlfn.CONCAT(J6, " ", "(",Y4,"%",")")</f>
+        <f t="shared" ref="AL4:AL13" si="22">_xlfn.CONCAT(J6, " ", "(",Y4,"%",")")</f>
         <v>0 (0%)</v>
       </c>
       <c r="AM4" t="str">
-        <f t="shared" ref="AM4:AM13" si="22">_xlfn.CONCAT(K6, " ", "(",Z4,"%",")")</f>
+        <f t="shared" ref="AM4:AM13" si="23">_xlfn.CONCAT(K6, " ", "(",Z4,"%",")")</f>
         <v>1 (0%)</v>
       </c>
       <c r="AN4" t="str">
-        <f t="shared" ref="AN4:AN13" si="23">_xlfn.CONCAT(L6, " ", "(",AA4,"%",")")</f>
+        <f t="shared" ref="AN4:AN13" si="24">_xlfn.CONCAT(L6, " ", "(",AA4,"%",")")</f>
         <v>1 (0%)</v>
       </c>
       <c r="AO4" t="str">
-        <f t="shared" ref="AO4:AO13" si="24">_xlfn.CONCAT(M6, " ", "(",AB4,"%",")")</f>
+        <f t="shared" ref="AO4:AO13" si="25">_xlfn.CONCAT(M6, " ", "(",AB4,"%",")")</f>
         <v>0 (0%)</v>
       </c>
     </row>
@@ -1095,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q5" s="2">
@@ -1103,47 +1245,47 @@
         <v>1.0526315789473684</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9473684210526314</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0612244897959182</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3698630136986301</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="V5" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4084507042253522</v>
       </c>
       <c r="W5" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA5" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB5" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD5" t="str">
@@ -1171,27 +1313,27 @@
         <v>1 (1.40845070422535%)</v>
       </c>
       <c r="AJ5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7 (0%)</v>
       </c>
       <c r="AK5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13 (0%)</v>
       </c>
       <c r="AL5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7 (0%)</v>
       </c>
       <c r="AM5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13 (0%)</v>
       </c>
       <c r="AN5" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9 (0%)</v>
       </c>
       <c r="AO5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>11 (0%)</v>
       </c>
     </row>
@@ -1236,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="Q6" s="2">
@@ -1244,47 +1386,47 @@
         <v>2.1052631578947367</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0204081632653061</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3698630136986301</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="12"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="W6" s="2">
         <f t="shared" si="13"/>
         <v>1.4084507042253522</v>
       </c>
+      <c r="W6" s="2">
+        <f t="shared" si="14"/>
+        <v>1.4084507042253522</v>
+      </c>
       <c r="X6" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2658227848101267</v>
       </c>
       <c r="AA6" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4492753623188406</v>
       </c>
       <c r="AB6" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD6" t="str">
@@ -1312,27 +1454,27 @@
         <v>1 (1.40845070422535%)</v>
       </c>
       <c r="AJ6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5 (1.40845070422535%)</v>
       </c>
       <c r="AK6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4 (0%)</v>
       </c>
       <c r="AL6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3 (0%)</v>
       </c>
       <c r="AM6" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6 (1.26582278481013%)</v>
       </c>
       <c r="AN6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4 (1.44927536231884%)</v>
       </c>
       <c r="AO6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5 (0%)</v>
       </c>
     </row>
@@ -1377,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="N7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="Q7" s="2">
@@ -1385,47 +1527,47 @@
         <v>10.526315789473683</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.842105263157894</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.224489795918368</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.95890410958904</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16.901408450704224</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.8591549295774641</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>18.840579710144929</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.475409836065573</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16.455696202531644</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13.043478260869565</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15.492957746478872</v>
       </c>
       <c r="AD7" t="str">
@@ -1453,27 +1595,27 @@
         <v>12 (16.9014084507042%)</v>
       </c>
       <c r="AJ7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2 (9.85915492957746%)</v>
       </c>
       <c r="AK7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2 (18.8405797101449%)</v>
       </c>
       <c r="AL7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2 (11.4754098360656%)</v>
       </c>
       <c r="AM7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2 (16.4556962025316%)</v>
       </c>
       <c r="AN7" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1 (13.0434782608696%)</v>
       </c>
       <c r="AO7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3 (15.4929577464789%)</v>
       </c>
     </row>
@@ -1518,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="N8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="Q8" s="2">
@@ -1526,47 +1668,47 @@
         <v>8.4210526315789469</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.8947368421052628</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.183673469387756</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.8493150684931505</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.4507042253521121</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.042253521126761</v>
       </c>
       <c r="X8" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.7971014492753623</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.918032786885246</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.59493670886076</v>
       </c>
       <c r="AA8" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.7971014492753623</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.042253521126761</v>
       </c>
       <c r="AD8" t="str">
@@ -1594,27 +1736,27 @@
         <v>6 (8.45070422535211%)</v>
       </c>
       <c r="AJ8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3 (7.04225352112676%)</v>
       </c>
       <c r="AK8" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2 (5.79710144927536%)</v>
       </c>
       <c r="AL8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3 (4.91803278688525%)</v>
       </c>
       <c r="AM8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2 (7.59493670886076%)</v>
       </c>
       <c r="AN8" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2 (5.79710144927536%)</v>
       </c>
       <c r="AO8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3 (7.04225352112676%)</v>
       </c>
     </row>
@@ -1659,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="Q9" s="2">
@@ -1667,47 +1809,47 @@
         <v>2.1052631578947367</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.5789473684210522</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1224489795918364</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3698630136986301</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.225352112676056</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8169014084507045</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8985507246376812</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.278688524590164</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.5316455696202533</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4492753623188406</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.225352112676056</v>
       </c>
       <c r="AD9" t="str">
@@ -1735,27 +1877,27 @@
         <v>3 (4.22535211267606%)</v>
       </c>
       <c r="AJ9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1 (2.8169014084507%)</v>
       </c>
       <c r="AK9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1 (2.89855072463768%)</v>
       </c>
       <c r="AL9" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0 (3.27868852459016%)</v>
       </c>
       <c r="AM9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2 (2.53164556962025%)</v>
       </c>
       <c r="AN9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1 (1.44927536231884%)</v>
       </c>
       <c r="AO9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1 (4.22535211267606%)</v>
       </c>
     </row>
@@ -1800,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="Q10" s="2">
@@ -1808,47 +1950,47 @@
         <v>1.0526315789473684</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.2631578947368416</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.0816326530612246</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3698630136986301</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4084507042253522</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.225352112676056</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8985507246376812</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.918032786885246</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.5316455696202533</v>
       </c>
       <c r="AA10" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.8985507246376812</v>
       </c>
       <c r="AB10" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.225352112676056</v>
       </c>
       <c r="AD10" t="str">
@@ -1876,27 +2018,27 @@
         <v>1 (1.40845070422535%)</v>
       </c>
       <c r="AJ10" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6 (4.22535211267606%)</v>
       </c>
       <c r="AK10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9 (2.89855072463768%)</v>
       </c>
       <c r="AL10" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6 (4.91803278688525%)</v>
       </c>
       <c r="AM10" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9 (2.53164556962025%)</v>
       </c>
       <c r="AN10" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6 (2.89855072463768%)</v>
       </c>
       <c r="AO10" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9 (4.22535211267606%)</v>
       </c>
     </row>
@@ -1941,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="Q11" s="2">
@@ -1949,47 +2091,47 @@
         <v>8.4210526315789469</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.842105263157894</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.204081632653061</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.5890410958904102</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.267605633802818</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4084507042253522</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.4492753623188406</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.5316455696202533</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4492753623188406</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4084507042253522</v>
       </c>
       <c r="AD11" t="str">
@@ -2017,27 +2159,27 @@
         <v>8 (11.2676056338028%)</v>
       </c>
       <c r="AJ11" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11 (1.40845070422535%)</v>
       </c>
       <c r="AK11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9 (1.44927536231884%)</v>
       </c>
       <c r="AL11" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8 (0%)</v>
       </c>
       <c r="AM11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12 (2.53164556962025%)</v>
       </c>
       <c r="AN11" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>10 (1.44927536231884%)</v>
       </c>
       <c r="AO11" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>10 (1.40845070422535%)</v>
       </c>
     </row>
@@ -2082,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="N12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="Q12" s="2">
@@ -2090,47 +2232,47 @@
         <v>11.578947368421053</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.8947368421052628</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.224489795918368</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.2191780821917799</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.267605633802818</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4507042253521121</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.043478260869565</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.8360655737704921</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.39240506329114</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.695652173913043</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12.676056338028168</v>
       </c>
       <c r="AD12" t="str">
@@ -2158,27 +2300,27 @@
         <v>8 (11.2676056338028%)</v>
       </c>
       <c r="AJ12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8 (8.45070422535211%)</v>
       </c>
       <c r="AK12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2 (13.0434782608696%)</v>
       </c>
       <c r="AL12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5 (9.83606557377049%)</v>
       </c>
       <c r="AM12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5 (11.3924050632911%)</v>
       </c>
       <c r="AN12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5 (8.69565217391304%)</v>
       </c>
       <c r="AO12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5 (12.6760563380282%)</v>
       </c>
     </row>
@@ -2223,7 +2365,7 @@
         <v>10</v>
       </c>
       <c r="N13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="Q13" s="2">
@@ -2231,47 +2373,47 @@
         <v>8.4210526315789469</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6315789473684208</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1224489795918364</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.4794520547945202</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.042253521126761</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15.492957746478872</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.043478260869565</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13.114754098360656</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15.18987341772152</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14.492753623188406</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>14.084507042253522</v>
       </c>
       <c r="AD13" t="str">
@@ -2299,27 +2441,27 @@
         <v>5 (7.04225352112676%)</v>
       </c>
       <c r="AJ13" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1 (15.4929577464789%)</v>
       </c>
       <c r="AK13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2 (13.0434782608696%)</v>
       </c>
       <c r="AL13" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0 (13.1147540983607%)</v>
       </c>
       <c r="AM13" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3 (15.1898734177215%)</v>
       </c>
       <c r="AN13" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3 (14.4927536231884%)</v>
       </c>
       <c r="AO13" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0 (14.0845070422535%)</v>
       </c>
     </row>
@@ -2364,7 +2506,7 @@
         <v>5</v>
       </c>
       <c r="N14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="Q14" s="2">
@@ -2372,71 +2514,71 @@
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11.267605633802818</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8985507246376812</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.1967213114754092</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.3291139240506329</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.2463768115942031</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.042253521126761</v>
       </c>
       <c r="AD14" t="str">
-        <f t="shared" ref="AD14:AD22" si="25">_xlfn.CONCAT(B15, " ", "(",Q14,"%",")")</f>
+        <f t="shared" ref="AD14:AD22" si="26">_xlfn.CONCAT(B15, " ", "(",Q14,"%",")")</f>
         <v>1 (0%)</v>
       </c>
       <c r="AE14" t="str">
-        <f t="shared" ref="AE14:AE22" si="26">_xlfn.CONCAT(C15, " ", "(",R14,"%",")")</f>
+        <f t="shared" ref="AE14:AE22" si="27">_xlfn.CONCAT(C15, " ", "(",R14,"%",")")</f>
         <v>2 (0%)</v>
       </c>
       <c r="AF14" t="str">
-        <f t="shared" ref="AF14:AF22" si="27">_xlfn.CONCAT(D15, " ", "(",S14,"%",")")</f>
+        <f t="shared" ref="AF14:AF22" si="28">_xlfn.CONCAT(D15, " ", "(",S14,"%",")")</f>
         <v>3 (0%)</v>
       </c>
       <c r="AG14" t="str">
-        <f t="shared" ref="AG14:AG22" si="28">_xlfn.CONCAT(E15, " ", "(",T14,"%",")")</f>
+        <f t="shared" ref="AG14:AG22" si="29">_xlfn.CONCAT(E15, " ", "(",T14,"%",")")</f>
         <v>0 (0%)</v>
       </c>
       <c r="AH14" t="str">
-        <f t="shared" ref="AH14:AH22" si="29">_xlfn.CONCAT(F15, " ", "(",U14,"%",")")</f>
+        <f t="shared" ref="AH14:AH22" si="30">_xlfn.CONCAT(F15, " ", "(",U14,"%",")")</f>
         <v>3 (0%)</v>
       </c>
       <c r="AI14" t="str">
-        <f t="shared" ref="AI14:AI22" si="30">_xlfn.CONCAT(G15, " ", "(",V14,"%",")")</f>
+        <f t="shared" ref="AI14:AI22" si="31">_xlfn.CONCAT(G15, " ", "(",V14,"%",")")</f>
         <v>0 (0%)</v>
       </c>
       <c r="AJ14" t="str">
@@ -2444,23 +2586,23 @@
         <v>0 (11.2676056338028%)</v>
       </c>
       <c r="AK14" t="str">
-        <f>_xlfn.CONCAT(I21, " ", "(",X14,"%",")")</f>
+        <f t="shared" ref="AK14:AO15" si="32">_xlfn.CONCAT(I21, " ", "(",X14,"%",")")</f>
         <v>1 (2.89855072463768%)</v>
       </c>
       <c r="AL14" t="str">
-        <f>_xlfn.CONCAT(J21, " ", "(",Y14,"%",")")</f>
+        <f t="shared" si="32"/>
         <v>1 (8.19672131147541%)</v>
       </c>
       <c r="AM14" t="str">
-        <f>_xlfn.CONCAT(K21, " ", "(",Z14,"%",")")</f>
+        <f t="shared" si="32"/>
         <v>1 (6.32911392405063%)</v>
       </c>
       <c r="AN14" t="str">
-        <f>_xlfn.CONCAT(L21, " ", "(",AA14,"%",")")</f>
+        <f t="shared" si="32"/>
         <v>0 (7.2463768115942%)</v>
       </c>
       <c r="AO14" t="str">
-        <f>_xlfn.CONCAT(M21, " ", "(",AB14,"%",")")</f>
+        <f t="shared" si="32"/>
         <v>2 (7.04225352112676%)</v>
       </c>
     </row>
@@ -2505,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q15" s="2">
@@ -2513,71 +2655,71 @@
         <v>1.0526315789473684</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6315789473684208</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0612244897959182</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4084507042253522</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8985507246376812</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.79746835443038</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.3478260869565215</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD15" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>15 (1.05263157894737%)</v>
       </c>
       <c r="AE15" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>14 (2.63157894736842%)</v>
       </c>
       <c r="AF15" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>18 (3.06122448979592%)</v>
       </c>
       <c r="AG15" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>11 (0%)</v>
       </c>
       <c r="AH15" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18 (3%)</v>
       </c>
       <c r="AI15" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>11 (0%)</v>
       </c>
       <c r="AJ15" t="str">
@@ -2585,23 +2727,23 @@
         <v>13 (1.40845070422535%)</v>
       </c>
       <c r="AK15" t="str">
-        <f>_xlfn.CONCAT(I22, " ", "(",X15,"%",")")</f>
+        <f t="shared" si="32"/>
         <v>8 (2.89855072463768%)</v>
       </c>
       <c r="AL15" t="str">
-        <f>_xlfn.CONCAT(J22, " ", "(",Y15,"%",")")</f>
+        <f t="shared" si="32"/>
         <v>4 (0%)</v>
       </c>
       <c r="AM15" t="str">
-        <f>_xlfn.CONCAT(K22, " ", "(",Z15,"%",")")</f>
+        <f t="shared" si="32"/>
         <v>4 (3.79746835443038%)</v>
       </c>
       <c r="AN15" t="str">
-        <f>_xlfn.CONCAT(L22, " ", "(",AA15,"%",")")</f>
+        <f t="shared" si="32"/>
         <v>8 (4.34782608695652%)</v>
       </c>
       <c r="AO15" t="str">
-        <f>_xlfn.CONCAT(M22, " ", "(",AB15,"%",")")</f>
+        <f t="shared" si="32"/>
         <v>0 (0%)</v>
       </c>
     </row>
@@ -2646,7 +2788,7 @@
         <v>13</v>
       </c>
       <c r="N16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="Q16" s="2">
@@ -2654,71 +2796,71 @@
         <v>15.789473684210526</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18.421052631578945</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18.367346938775512</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15.068493150684931</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15.492957746478872</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18.30985915492958</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>21.739130434782609</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.032786885245901</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.518987341772153</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21.739130434782609</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>18.30985915492958</v>
       </c>
       <c r="AD16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4 (15.7894736842105%)</v>
       </c>
       <c r="AE16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3 (18.4210526315789%)</v>
       </c>
       <c r="AF16" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3 (18.3673469387755%)</v>
       </c>
       <c r="AG16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4 (15.0684931506849%)</v>
       </c>
       <c r="AH16" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4 (18%)</v>
       </c>
       <c r="AI16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3 (15.4929577464789%)</v>
       </c>
       <c r="AJ16" t="str">
@@ -2726,23 +2868,23 @@
         <v>1 (18.3098591549296%)</v>
       </c>
       <c r="AK16" t="str">
-        <f>_xlfn.CONCAT(I16, " ", "(",X16,"%",")")</f>
+        <f t="shared" ref="AK16:AO17" si="33">_xlfn.CONCAT(I16, " ", "(",X16,"%",")")</f>
         <v>15 (21.7391304347826%)</v>
       </c>
       <c r="AL16" t="str">
-        <f>_xlfn.CONCAT(J16, " ", "(",Y16,"%",")")</f>
+        <f t="shared" si="33"/>
         <v>11 (18.0327868852459%)</v>
       </c>
       <c r="AM16" t="str">
-        <f>_xlfn.CONCAT(K16, " ", "(",Z16,"%",")")</f>
+        <f t="shared" si="33"/>
         <v>17 (21.5189873417722%)</v>
       </c>
       <c r="AN16" t="str">
-        <f>_xlfn.CONCAT(L16, " ", "(",AA16,"%",")")</f>
+        <f t="shared" si="33"/>
         <v>15 (21.7391304347826%)</v>
       </c>
       <c r="AO16" t="str">
-        <f>_xlfn.CONCAT(M16, " ", "(",AB16,"%",")")</f>
+        <f t="shared" si="33"/>
         <v>13 (18.3098591549296%)</v>
       </c>
     </row>
@@ -2787,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Q17" s="2">
@@ -2795,71 +2937,71 @@
         <v>4.2105263157894735</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9473684210526314</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0612244897959182</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.4794520547945202</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.225352112676056</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4084507042253522</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.4492753623188406</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.639344262295082</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2658227848101267</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4492753623188406</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4084507042253522</v>
       </c>
       <c r="AD17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5 (4.21052631578947%)</v>
       </c>
       <c r="AE17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0 (3.94736842105263%)</v>
       </c>
       <c r="AF17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2 (3.06122448979592%)</v>
       </c>
       <c r="AG17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3 (5.47945205479452%)</v>
       </c>
       <c r="AH17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5 (4%)</v>
       </c>
       <c r="AI17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0 (4.22535211267606%)</v>
       </c>
       <c r="AJ17" t="str">
@@ -2867,23 +3009,23 @@
         <v>2 (1.40845070422535%)</v>
       </c>
       <c r="AK17" t="str">
-        <f>_xlfn.CONCAT(I17, " ", "(",X17,"%",")")</f>
+        <f t="shared" si="33"/>
         <v>1 (1.44927536231884%)</v>
       </c>
       <c r="AL17" t="str">
-        <f>_xlfn.CONCAT(J17, " ", "(",Y17,"%",")")</f>
+        <f t="shared" si="33"/>
         <v>1 (1.63934426229508%)</v>
       </c>
       <c r="AM17" t="str">
-        <f>_xlfn.CONCAT(K17, " ", "(",Z17,"%",")")</f>
+        <f t="shared" si="33"/>
         <v>1 (1.26582278481013%)</v>
       </c>
       <c r="AN17" t="str">
-        <f>_xlfn.CONCAT(L17, " ", "(",AA17,"%",")")</f>
+        <f t="shared" si="33"/>
         <v>1 (1.44927536231884%)</v>
       </c>
       <c r="AO17" t="str">
-        <f>_xlfn.CONCAT(M17, " ", "(",AB17,"%",")")</f>
+        <f t="shared" si="33"/>
         <v>1 (1.40845070422535%)</v>
       </c>
     </row>
@@ -2928,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q18" s="2">
@@ -2936,71 +3078,71 @@
         <v>5.2631578947368416</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0408163265306123</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.10958904109589</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD18" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4 (5.26315789473684%)</v>
       </c>
       <c r="AE18" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0 (0%)</v>
       </c>
       <c r="AF18" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0 (2.04081632653061%)</v>
       </c>
       <c r="AG18" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4 (4.10958904109589%)</v>
       </c>
       <c r="AH18" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1 (5%)</v>
       </c>
       <c r="AI18" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3 (0%)</v>
       </c>
       <c r="AJ18" t="str">
@@ -3008,23 +3150,23 @@
         <v>8 (0%)</v>
       </c>
       <c r="AK18" t="str">
-        <f>_xlfn.CONCAT(I19, " ", "(",X18,"%",")")</f>
+        <f t="shared" ref="AK18:AO19" si="34">_xlfn.CONCAT(I19, " ", "(",X18,"%",")")</f>
         <v>0 (0%)</v>
       </c>
       <c r="AL18" t="str">
-        <f>_xlfn.CONCAT(J19, " ", "(",Y18,"%",")")</f>
+        <f t="shared" si="34"/>
         <v>2 (0%)</v>
       </c>
       <c r="AM18" t="str">
-        <f>_xlfn.CONCAT(K19, " ", "(",Z18,"%",")")</f>
+        <f t="shared" si="34"/>
         <v>0 (0%)</v>
       </c>
       <c r="AN18" t="str">
-        <f>_xlfn.CONCAT(L19, " ", "(",AA18,"%",")")</f>
+        <f t="shared" si="34"/>
         <v>1 (0%)</v>
       </c>
       <c r="AO18" t="str">
-        <f>_xlfn.CONCAT(M19, " ", "(",AB18,"%",")")</f>
+        <f t="shared" si="34"/>
         <v>1 (0%)</v>
       </c>
     </row>
@@ -3069,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Q19" s="2">
@@ -3077,71 +3219,71 @@
         <v>4.2105263157894735</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.4794520547945202</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.225352112676056</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8169014084507045</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.278688524590164</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.4492753623188406</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4084507042253522</v>
       </c>
       <c r="AD19" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10 (4.21052631578947%)</v>
       </c>
       <c r="AE19" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2 (0%)</v>
       </c>
       <c r="AF19" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3 (0%)</v>
       </c>
       <c r="AG19" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>9 (5.47945205479452%)</v>
       </c>
       <c r="AH19" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5 (1%)</v>
       </c>
       <c r="AI19" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7 (4.22535211267606%)</v>
       </c>
       <c r="AJ19" t="e">
@@ -3149,23 +3291,23 @@
         <v>#REF!</v>
       </c>
       <c r="AK19" t="str">
-        <f>_xlfn.CONCAT(I20, " ", "(",X19,"%",")")</f>
+        <f t="shared" si="34"/>
         <v>0 (0%)</v>
       </c>
       <c r="AL19" t="str">
-        <f>_xlfn.CONCAT(J20, " ", "(",Y19,"%",")")</f>
+        <f t="shared" si="34"/>
         <v>7 (3.27868852459016%)</v>
       </c>
       <c r="AM19" t="str">
-        <f>_xlfn.CONCAT(K20, " ", "(",Z19,"%",")")</f>
+        <f t="shared" si="34"/>
         <v>1 (0%)</v>
       </c>
       <c r="AN19" t="str">
-        <f>_xlfn.CONCAT(L20, " ", "(",AA19,"%",")")</f>
+        <f t="shared" si="34"/>
         <v>2 (1.44927536231884%)</v>
       </c>
       <c r="AO19" t="str">
-        <f>_xlfn.CONCAT(M20, " ", "(",AB19,"%",")")</f>
+        <f t="shared" si="34"/>
         <v>6 (1.40845070422535%)</v>
       </c>
     </row>
@@ -3210,7 +3352,7 @@
         <v>6</v>
       </c>
       <c r="N20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="Q20" s="2">
@@ -3218,71 +3360,71 @@
         <v>10.526315789473683</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6315789473684208</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0612244897959182</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12.328767123287671</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.8591549295774641</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11.267605633802818</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.475409836065573</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2658227848101267</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.8985507246376812</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.4507042253521121</v>
       </c>
       <c r="AD20" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0 (10.5263157894737%)</v>
       </c>
       <c r="AE20" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3 (2.63157894736842%)</v>
       </c>
       <c r="AF20" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3 (3.06122448979592%)</v>
       </c>
       <c r="AG20" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0 (12.3287671232877%)</v>
       </c>
       <c r="AH20" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3 (5%)</v>
       </c>
       <c r="AI20" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0 (9.85915492957746%)</v>
       </c>
       <c r="AJ20" t="str">
@@ -3351,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Q21" s="2">
@@ -3359,71 +3501,71 @@
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9473684210526314</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0612244897959182</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4084507042253522</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.4492753623188406</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.639344262295082</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2658227848101267</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.8169014084507045</v>
       </c>
       <c r="AD21" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0 (0%)</v>
       </c>
       <c r="AE21" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7 (3.94736842105263%)</v>
       </c>
       <c r="AF21" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3 (3.06122448979592%)</v>
       </c>
       <c r="AG21" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4 (0%)</v>
       </c>
       <c r="AH21" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7 (3%)</v>
       </c>
       <c r="AI21" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0 (0%)</v>
       </c>
       <c r="AJ21" t="e">
@@ -3492,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="Q22" s="2">
@@ -3504,67 +3646,67 @@
         <v>9.2105263157894726</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0612244897959182</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.4794520547945202</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.594202898550725</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.557377049180328</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.0632911392405067</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.594202898550725</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AD22" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> (0%)</v>
       </c>
       <c r="AE22" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> (9.21052631578947%)</v>
       </c>
       <c r="AF22" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve"> (3.06122448979592%)</v>
       </c>
       <c r="AG22" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve"> (5.47945205479452%)</v>
       </c>
       <c r="AH22" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve"> (7%)</v>
       </c>
       <c r="AI22" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve"> (0%)</v>
       </c>
       <c r="AJ22" t="str">
@@ -3597,51 +3739,51 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:M24" si="31">SUM(B3:B23)</f>
+        <f t="shared" ref="B24:M24" si="35">SUM(B3:B23)</f>
         <v>95</v>
       </c>
       <c r="C24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>76</v>
       </c>
       <c r="D24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>98</v>
       </c>
       <c r="E24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>73</v>
       </c>
       <c r="F24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="G24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>71</v>
       </c>
       <c r="H24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>71</v>
       </c>
       <c r="I24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>69</v>
       </c>
       <c r="J24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>61</v>
       </c>
       <c r="K24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>79</v>
       </c>
       <c r="L24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>69</v>
       </c>
       <c r="M24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>71</v>
       </c>
     </row>
@@ -6346,6 +6488,919 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749F6BAC-7DAA-47DF-A237-64F550044F86}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25BE048-6E20-42BC-9E3C-2A8E40B44249}">
   <dimension ref="A1:M22"/>
   <sheetViews>

--- a/results/summary_all.xlsx
+++ b/results/summary_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kauane Bordin\Meu Drive (kauanembordin@gmail.com)\Capítulo Functional Traits\plant_functional_traits_chapter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D6E533-1D8C-4232-A017-3F338D64AE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10459EB-4398-46D3-A3A5-8445E7411178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{7345C443-23AC-41F1-AD75-3C55830770F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="81">
   <si>
     <t>Trait</t>
   </si>
@@ -277,6 +277,12 @@
   <si>
     <t>14 (18%)</t>
   </si>
+  <si>
+    <t>Functional diversity</t>
+  </si>
+  <si>
+    <t>Functional dominance</t>
+  </si>
 </sst>
 </file>
 
@@ -374,9 +380,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -392,6 +395,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,72 +416,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18E180A-20BA-7CE6-EE8B-05FE880CA27D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7264400" y="0"/>
-          <a:ext cx="6661150" cy="3359150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,41 +741,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -6492,27 +6432,27 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection sqref="A1:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
+      <c r="A1" s="17"/>
       <c r="B1" s="19" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -6520,7 +6460,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
@@ -6529,863 +6469,863 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="K3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="16" t="s">
+      <c r="G4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="H5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="14" t="s">
+      <c r="I6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="14" t="s">
+      <c r="J11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="G15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="14" t="s">
+      <c r="J15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="16" t="s">
+      <c r="G18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="I19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="15" t="s">
+      <c r="K19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="I20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="16" t="s">
+      <c r="L21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="12" t="s">
+      <c r="G22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7396,7 +7336,6 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/results/summary_all.xlsx
+++ b/results/summary_all.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kauane Bordin\Meu Drive (kauanembordin@gmail.com)\Capítulo Functional Traits\plant_functional_traits_chapter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10459EB-4398-46D3-A3A5-8445E7411178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B9D207-B93D-4F19-A696-F93A68875A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{7345C443-23AC-41F1-AD75-3C55830770F6}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
     <sheet name="rounded" sheetId="2" r:id="rId2"/>
-    <sheet name="to gt (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="to gt" sheetId="3" r:id="rId4"/>
+    <sheet name="table 2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="81">
   <si>
     <t>Trait</t>
   </si>
@@ -419,9 +418,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -459,7 +458,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -565,7 +564,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -707,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3742,7 +3741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A585B6B-0BC8-4131-AADC-335DF40288C6}">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView topLeftCell="Y5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB3" sqref="AB3:AM22"/>
     </sheetView>
   </sheetViews>
@@ -7337,921 +7336,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25BE048-6E20-42BC-9E3C-2A8E40B44249}">
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>